--- a/dummy_data/ewts_master_dummy_data.xlsx
+++ b/dummy_data/ewts_master_dummy_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="EA_MD"/>
@@ -2674,7 +2674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2691,7 +2691,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2699,6 +2699,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3174,18 +3180,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
@@ -3329,20 +3332,23 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
@@ -3926,12 +3932,12 @@
   </sheetPr>
   <dimension ref="A1:BW36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="75" width="14.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="10.862142857142858" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="14.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="9.147857142857141" customWidth="1" bestFit="1"/>
@@ -3940,10 +3946,10 @@
     <col min="8" max="8" style="3" width="19.433571428571426" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="3" width="16.290714285714284" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="3" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="76" width="10.862142857142858" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="76" width="10.862142857142858" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="76" width="10.862142857142858" customWidth="1" bestFit="1"/>
@@ -3956,10 +3962,10 @@
     <col min="24" max="24" style="77" width="10.862142857142858" customWidth="1" bestFit="1"/>
     <col min="25" max="25" style="77" width="10.862142857142858" customWidth="1" bestFit="1"/>
     <col min="26" max="26" style="77" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="19" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="75" width="14.576428571428572" customWidth="1" bestFit="1"/>
     <col min="31" max="31" style="77" width="13.290714285714287" customWidth="1" bestFit="1"/>
     <col min="32" max="32" style="77" width="13.290714285714287" customWidth="1" bestFit="1"/>
     <col min="33" max="33" style="77" width="13.290714285714287" customWidth="1" bestFit="1"/>
@@ -3973,25 +3979,25 @@
     <col min="41" max="41" style="78" width="20.005" customWidth="1" bestFit="1"/>
     <col min="42" max="42" style="22" width="20.005" customWidth="1" bestFit="1"/>
     <col min="43" max="43" style="78" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="19" width="32.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="75" width="32.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="46" max="46" style="3" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="19" width="32.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="19" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="75" width="32.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="75" width="15.290714285714287" customWidth="1" bestFit="1"/>
     <col min="63" max="63" style="77" width="15.290714285714287" customWidth="1" bestFit="1"/>
     <col min="64" max="64" style="77" width="14.005" customWidth="1" bestFit="1"/>
     <col min="65" max="65" style="77" width="12.005" customWidth="1" bestFit="1"/>
@@ -4003,11 +4009,11 @@
     <col min="71" max="71" style="77" width="14.43357142857143" customWidth="1" bestFit="1"/>
     <col min="72" max="72" style="77" width="14.43357142857143" customWidth="1" bestFit="1"/>
     <col min="73" max="73" style="77" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="74" max="74" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="75" max="75" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="74" max="74" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="75" max="75" style="75" width="29.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="108.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="115.5">
       <c r="A1" s="4" t="s">
         <v>693</v>
       </c>
@@ -4095,7 +4101,7 @@
       <c r="AC1" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="AD1" s="66" t="s">
+      <c r="AD1" s="65" t="s">
         <v>769</v>
       </c>
       <c r="AE1" s="9" t="s">
@@ -4191,7 +4197,7 @@
       <c r="BI1" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="BJ1" s="27" t="s">
+      <c r="BJ1" s="26" t="s">
         <v>846</v>
       </c>
       <c r="BK1" s="9" t="s">
@@ -4200,31 +4206,31 @@
       <c r="BL1" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="BM1" s="29" t="s">
+      <c r="BM1" s="28" t="s">
         <v>801</v>
       </c>
-      <c r="BN1" s="29" t="s">
+      <c r="BN1" s="28" t="s">
         <v>802</v>
       </c>
-      <c r="BO1" s="29" t="s">
+      <c r="BO1" s="28" t="s">
         <v>849</v>
       </c>
-      <c r="BP1" s="29" t="s">
+      <c r="BP1" s="28" t="s">
         <v>850</v>
       </c>
-      <c r="BQ1" s="67" t="s">
+      <c r="BQ1" s="66" t="s">
         <v>851</v>
       </c>
-      <c r="BR1" s="67" t="s">
+      <c r="BR1" s="66" t="s">
         <v>852</v>
       </c>
-      <c r="BS1" s="67" t="s">
+      <c r="BS1" s="66" t="s">
         <v>853</v>
       </c>
-      <c r="BT1" s="67" t="s">
+      <c r="BT1" s="66" t="s">
         <v>854</v>
       </c>
-      <c r="BU1" s="67" t="s">
+      <c r="BU1" s="66" t="s">
         <v>855</v>
       </c>
       <c r="BV1" s="6" t="s">
@@ -4263,7 +4269,7 @@
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <v>45467</v>
       </c>
       <c r="L2" s="14">
@@ -4293,22 +4299,22 @@
       <c r="T2" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="U2" s="68">
+      <c r="U2" s="67">
         <v>0.31</v>
       </c>
-      <c r="V2" s="68">
+      <c r="V2" s="67">
         <v>0.4</v>
       </c>
-      <c r="W2" s="68">
+      <c r="W2" s="67">
         <v>0.6</v>
       </c>
-      <c r="X2" s="68">
+      <c r="X2" s="67">
         <v>0.66</v>
       </c>
-      <c r="Y2" s="68">
+      <c r="Y2" s="67">
         <v>0.69</v>
       </c>
-      <c r="Z2" s="68">
+      <c r="Z2" s="67">
         <v>0.69</v>
       </c>
       <c r="AA2" s="14">
@@ -4488,7 +4494,7 @@
       <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <v>45490</v>
       </c>
       <c r="L3" s="14">
@@ -4518,22 +4524,22 @@
       <c r="T3" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="U3" s="68">
+      <c r="U3" s="67">
         <v>0.2</v>
       </c>
-      <c r="V3" s="68">
+      <c r="V3" s="67">
         <v>0.31</v>
       </c>
-      <c r="W3" s="68">
+      <c r="W3" s="67">
         <v>0.4</v>
       </c>
-      <c r="X3" s="68">
+      <c r="X3" s="67">
         <v>0.5</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="23" t="s">
         <v>754</v>
       </c>
-      <c r="Z3" s="24" t="s">
+      <c r="Z3" s="23" t="s">
         <v>754</v>
       </c>
       <c r="AA3" s="14">
@@ -4713,7 +4719,7 @@
       <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <v>45517</v>
       </c>
       <c r="L4" s="14">
@@ -4740,25 +4746,25 @@
       <c r="S4" s="18" t="s">
         <v>753</v>
       </c>
-      <c r="T4" s="69" t="s">
+      <c r="T4" s="68" t="s">
         <v>754</v>
       </c>
-      <c r="U4" s="70">
+      <c r="U4" s="69">
         <v>0.2</v>
       </c>
-      <c r="V4" s="70">
+      <c r="V4" s="69">
         <v>0.32</v>
       </c>
-      <c r="W4" s="70">
+      <c r="W4" s="69">
         <v>0.45</v>
       </c>
-      <c r="X4" s="70">
+      <c r="X4" s="69">
         <v>0.48</v>
       </c>
-      <c r="Y4" s="70">
+      <c r="Y4" s="69">
         <v>0.54</v>
       </c>
-      <c r="Z4" s="70" t="s">
+      <c r="Z4" s="69" t="s">
         <v>754</v>
       </c>
       <c r="AA4" s="14">
@@ -4934,7 +4940,7 @@
       <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <v>45536</v>
       </c>
       <c r="L5" s="14">
@@ -4964,22 +4970,22 @@
       <c r="T5" s="18" t="s">
         <v>872</v>
       </c>
-      <c r="U5" s="68">
+      <c r="U5" s="67">
         <v>0.1</v>
       </c>
-      <c r="V5" s="68">
+      <c r="V5" s="67">
         <v>0.2</v>
       </c>
-      <c r="W5" s="68">
+      <c r="W5" s="67">
         <v>0.42</v>
       </c>
-      <c r="X5" s="68">
+      <c r="X5" s="67">
         <v>0.66</v>
       </c>
-      <c r="Y5" s="68">
+      <c r="Y5" s="67">
         <v>0.7</v>
       </c>
-      <c r="Z5" s="68">
+      <c r="Z5" s="67">
         <v>0.72</v>
       </c>
       <c r="AA5" s="14">
@@ -5159,7 +5165,7 @@
       <c r="J6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <v>45538</v>
       </c>
       <c r="L6" s="14">
@@ -5183,28 +5189,28 @@
       <c r="R6" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="S6" s="69" t="s">
+      <c r="S6" s="68" t="s">
         <v>754</v>
       </c>
-      <c r="T6" s="69" t="s">
+      <c r="T6" s="68" t="s">
         <v>754</v>
       </c>
-      <c r="U6" s="70">
+      <c r="U6" s="69">
         <v>0.4</v>
       </c>
-      <c r="V6" s="70">
+      <c r="V6" s="69">
         <v>0.55</v>
       </c>
-      <c r="W6" s="70">
+      <c r="W6" s="69">
         <v>0.6</v>
       </c>
-      <c r="X6" s="70" t="s">
+      <c r="X6" s="69" t="s">
         <v>754</v>
       </c>
-      <c r="Y6" s="70" t="s">
+      <c r="Y6" s="69" t="s">
         <v>754</v>
       </c>
-      <c r="Z6" s="70" t="s">
+      <c r="Z6" s="69" t="s">
         <v>754</v>
       </c>
       <c r="AA6" s="14">
@@ -5357,7 +5363,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2"/>
-      <c r="B7" s="71"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -5366,75 +5372,75 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="73"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="74"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="73"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="70"/>
+      <c r="AS7" s="70"/>
       <c r="AT7" s="2"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="71"/>
-      <c r="BA7" s="71"/>
-      <c r="BB7" s="71"/>
-      <c r="BC7" s="71"/>
-      <c r="BD7" s="71"/>
-      <c r="BE7" s="71"/>
-      <c r="BF7" s="71"/>
-      <c r="BG7" s="71"/>
-      <c r="BH7" s="71"/>
-      <c r="BI7" s="71"/>
-      <c r="BJ7" s="71"/>
-      <c r="BK7" s="73"/>
-      <c r="BL7" s="73"/>
-      <c r="BM7" s="73"/>
-      <c r="BN7" s="73"/>
-      <c r="BO7" s="73"/>
-      <c r="BP7" s="73"/>
-      <c r="BQ7" s="73"/>
-      <c r="BR7" s="73"/>
-      <c r="BS7" s="73"/>
-      <c r="BT7" s="73"/>
-      <c r="BU7" s="73"/>
-      <c r="BV7" s="71"/>
-      <c r="BW7" s="71"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="70"/>
+      <c r="AW7" s="70"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="70"/>
+      <c r="BA7" s="70"/>
+      <c r="BB7" s="70"/>
+      <c r="BC7" s="70"/>
+      <c r="BD7" s="70"/>
+      <c r="BE7" s="70"/>
+      <c r="BF7" s="70"/>
+      <c r="BG7" s="70"/>
+      <c r="BH7" s="70"/>
+      <c r="BI7" s="70"/>
+      <c r="BJ7" s="70"/>
+      <c r="BK7" s="72"/>
+      <c r="BL7" s="72"/>
+      <c r="BM7" s="72"/>
+      <c r="BN7" s="72"/>
+      <c r="BO7" s="72"/>
+      <c r="BP7" s="72"/>
+      <c r="BQ7" s="72"/>
+      <c r="BR7" s="72"/>
+      <c r="BS7" s="72"/>
+      <c r="BT7" s="72"/>
+      <c r="BU7" s="72"/>
+      <c r="BV7" s="70"/>
+      <c r="BW7" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2"/>
-      <c r="B8" s="71"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -5443,75 +5449,75 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="73"/>
-      <c r="AH8" s="73"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="73"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="75"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="71"/>
-      <c r="AS8" s="71"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="70"/>
       <c r="AT8" s="2"/>
-      <c r="AU8" s="71"/>
-      <c r="AV8" s="71"/>
-      <c r="AW8" s="71"/>
-      <c r="AX8" s="71"/>
-      <c r="AY8" s="71"/>
-      <c r="AZ8" s="71"/>
-      <c r="BA8" s="71"/>
-      <c r="BB8" s="71"/>
-      <c r="BC8" s="71"/>
-      <c r="BD8" s="71"/>
-      <c r="BE8" s="71"/>
-      <c r="BF8" s="71"/>
-      <c r="BG8" s="71"/>
-      <c r="BH8" s="71"/>
-      <c r="BI8" s="71"/>
-      <c r="BJ8" s="71"/>
-      <c r="BK8" s="73"/>
-      <c r="BL8" s="73"/>
-      <c r="BM8" s="73"/>
-      <c r="BN8" s="73"/>
-      <c r="BO8" s="73"/>
-      <c r="BP8" s="73"/>
-      <c r="BQ8" s="73"/>
-      <c r="BR8" s="73"/>
-      <c r="BS8" s="73"/>
-      <c r="BT8" s="73"/>
-      <c r="BU8" s="73"/>
-      <c r="BV8" s="71"/>
-      <c r="BW8" s="71"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="70"/>
+      <c r="BD8" s="70"/>
+      <c r="BE8" s="70"/>
+      <c r="BF8" s="70"/>
+      <c r="BG8" s="70"/>
+      <c r="BH8" s="70"/>
+      <c r="BI8" s="70"/>
+      <c r="BJ8" s="70"/>
+      <c r="BK8" s="72"/>
+      <c r="BL8" s="72"/>
+      <c r="BM8" s="72"/>
+      <c r="BN8" s="72"/>
+      <c r="BO8" s="72"/>
+      <c r="BP8" s="72"/>
+      <c r="BQ8" s="72"/>
+      <c r="BR8" s="72"/>
+      <c r="BS8" s="72"/>
+      <c r="BT8" s="72"/>
+      <c r="BU8" s="72"/>
+      <c r="BV8" s="70"/>
+      <c r="BW8" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2"/>
-      <c r="B9" s="71"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -5520,75 +5526,75 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="74"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="71"/>
-      <c r="AS9" s="71"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="72"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="70"/>
       <c r="AT9" s="2"/>
-      <c r="AU9" s="71"/>
-      <c r="AV9" s="71"/>
-      <c r="AW9" s="71"/>
-      <c r="AX9" s="71"/>
-      <c r="AY9" s="71"/>
-      <c r="AZ9" s="71"/>
-      <c r="BA9" s="71"/>
-      <c r="BB9" s="71"/>
-      <c r="BC9" s="71"/>
-      <c r="BD9" s="71"/>
-      <c r="BE9" s="71"/>
-      <c r="BF9" s="71"/>
-      <c r="BG9" s="71"/>
-      <c r="BH9" s="71"/>
-      <c r="BI9" s="71"/>
-      <c r="BJ9" s="71"/>
-      <c r="BK9" s="73"/>
-      <c r="BL9" s="73"/>
-      <c r="BM9" s="73"/>
-      <c r="BN9" s="73"/>
-      <c r="BO9" s="73"/>
-      <c r="BP9" s="73"/>
-      <c r="BQ9" s="73"/>
-      <c r="BR9" s="73"/>
-      <c r="BS9" s="73"/>
-      <c r="BT9" s="73"/>
-      <c r="BU9" s="73"/>
-      <c r="BV9" s="71"/>
-      <c r="BW9" s="71"/>
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="70"/>
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="70"/>
+      <c r="BF9" s="70"/>
+      <c r="BG9" s="70"/>
+      <c r="BH9" s="70"/>
+      <c r="BI9" s="70"/>
+      <c r="BJ9" s="70"/>
+      <c r="BK9" s="72"/>
+      <c r="BL9" s="72"/>
+      <c r="BM9" s="72"/>
+      <c r="BN9" s="72"/>
+      <c r="BO9" s="72"/>
+      <c r="BP9" s="72"/>
+      <c r="BQ9" s="72"/>
+      <c r="BR9" s="72"/>
+      <c r="BS9" s="72"/>
+      <c r="BT9" s="72"/>
+      <c r="BU9" s="72"/>
+      <c r="BV9" s="70"/>
+      <c r="BW9" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2"/>
-      <c r="B10" s="71"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5597,75 +5603,75 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="71"/>
-      <c r="AS10" s="71"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="72"/>
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="73"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="70"/>
+      <c r="AS10" s="70"/>
       <c r="AT10" s="2"/>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="71"/>
-      <c r="AW10" s="71"/>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="71"/>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="71"/>
-      <c r="BB10" s="71"/>
-      <c r="BC10" s="71"/>
-      <c r="BD10" s="71"/>
-      <c r="BE10" s="71"/>
-      <c r="BF10" s="71"/>
-      <c r="BG10" s="71"/>
-      <c r="BH10" s="71"/>
-      <c r="BI10" s="71"/>
-      <c r="BJ10" s="71"/>
-      <c r="BK10" s="73"/>
-      <c r="BL10" s="73"/>
-      <c r="BM10" s="73"/>
-      <c r="BN10" s="73"/>
-      <c r="BO10" s="73"/>
-      <c r="BP10" s="73"/>
-      <c r="BQ10" s="73"/>
-      <c r="BR10" s="73"/>
-      <c r="BS10" s="73"/>
-      <c r="BT10" s="73"/>
-      <c r="BU10" s="73"/>
-      <c r="BV10" s="71"/>
-      <c r="BW10" s="71"/>
+      <c r="AU10" s="70"/>
+      <c r="AV10" s="70"/>
+      <c r="AW10" s="70"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="70"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
+      <c r="BC10" s="70"/>
+      <c r="BD10" s="70"/>
+      <c r="BE10" s="70"/>
+      <c r="BF10" s="70"/>
+      <c r="BG10" s="70"/>
+      <c r="BH10" s="70"/>
+      <c r="BI10" s="70"/>
+      <c r="BJ10" s="70"/>
+      <c r="BK10" s="72"/>
+      <c r="BL10" s="72"/>
+      <c r="BM10" s="72"/>
+      <c r="BN10" s="72"/>
+      <c r="BO10" s="72"/>
+      <c r="BP10" s="72"/>
+      <c r="BQ10" s="72"/>
+      <c r="BR10" s="72"/>
+      <c r="BS10" s="72"/>
+      <c r="BT10" s="72"/>
+      <c r="BU10" s="72"/>
+      <c r="BV10" s="70"/>
+      <c r="BW10" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2"/>
-      <c r="B11" s="71"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -5674,75 +5680,75 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="73"/>
-      <c r="AM11" s="74"/>
-      <c r="AN11" s="74"/>
-      <c r="AO11" s="74"/>
-      <c r="AP11" s="75"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="71"/>
-      <c r="AS11" s="71"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="73"/>
+      <c r="AN11" s="73"/>
+      <c r="AO11" s="73"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="73"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="70"/>
       <c r="AT11" s="2"/>
-      <c r="AU11" s="71"/>
-      <c r="AV11" s="71"/>
-      <c r="AW11" s="71"/>
-      <c r="AX11" s="71"/>
-      <c r="AY11" s="71"/>
-      <c r="AZ11" s="71"/>
-      <c r="BA11" s="71"/>
-      <c r="BB11" s="71"/>
-      <c r="BC11" s="71"/>
-      <c r="BD11" s="71"/>
-      <c r="BE11" s="71"/>
-      <c r="BF11" s="71"/>
-      <c r="BG11" s="71"/>
-      <c r="BH11" s="71"/>
-      <c r="BI11" s="71"/>
-      <c r="BJ11" s="71"/>
-      <c r="BK11" s="73"/>
-      <c r="BL11" s="73"/>
-      <c r="BM11" s="73"/>
-      <c r="BN11" s="73"/>
-      <c r="BO11" s="73"/>
-      <c r="BP11" s="73"/>
-      <c r="BQ11" s="73"/>
-      <c r="BR11" s="73"/>
-      <c r="BS11" s="73"/>
-      <c r="BT11" s="73"/>
-      <c r="BU11" s="73"/>
-      <c r="BV11" s="71"/>
-      <c r="BW11" s="71"/>
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="70"/>
+      <c r="AW11" s="70"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="70"/>
+      <c r="BE11" s="70"/>
+      <c r="BF11" s="70"/>
+      <c r="BG11" s="70"/>
+      <c r="BH11" s="70"/>
+      <c r="BI11" s="70"/>
+      <c r="BJ11" s="70"/>
+      <c r="BK11" s="72"/>
+      <c r="BL11" s="72"/>
+      <c r="BM11" s="72"/>
+      <c r="BN11" s="72"/>
+      <c r="BO11" s="72"/>
+      <c r="BP11" s="72"/>
+      <c r="BQ11" s="72"/>
+      <c r="BR11" s="72"/>
+      <c r="BS11" s="72"/>
+      <c r="BT11" s="72"/>
+      <c r="BU11" s="72"/>
+      <c r="BV11" s="70"/>
+      <c r="BW11" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2"/>
-      <c r="B12" s="71"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5751,75 +5757,75 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="74"/>
-      <c r="AN12" s="74"/>
-      <c r="AO12" s="74"/>
-      <c r="AP12" s="75"/>
-      <c r="AQ12" s="74"/>
-      <c r="AR12" s="71"/>
-      <c r="AS12" s="71"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="73"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="73"/>
+      <c r="AR12" s="70"/>
+      <c r="AS12" s="70"/>
       <c r="AT12" s="2"/>
-      <c r="AU12" s="71"/>
-      <c r="AV12" s="71"/>
-      <c r="AW12" s="71"/>
-      <c r="AX12" s="71"/>
-      <c r="AY12" s="71"/>
-      <c r="AZ12" s="71"/>
-      <c r="BA12" s="71"/>
-      <c r="BB12" s="71"/>
-      <c r="BC12" s="71"/>
-      <c r="BD12" s="71"/>
-      <c r="BE12" s="71"/>
-      <c r="BF12" s="71"/>
-      <c r="BG12" s="71"/>
-      <c r="BH12" s="71"/>
-      <c r="BI12" s="71"/>
-      <c r="BJ12" s="71"/>
-      <c r="BK12" s="73"/>
-      <c r="BL12" s="73"/>
-      <c r="BM12" s="73"/>
-      <c r="BN12" s="73"/>
-      <c r="BO12" s="73"/>
-      <c r="BP12" s="73"/>
-      <c r="BQ12" s="73"/>
-      <c r="BR12" s="73"/>
-      <c r="BS12" s="73"/>
-      <c r="BT12" s="73"/>
-      <c r="BU12" s="73"/>
-      <c r="BV12" s="71"/>
-      <c r="BW12" s="71"/>
+      <c r="AU12" s="70"/>
+      <c r="AV12" s="70"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="70"/>
+      <c r="BE12" s="70"/>
+      <c r="BF12" s="70"/>
+      <c r="BG12" s="70"/>
+      <c r="BH12" s="70"/>
+      <c r="BI12" s="70"/>
+      <c r="BJ12" s="70"/>
+      <c r="BK12" s="72"/>
+      <c r="BL12" s="72"/>
+      <c r="BM12" s="72"/>
+      <c r="BN12" s="72"/>
+      <c r="BO12" s="72"/>
+      <c r="BP12" s="72"/>
+      <c r="BQ12" s="72"/>
+      <c r="BR12" s="72"/>
+      <c r="BS12" s="72"/>
+      <c r="BT12" s="72"/>
+      <c r="BU12" s="72"/>
+      <c r="BV12" s="70"/>
+      <c r="BW12" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2"/>
-      <c r="B13" s="71"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -5828,75 +5834,75 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="73"/>
-      <c r="AH13" s="73"/>
-      <c r="AI13" s="73"/>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="73"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="74"/>
-      <c r="AN13" s="74"/>
-      <c r="AO13" s="74"/>
-      <c r="AP13" s="75"/>
-      <c r="AQ13" s="74"/>
-      <c r="AR13" s="71"/>
-      <c r="AS13" s="71"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="72"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="74"/>
+      <c r="AQ13" s="73"/>
+      <c r="AR13" s="70"/>
+      <c r="AS13" s="70"/>
       <c r="AT13" s="2"/>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="71"/>
-      <c r="AW13" s="71"/>
-      <c r="AX13" s="71"/>
-      <c r="AY13" s="71"/>
-      <c r="AZ13" s="71"/>
-      <c r="BA13" s="71"/>
-      <c r="BB13" s="71"/>
-      <c r="BC13" s="71"/>
-      <c r="BD13" s="71"/>
-      <c r="BE13" s="71"/>
-      <c r="BF13" s="71"/>
-      <c r="BG13" s="71"/>
-      <c r="BH13" s="71"/>
-      <c r="BI13" s="71"/>
-      <c r="BJ13" s="71"/>
-      <c r="BK13" s="73"/>
-      <c r="BL13" s="73"/>
-      <c r="BM13" s="73"/>
-      <c r="BN13" s="73"/>
-      <c r="BO13" s="73"/>
-      <c r="BP13" s="73"/>
-      <c r="BQ13" s="73"/>
-      <c r="BR13" s="73"/>
-      <c r="BS13" s="73"/>
-      <c r="BT13" s="73"/>
-      <c r="BU13" s="73"/>
-      <c r="BV13" s="71"/>
-      <c r="BW13" s="71"/>
+      <c r="AU13" s="70"/>
+      <c r="AV13" s="70"/>
+      <c r="AW13" s="70"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="70"/>
+      <c r="BD13" s="70"/>
+      <c r="BE13" s="70"/>
+      <c r="BF13" s="70"/>
+      <c r="BG13" s="70"/>
+      <c r="BH13" s="70"/>
+      <c r="BI13" s="70"/>
+      <c r="BJ13" s="70"/>
+      <c r="BK13" s="72"/>
+      <c r="BL13" s="72"/>
+      <c r="BM13" s="72"/>
+      <c r="BN13" s="72"/>
+      <c r="BO13" s="72"/>
+      <c r="BP13" s="72"/>
+      <c r="BQ13" s="72"/>
+      <c r="BR13" s="72"/>
+      <c r="BS13" s="72"/>
+      <c r="BT13" s="72"/>
+      <c r="BU13" s="72"/>
+      <c r="BV13" s="70"/>
+      <c r="BW13" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2"/>
-      <c r="B14" s="71"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5905,75 +5911,75 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="73"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="73"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="74"/>
-      <c r="AN14" s="74"/>
-      <c r="AO14" s="74"/>
-      <c r="AP14" s="75"/>
-      <c r="AQ14" s="74"/>
-      <c r="AR14" s="71"/>
-      <c r="AS14" s="71"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="73"/>
+      <c r="AN14" s="73"/>
+      <c r="AO14" s="73"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="73"/>
+      <c r="AR14" s="70"/>
+      <c r="AS14" s="70"/>
       <c r="AT14" s="2"/>
-      <c r="AU14" s="71"/>
-      <c r="AV14" s="71"/>
-      <c r="AW14" s="71"/>
-      <c r="AX14" s="71"/>
-      <c r="AY14" s="71"/>
-      <c r="AZ14" s="71"/>
-      <c r="BA14" s="71"/>
-      <c r="BB14" s="71"/>
-      <c r="BC14" s="71"/>
-      <c r="BD14" s="71"/>
-      <c r="BE14" s="71"/>
-      <c r="BF14" s="71"/>
-      <c r="BG14" s="71"/>
-      <c r="BH14" s="71"/>
-      <c r="BI14" s="71"/>
-      <c r="BJ14" s="71"/>
-      <c r="BK14" s="73"/>
-      <c r="BL14" s="73"/>
-      <c r="BM14" s="73"/>
-      <c r="BN14" s="73"/>
-      <c r="BO14" s="73"/>
-      <c r="BP14" s="73"/>
-      <c r="BQ14" s="73"/>
-      <c r="BR14" s="73"/>
-      <c r="BS14" s="73"/>
-      <c r="BT14" s="73"/>
-      <c r="BU14" s="73"/>
-      <c r="BV14" s="71"/>
-      <c r="BW14" s="71"/>
+      <c r="AU14" s="70"/>
+      <c r="AV14" s="70"/>
+      <c r="AW14" s="70"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="70"/>
+      <c r="AZ14" s="70"/>
+      <c r="BA14" s="70"/>
+      <c r="BB14" s="70"/>
+      <c r="BC14" s="70"/>
+      <c r="BD14" s="70"/>
+      <c r="BE14" s="70"/>
+      <c r="BF14" s="70"/>
+      <c r="BG14" s="70"/>
+      <c r="BH14" s="70"/>
+      <c r="BI14" s="70"/>
+      <c r="BJ14" s="70"/>
+      <c r="BK14" s="72"/>
+      <c r="BL14" s="72"/>
+      <c r="BM14" s="72"/>
+      <c r="BN14" s="72"/>
+      <c r="BO14" s="72"/>
+      <c r="BP14" s="72"/>
+      <c r="BQ14" s="72"/>
+      <c r="BR14" s="72"/>
+      <c r="BS14" s="72"/>
+      <c r="BT14" s="72"/>
+      <c r="BU14" s="72"/>
+      <c r="BV14" s="70"/>
+      <c r="BW14" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2"/>
-      <c r="B15" s="71"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -5982,75 +5988,75 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="73"/>
-      <c r="AG15" s="73"/>
-      <c r="AH15" s="73"/>
-      <c r="AI15" s="73"/>
-      <c r="AJ15" s="73"/>
-      <c r="AK15" s="73"/>
-      <c r="AL15" s="73"/>
-      <c r="AM15" s="74"/>
-      <c r="AN15" s="74"/>
-      <c r="AO15" s="74"/>
-      <c r="AP15" s="75"/>
-      <c r="AQ15" s="74"/>
-      <c r="AR15" s="71"/>
-      <c r="AS15" s="71"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="72"/>
+      <c r="AM15" s="73"/>
+      <c r="AN15" s="73"/>
+      <c r="AO15" s="73"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="73"/>
+      <c r="AR15" s="70"/>
+      <c r="AS15" s="70"/>
       <c r="AT15" s="2"/>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="71"/>
-      <c r="AW15" s="71"/>
-      <c r="AX15" s="71"/>
-      <c r="AY15" s="71"/>
-      <c r="AZ15" s="71"/>
-      <c r="BA15" s="71"/>
-      <c r="BB15" s="71"/>
-      <c r="BC15" s="71"/>
-      <c r="BD15" s="71"/>
-      <c r="BE15" s="71"/>
-      <c r="BF15" s="71"/>
-      <c r="BG15" s="71"/>
-      <c r="BH15" s="71"/>
-      <c r="BI15" s="71"/>
-      <c r="BJ15" s="71"/>
-      <c r="BK15" s="73"/>
-      <c r="BL15" s="73"/>
-      <c r="BM15" s="73"/>
-      <c r="BN15" s="73"/>
-      <c r="BO15" s="73"/>
-      <c r="BP15" s="73"/>
-      <c r="BQ15" s="73"/>
-      <c r="BR15" s="73"/>
-      <c r="BS15" s="73"/>
-      <c r="BT15" s="73"/>
-      <c r="BU15" s="73"/>
-      <c r="BV15" s="71"/>
-      <c r="BW15" s="71"/>
+      <c r="AU15" s="70"/>
+      <c r="AV15" s="70"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="70"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="70"/>
+      <c r="BB15" s="70"/>
+      <c r="BC15" s="70"/>
+      <c r="BD15" s="70"/>
+      <c r="BE15" s="70"/>
+      <c r="BF15" s="70"/>
+      <c r="BG15" s="70"/>
+      <c r="BH15" s="70"/>
+      <c r="BI15" s="70"/>
+      <c r="BJ15" s="70"/>
+      <c r="BK15" s="72"/>
+      <c r="BL15" s="72"/>
+      <c r="BM15" s="72"/>
+      <c r="BN15" s="72"/>
+      <c r="BO15" s="72"/>
+      <c r="BP15" s="72"/>
+      <c r="BQ15" s="72"/>
+      <c r="BR15" s="72"/>
+      <c r="BS15" s="72"/>
+      <c r="BT15" s="72"/>
+      <c r="BU15" s="72"/>
+      <c r="BV15" s="70"/>
+      <c r="BW15" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2"/>
-      <c r="B16" s="71"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -6059,75 +6065,75 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="74"/>
-      <c r="AN16" s="74"/>
-      <c r="AO16" s="74"/>
-      <c r="AP16" s="75"/>
-      <c r="AQ16" s="74"/>
-      <c r="AR16" s="71"/>
-      <c r="AS16" s="71"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="73"/>
+      <c r="AO16" s="73"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="70"/>
+      <c r="AS16" s="70"/>
       <c r="AT16" s="2"/>
-      <c r="AU16" s="71"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="71"/>
-      <c r="AY16" s="71"/>
-      <c r="AZ16" s="71"/>
-      <c r="BA16" s="71"/>
-      <c r="BB16" s="71"/>
-      <c r="BC16" s="71"/>
-      <c r="BD16" s="71"/>
-      <c r="BE16" s="71"/>
-      <c r="BF16" s="71"/>
-      <c r="BG16" s="71"/>
-      <c r="BH16" s="71"/>
-      <c r="BI16" s="71"/>
-      <c r="BJ16" s="71"/>
-      <c r="BK16" s="73"/>
-      <c r="BL16" s="73"/>
-      <c r="BM16" s="73"/>
-      <c r="BN16" s="73"/>
-      <c r="BO16" s="73"/>
-      <c r="BP16" s="73"/>
-      <c r="BQ16" s="73"/>
-      <c r="BR16" s="73"/>
-      <c r="BS16" s="73"/>
-      <c r="BT16" s="73"/>
-      <c r="BU16" s="73"/>
-      <c r="BV16" s="71"/>
-      <c r="BW16" s="71"/>
+      <c r="AU16" s="70"/>
+      <c r="AV16" s="70"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="70"/>
+      <c r="BB16" s="70"/>
+      <c r="BC16" s="70"/>
+      <c r="BD16" s="70"/>
+      <c r="BE16" s="70"/>
+      <c r="BF16" s="70"/>
+      <c r="BG16" s="70"/>
+      <c r="BH16" s="70"/>
+      <c r="BI16" s="70"/>
+      <c r="BJ16" s="70"/>
+      <c r="BK16" s="72"/>
+      <c r="BL16" s="72"/>
+      <c r="BM16" s="72"/>
+      <c r="BN16" s="72"/>
+      <c r="BO16" s="72"/>
+      <c r="BP16" s="72"/>
+      <c r="BQ16" s="72"/>
+      <c r="BR16" s="72"/>
+      <c r="BS16" s="72"/>
+      <c r="BT16" s="72"/>
+      <c r="BU16" s="72"/>
+      <c r="BV16" s="70"/>
+      <c r="BW16" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2"/>
-      <c r="B17" s="71"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -6136,75 +6142,75 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="74"/>
-      <c r="AN17" s="74"/>
-      <c r="AO17" s="74"/>
-      <c r="AP17" s="75"/>
-      <c r="AQ17" s="74"/>
-      <c r="AR17" s="71"/>
-      <c r="AS17" s="71"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="73"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="73"/>
+      <c r="AR17" s="70"/>
+      <c r="AS17" s="70"/>
       <c r="AT17" s="2"/>
-      <c r="AU17" s="71"/>
-      <c r="AV17" s="71"/>
-      <c r="AW17" s="71"/>
-      <c r="AX17" s="71"/>
-      <c r="AY17" s="71"/>
-      <c r="AZ17" s="71"/>
-      <c r="BA17" s="71"/>
-      <c r="BB17" s="71"/>
-      <c r="BC17" s="71"/>
-      <c r="BD17" s="71"/>
-      <c r="BE17" s="71"/>
-      <c r="BF17" s="71"/>
-      <c r="BG17" s="71"/>
-      <c r="BH17" s="71"/>
-      <c r="BI17" s="71"/>
-      <c r="BJ17" s="71"/>
-      <c r="BK17" s="73"/>
-      <c r="BL17" s="73"/>
-      <c r="BM17" s="73"/>
-      <c r="BN17" s="73"/>
-      <c r="BO17" s="73"/>
-      <c r="BP17" s="73"/>
-      <c r="BQ17" s="73"/>
-      <c r="BR17" s="73"/>
-      <c r="BS17" s="73"/>
-      <c r="BT17" s="73"/>
-      <c r="BU17" s="73"/>
-      <c r="BV17" s="71"/>
-      <c r="BW17" s="71"/>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="70"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="70"/>
+      <c r="BA17" s="70"/>
+      <c r="BB17" s="70"/>
+      <c r="BC17" s="70"/>
+      <c r="BD17" s="70"/>
+      <c r="BE17" s="70"/>
+      <c r="BF17" s="70"/>
+      <c r="BG17" s="70"/>
+      <c r="BH17" s="70"/>
+      <c r="BI17" s="70"/>
+      <c r="BJ17" s="70"/>
+      <c r="BK17" s="72"/>
+      <c r="BL17" s="72"/>
+      <c r="BM17" s="72"/>
+      <c r="BN17" s="72"/>
+      <c r="BO17" s="72"/>
+      <c r="BP17" s="72"/>
+      <c r="BQ17" s="72"/>
+      <c r="BR17" s="72"/>
+      <c r="BS17" s="72"/>
+      <c r="BT17" s="72"/>
+      <c r="BU17" s="72"/>
+      <c r="BV17" s="70"/>
+      <c r="BW17" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2"/>
-      <c r="B18" s="71"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -6213,75 +6219,75 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="74"/>
-      <c r="AN18" s="74"/>
-      <c r="AO18" s="74"/>
-      <c r="AP18" s="75"/>
-      <c r="AQ18" s="74"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="71"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="73"/>
+      <c r="AO18" s="73"/>
+      <c r="AP18" s="74"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="70"/>
+      <c r="AS18" s="70"/>
       <c r="AT18" s="2"/>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="71"/>
-      <c r="AY18" s="71"/>
-      <c r="AZ18" s="71"/>
-      <c r="BA18" s="71"/>
-      <c r="BB18" s="71"/>
-      <c r="BC18" s="71"/>
-      <c r="BD18" s="71"/>
-      <c r="BE18" s="71"/>
-      <c r="BF18" s="71"/>
-      <c r="BG18" s="71"/>
-      <c r="BH18" s="71"/>
-      <c r="BI18" s="71"/>
-      <c r="BJ18" s="71"/>
-      <c r="BK18" s="73"/>
-      <c r="BL18" s="73"/>
-      <c r="BM18" s="73"/>
-      <c r="BN18" s="73"/>
-      <c r="BO18" s="73"/>
-      <c r="BP18" s="73"/>
-      <c r="BQ18" s="73"/>
-      <c r="BR18" s="73"/>
-      <c r="BS18" s="73"/>
-      <c r="BT18" s="73"/>
-      <c r="BU18" s="73"/>
-      <c r="BV18" s="71"/>
-      <c r="BW18" s="71"/>
+      <c r="AU18" s="70"/>
+      <c r="AV18" s="70"/>
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="70"/>
+      <c r="AZ18" s="70"/>
+      <c r="BA18" s="70"/>
+      <c r="BB18" s="70"/>
+      <c r="BC18" s="70"/>
+      <c r="BD18" s="70"/>
+      <c r="BE18" s="70"/>
+      <c r="BF18" s="70"/>
+      <c r="BG18" s="70"/>
+      <c r="BH18" s="70"/>
+      <c r="BI18" s="70"/>
+      <c r="BJ18" s="70"/>
+      <c r="BK18" s="72"/>
+      <c r="BL18" s="72"/>
+      <c r="BM18" s="72"/>
+      <c r="BN18" s="72"/>
+      <c r="BO18" s="72"/>
+      <c r="BP18" s="72"/>
+      <c r="BQ18" s="72"/>
+      <c r="BR18" s="72"/>
+      <c r="BS18" s="72"/>
+      <c r="BT18" s="72"/>
+      <c r="BU18" s="72"/>
+      <c r="BV18" s="70"/>
+      <c r="BW18" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2"/>
-      <c r="B19" s="71"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -6290,75 +6296,75 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="74"/>
-      <c r="AN19" s="74"/>
-      <c r="AO19" s="74"/>
-      <c r="AP19" s="75"/>
-      <c r="AQ19" s="74"/>
-      <c r="AR19" s="71"/>
-      <c r="AS19" s="71"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="73"/>
+      <c r="AP19" s="74"/>
+      <c r="AQ19" s="73"/>
+      <c r="AR19" s="70"/>
+      <c r="AS19" s="70"/>
       <c r="AT19" s="2"/>
-      <c r="AU19" s="71"/>
-      <c r="AV19" s="71"/>
-      <c r="AW19" s="71"/>
-      <c r="AX19" s="71"/>
-      <c r="AY19" s="71"/>
-      <c r="AZ19" s="71"/>
-      <c r="BA19" s="71"/>
-      <c r="BB19" s="71"/>
-      <c r="BC19" s="71"/>
-      <c r="BD19" s="71"/>
-      <c r="BE19" s="71"/>
-      <c r="BF19" s="71"/>
-      <c r="BG19" s="71"/>
-      <c r="BH19" s="71"/>
-      <c r="BI19" s="71"/>
-      <c r="BJ19" s="71"/>
-      <c r="BK19" s="73"/>
-      <c r="BL19" s="73"/>
-      <c r="BM19" s="73"/>
-      <c r="BN19" s="73"/>
-      <c r="BO19" s="73"/>
-      <c r="BP19" s="73"/>
-      <c r="BQ19" s="73"/>
-      <c r="BR19" s="73"/>
-      <c r="BS19" s="73"/>
-      <c r="BT19" s="73"/>
-      <c r="BU19" s="73"/>
-      <c r="BV19" s="71"/>
-      <c r="BW19" s="71"/>
+      <c r="AU19" s="70"/>
+      <c r="AV19" s="70"/>
+      <c r="AW19" s="70"/>
+      <c r="AX19" s="70"/>
+      <c r="AY19" s="70"/>
+      <c r="AZ19" s="70"/>
+      <c r="BA19" s="70"/>
+      <c r="BB19" s="70"/>
+      <c r="BC19" s="70"/>
+      <c r="BD19" s="70"/>
+      <c r="BE19" s="70"/>
+      <c r="BF19" s="70"/>
+      <c r="BG19" s="70"/>
+      <c r="BH19" s="70"/>
+      <c r="BI19" s="70"/>
+      <c r="BJ19" s="70"/>
+      <c r="BK19" s="72"/>
+      <c r="BL19" s="72"/>
+      <c r="BM19" s="72"/>
+      <c r="BN19" s="72"/>
+      <c r="BO19" s="72"/>
+      <c r="BP19" s="72"/>
+      <c r="BQ19" s="72"/>
+      <c r="BR19" s="72"/>
+      <c r="BS19" s="72"/>
+      <c r="BT19" s="72"/>
+      <c r="BU19" s="72"/>
+      <c r="BV19" s="70"/>
+      <c r="BW19" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2"/>
-      <c r="B20" s="71"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -6367,75 +6373,75 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="73"/>
-      <c r="AH20" s="73"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="73"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="74"/>
-      <c r="AN20" s="74"/>
-      <c r="AO20" s="74"/>
-      <c r="AP20" s="75"/>
-      <c r="AQ20" s="74"/>
-      <c r="AR20" s="71"/>
-      <c r="AS20" s="71"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="74"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="70"/>
+      <c r="AS20" s="70"/>
       <c r="AT20" s="2"/>
-      <c r="AU20" s="71"/>
-      <c r="AV20" s="71"/>
-      <c r="AW20" s="71"/>
-      <c r="AX20" s="71"/>
-      <c r="AY20" s="71"/>
-      <c r="AZ20" s="71"/>
-      <c r="BA20" s="71"/>
-      <c r="BB20" s="71"/>
-      <c r="BC20" s="71"/>
-      <c r="BD20" s="71"/>
-      <c r="BE20" s="71"/>
-      <c r="BF20" s="71"/>
-      <c r="BG20" s="71"/>
-      <c r="BH20" s="71"/>
-      <c r="BI20" s="71"/>
-      <c r="BJ20" s="71"/>
-      <c r="BK20" s="73"/>
-      <c r="BL20" s="73"/>
-      <c r="BM20" s="73"/>
-      <c r="BN20" s="73"/>
-      <c r="BO20" s="73"/>
-      <c r="BP20" s="73"/>
-      <c r="BQ20" s="73"/>
-      <c r="BR20" s="73"/>
-      <c r="BS20" s="73"/>
-      <c r="BT20" s="73"/>
-      <c r="BU20" s="73"/>
-      <c r="BV20" s="71"/>
-      <c r="BW20" s="71"/>
+      <c r="AU20" s="70"/>
+      <c r="AV20" s="70"/>
+      <c r="AW20" s="70"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="70"/>
+      <c r="BA20" s="70"/>
+      <c r="BB20" s="70"/>
+      <c r="BC20" s="70"/>
+      <c r="BD20" s="70"/>
+      <c r="BE20" s="70"/>
+      <c r="BF20" s="70"/>
+      <c r="BG20" s="70"/>
+      <c r="BH20" s="70"/>
+      <c r="BI20" s="70"/>
+      <c r="BJ20" s="70"/>
+      <c r="BK20" s="72"/>
+      <c r="BL20" s="72"/>
+      <c r="BM20" s="72"/>
+      <c r="BN20" s="72"/>
+      <c r="BO20" s="72"/>
+      <c r="BP20" s="72"/>
+      <c r="BQ20" s="72"/>
+      <c r="BR20" s="72"/>
+      <c r="BS20" s="72"/>
+      <c r="BT20" s="72"/>
+      <c r="BU20" s="72"/>
+      <c r="BV20" s="70"/>
+      <c r="BW20" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2"/>
-      <c r="B21" s="71"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -6444,75 +6450,75 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="73"/>
-      <c r="AG21" s="73"/>
-      <c r="AH21" s="73"/>
-      <c r="AI21" s="73"/>
-      <c r="AJ21" s="73"/>
-      <c r="AK21" s="73"/>
-      <c r="AL21" s="73"/>
-      <c r="AM21" s="74"/>
-      <c r="AN21" s="74"/>
-      <c r="AO21" s="74"/>
-      <c r="AP21" s="75"/>
-      <c r="AQ21" s="74"/>
-      <c r="AR21" s="71"/>
-      <c r="AS21" s="71"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="72"/>
+      <c r="AF21" s="72"/>
+      <c r="AG21" s="72"/>
+      <c r="AH21" s="72"/>
+      <c r="AI21" s="72"/>
+      <c r="AJ21" s="72"/>
+      <c r="AK21" s="72"/>
+      <c r="AL21" s="72"/>
+      <c r="AM21" s="73"/>
+      <c r="AN21" s="73"/>
+      <c r="AO21" s="73"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="73"/>
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="70"/>
       <c r="AT21" s="2"/>
-      <c r="AU21" s="71"/>
-      <c r="AV21" s="71"/>
-      <c r="AW21" s="71"/>
-      <c r="AX21" s="71"/>
-      <c r="AY21" s="71"/>
-      <c r="AZ21" s="71"/>
-      <c r="BA21" s="71"/>
-      <c r="BB21" s="71"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="71"/>
-      <c r="BE21" s="71"/>
-      <c r="BF21" s="71"/>
-      <c r="BG21" s="71"/>
-      <c r="BH21" s="71"/>
-      <c r="BI21" s="71"/>
-      <c r="BJ21" s="71"/>
-      <c r="BK21" s="73"/>
-      <c r="BL21" s="73"/>
-      <c r="BM21" s="73"/>
-      <c r="BN21" s="73"/>
-      <c r="BO21" s="73"/>
-      <c r="BP21" s="73"/>
-      <c r="BQ21" s="73"/>
-      <c r="BR21" s="73"/>
-      <c r="BS21" s="73"/>
-      <c r="BT21" s="73"/>
-      <c r="BU21" s="73"/>
-      <c r="BV21" s="71"/>
-      <c r="BW21" s="71"/>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="70"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="70"/>
+      <c r="BD21" s="70"/>
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+      <c r="BG21" s="70"/>
+      <c r="BH21" s="70"/>
+      <c r="BI21" s="70"/>
+      <c r="BJ21" s="70"/>
+      <c r="BK21" s="72"/>
+      <c r="BL21" s="72"/>
+      <c r="BM21" s="72"/>
+      <c r="BN21" s="72"/>
+      <c r="BO21" s="72"/>
+      <c r="BP21" s="72"/>
+      <c r="BQ21" s="72"/>
+      <c r="BR21" s="72"/>
+      <c r="BS21" s="72"/>
+      <c r="BT21" s="72"/>
+      <c r="BU21" s="72"/>
+      <c r="BV21" s="70"/>
+      <c r="BW21" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2"/>
-      <c r="B22" s="71"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -6521,75 +6527,75 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="73"/>
-      <c r="AG22" s="73"/>
-      <c r="AH22" s="73"/>
-      <c r="AI22" s="73"/>
-      <c r="AJ22" s="73"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="73"/>
-      <c r="AM22" s="74"/>
-      <c r="AN22" s="74"/>
-      <c r="AO22" s="74"/>
-      <c r="AP22" s="75"/>
-      <c r="AQ22" s="74"/>
-      <c r="AR22" s="71"/>
-      <c r="AS22" s="71"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="72"/>
+      <c r="AM22" s="73"/>
+      <c r="AN22" s="73"/>
+      <c r="AO22" s="73"/>
+      <c r="AP22" s="74"/>
+      <c r="AQ22" s="73"/>
+      <c r="AR22" s="70"/>
+      <c r="AS22" s="70"/>
       <c r="AT22" s="2"/>
-      <c r="AU22" s="71"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="71"/>
-      <c r="AX22" s="71"/>
-      <c r="AY22" s="71"/>
-      <c r="AZ22" s="71"/>
-      <c r="BA22" s="71"/>
-      <c r="BB22" s="71"/>
-      <c r="BC22" s="71"/>
-      <c r="BD22" s="71"/>
-      <c r="BE22" s="71"/>
-      <c r="BF22" s="71"/>
-      <c r="BG22" s="71"/>
-      <c r="BH22" s="71"/>
-      <c r="BI22" s="71"/>
-      <c r="BJ22" s="71"/>
-      <c r="BK22" s="73"/>
-      <c r="BL22" s="73"/>
-      <c r="BM22" s="73"/>
-      <c r="BN22" s="73"/>
-      <c r="BO22" s="73"/>
-      <c r="BP22" s="73"/>
-      <c r="BQ22" s="73"/>
-      <c r="BR22" s="73"/>
-      <c r="BS22" s="73"/>
-      <c r="BT22" s="73"/>
-      <c r="BU22" s="73"/>
-      <c r="BV22" s="71"/>
-      <c r="BW22" s="71"/>
+      <c r="AU22" s="70"/>
+      <c r="AV22" s="70"/>
+      <c r="AW22" s="70"/>
+      <c r="AX22" s="70"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="70"/>
+      <c r="BA22" s="70"/>
+      <c r="BB22" s="70"/>
+      <c r="BC22" s="70"/>
+      <c r="BD22" s="70"/>
+      <c r="BE22" s="70"/>
+      <c r="BF22" s="70"/>
+      <c r="BG22" s="70"/>
+      <c r="BH22" s="70"/>
+      <c r="BI22" s="70"/>
+      <c r="BJ22" s="70"/>
+      <c r="BK22" s="72"/>
+      <c r="BL22" s="72"/>
+      <c r="BM22" s="72"/>
+      <c r="BN22" s="72"/>
+      <c r="BO22" s="72"/>
+      <c r="BP22" s="72"/>
+      <c r="BQ22" s="72"/>
+      <c r="BR22" s="72"/>
+      <c r="BS22" s="72"/>
+      <c r="BT22" s="72"/>
+      <c r="BU22" s="72"/>
+      <c r="BV22" s="70"/>
+      <c r="BW22" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2"/>
-      <c r="B23" s="71"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -6598,75 +6604,75 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73"/>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="73"/>
-      <c r="AK23" s="73"/>
-      <c r="AL23" s="73"/>
-      <c r="AM23" s="74"/>
-      <c r="AN23" s="74"/>
-      <c r="AO23" s="74"/>
-      <c r="AP23" s="75"/>
-      <c r="AQ23" s="74"/>
-      <c r="AR23" s="71"/>
-      <c r="AS23" s="71"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="72"/>
+      <c r="AL23" s="72"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="73"/>
+      <c r="AP23" s="74"/>
+      <c r="AQ23" s="73"/>
+      <c r="AR23" s="70"/>
+      <c r="AS23" s="70"/>
       <c r="AT23" s="2"/>
-      <c r="AU23" s="71"/>
-      <c r="AV23" s="71"/>
-      <c r="AW23" s="71"/>
-      <c r="AX23" s="71"/>
-      <c r="AY23" s="71"/>
-      <c r="AZ23" s="71"/>
-      <c r="BA23" s="71"/>
-      <c r="BB23" s="71"/>
-      <c r="BC23" s="71"/>
-      <c r="BD23" s="71"/>
-      <c r="BE23" s="71"/>
-      <c r="BF23" s="71"/>
-      <c r="BG23" s="71"/>
-      <c r="BH23" s="71"/>
-      <c r="BI23" s="71"/>
-      <c r="BJ23" s="71"/>
-      <c r="BK23" s="73"/>
-      <c r="BL23" s="73"/>
-      <c r="BM23" s="73"/>
-      <c r="BN23" s="73"/>
-      <c r="BO23" s="73"/>
-      <c r="BP23" s="73"/>
-      <c r="BQ23" s="73"/>
-      <c r="BR23" s="73"/>
-      <c r="BS23" s="73"/>
-      <c r="BT23" s="73"/>
-      <c r="BU23" s="73"/>
-      <c r="BV23" s="71"/>
-      <c r="BW23" s="71"/>
+      <c r="AU23" s="70"/>
+      <c r="AV23" s="70"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="70"/>
+      <c r="AZ23" s="70"/>
+      <c r="BA23" s="70"/>
+      <c r="BB23" s="70"/>
+      <c r="BC23" s="70"/>
+      <c r="BD23" s="70"/>
+      <c r="BE23" s="70"/>
+      <c r="BF23" s="70"/>
+      <c r="BG23" s="70"/>
+      <c r="BH23" s="70"/>
+      <c r="BI23" s="70"/>
+      <c r="BJ23" s="70"/>
+      <c r="BK23" s="72"/>
+      <c r="BL23" s="72"/>
+      <c r="BM23" s="72"/>
+      <c r="BN23" s="72"/>
+      <c r="BO23" s="72"/>
+      <c r="BP23" s="72"/>
+      <c r="BQ23" s="72"/>
+      <c r="BR23" s="72"/>
+      <c r="BS23" s="72"/>
+      <c r="BT23" s="72"/>
+      <c r="BU23" s="72"/>
+      <c r="BV23" s="70"/>
+      <c r="BW23" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2"/>
-      <c r="B24" s="71"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -6675,75 +6681,75 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="73"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="74"/>
-      <c r="AN24" s="74"/>
-      <c r="AO24" s="74"/>
-      <c r="AP24" s="75"/>
-      <c r="AQ24" s="74"/>
-      <c r="AR24" s="71"/>
-      <c r="AS24" s="71"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="72"/>
+      <c r="AL24" s="72"/>
+      <c r="AM24" s="73"/>
+      <c r="AN24" s="73"/>
+      <c r="AO24" s="73"/>
+      <c r="AP24" s="74"/>
+      <c r="AQ24" s="73"/>
+      <c r="AR24" s="70"/>
+      <c r="AS24" s="70"/>
       <c r="AT24" s="2"/>
-      <c r="AU24" s="71"/>
-      <c r="AV24" s="71"/>
-      <c r="AW24" s="71"/>
-      <c r="AX24" s="71"/>
-      <c r="AY24" s="71"/>
-      <c r="AZ24" s="71"/>
-      <c r="BA24" s="71"/>
-      <c r="BB24" s="71"/>
-      <c r="BC24" s="71"/>
-      <c r="BD24" s="71"/>
-      <c r="BE24" s="71"/>
-      <c r="BF24" s="71"/>
-      <c r="BG24" s="71"/>
-      <c r="BH24" s="71"/>
-      <c r="BI24" s="71"/>
-      <c r="BJ24" s="71"/>
-      <c r="BK24" s="73"/>
-      <c r="BL24" s="73"/>
-      <c r="BM24" s="73"/>
-      <c r="BN24" s="73"/>
-      <c r="BO24" s="73"/>
-      <c r="BP24" s="73"/>
-      <c r="BQ24" s="73"/>
-      <c r="BR24" s="73"/>
-      <c r="BS24" s="73"/>
-      <c r="BT24" s="73"/>
-      <c r="BU24" s="73"/>
-      <c r="BV24" s="71"/>
-      <c r="BW24" s="71"/>
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="70"/>
+      <c r="AW24" s="70"/>
+      <c r="AX24" s="70"/>
+      <c r="AY24" s="70"/>
+      <c r="AZ24" s="70"/>
+      <c r="BA24" s="70"/>
+      <c r="BB24" s="70"/>
+      <c r="BC24" s="70"/>
+      <c r="BD24" s="70"/>
+      <c r="BE24" s="70"/>
+      <c r="BF24" s="70"/>
+      <c r="BG24" s="70"/>
+      <c r="BH24" s="70"/>
+      <c r="BI24" s="70"/>
+      <c r="BJ24" s="70"/>
+      <c r="BK24" s="72"/>
+      <c r="BL24" s="72"/>
+      <c r="BM24" s="72"/>
+      <c r="BN24" s="72"/>
+      <c r="BO24" s="72"/>
+      <c r="BP24" s="72"/>
+      <c r="BQ24" s="72"/>
+      <c r="BR24" s="72"/>
+      <c r="BS24" s="72"/>
+      <c r="BT24" s="72"/>
+      <c r="BU24" s="72"/>
+      <c r="BV24" s="70"/>
+      <c r="BW24" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2"/>
-      <c r="B25" s="71"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -6752,75 +6758,75 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="73"/>
-      <c r="AG25" s="73"/>
-      <c r="AH25" s="73"/>
-      <c r="AI25" s="73"/>
-      <c r="AJ25" s="73"/>
-      <c r="AK25" s="73"/>
-      <c r="AL25" s="73"/>
-      <c r="AM25" s="74"/>
-      <c r="AN25" s="74"/>
-      <c r="AO25" s="74"/>
-      <c r="AP25" s="75"/>
-      <c r="AQ25" s="74"/>
-      <c r="AR25" s="71"/>
-      <c r="AS25" s="71"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="70"/>
+      <c r="AC25" s="70"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="72"/>
+      <c r="AM25" s="73"/>
+      <c r="AN25" s="73"/>
+      <c r="AO25" s="73"/>
+      <c r="AP25" s="74"/>
+      <c r="AQ25" s="73"/>
+      <c r="AR25" s="70"/>
+      <c r="AS25" s="70"/>
       <c r="AT25" s="2"/>
-      <c r="AU25" s="71"/>
-      <c r="AV25" s="71"/>
-      <c r="AW25" s="71"/>
-      <c r="AX25" s="71"/>
-      <c r="AY25" s="71"/>
-      <c r="AZ25" s="71"/>
-      <c r="BA25" s="71"/>
-      <c r="BB25" s="71"/>
-      <c r="BC25" s="71"/>
-      <c r="BD25" s="71"/>
-      <c r="BE25" s="71"/>
-      <c r="BF25" s="71"/>
-      <c r="BG25" s="71"/>
-      <c r="BH25" s="71"/>
-      <c r="BI25" s="71"/>
-      <c r="BJ25" s="71"/>
-      <c r="BK25" s="73"/>
-      <c r="BL25" s="73"/>
-      <c r="BM25" s="73"/>
-      <c r="BN25" s="73"/>
-      <c r="BO25" s="73"/>
-      <c r="BP25" s="73"/>
-      <c r="BQ25" s="73"/>
-      <c r="BR25" s="73"/>
-      <c r="BS25" s="73"/>
-      <c r="BT25" s="73"/>
-      <c r="BU25" s="73"/>
-      <c r="BV25" s="71"/>
-      <c r="BW25" s="71"/>
+      <c r="AU25" s="70"/>
+      <c r="AV25" s="70"/>
+      <c r="AW25" s="70"/>
+      <c r="AX25" s="70"/>
+      <c r="AY25" s="70"/>
+      <c r="AZ25" s="70"/>
+      <c r="BA25" s="70"/>
+      <c r="BB25" s="70"/>
+      <c r="BC25" s="70"/>
+      <c r="BD25" s="70"/>
+      <c r="BE25" s="70"/>
+      <c r="BF25" s="70"/>
+      <c r="BG25" s="70"/>
+      <c r="BH25" s="70"/>
+      <c r="BI25" s="70"/>
+      <c r="BJ25" s="70"/>
+      <c r="BK25" s="72"/>
+      <c r="BL25" s="72"/>
+      <c r="BM25" s="72"/>
+      <c r="BN25" s="72"/>
+      <c r="BO25" s="72"/>
+      <c r="BP25" s="72"/>
+      <c r="BQ25" s="72"/>
+      <c r="BR25" s="72"/>
+      <c r="BS25" s="72"/>
+      <c r="BT25" s="72"/>
+      <c r="BU25" s="72"/>
+      <c r="BV25" s="70"/>
+      <c r="BW25" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2"/>
-      <c r="B26" s="71"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -6829,75 +6835,75 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="71"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="73"/>
-      <c r="AG26" s="73"/>
-      <c r="AH26" s="73"/>
-      <c r="AI26" s="73"/>
-      <c r="AJ26" s="73"/>
-      <c r="AK26" s="73"/>
-      <c r="AL26" s="73"/>
-      <c r="AM26" s="74"/>
-      <c r="AN26" s="74"/>
-      <c r="AO26" s="74"/>
-      <c r="AP26" s="75"/>
-      <c r="AQ26" s="74"/>
-      <c r="AR26" s="71"/>
-      <c r="AS26" s="71"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="72"/>
+      <c r="AM26" s="73"/>
+      <c r="AN26" s="73"/>
+      <c r="AO26" s="73"/>
+      <c r="AP26" s="74"/>
+      <c r="AQ26" s="73"/>
+      <c r="AR26" s="70"/>
+      <c r="AS26" s="70"/>
       <c r="AT26" s="2"/>
-      <c r="AU26" s="71"/>
-      <c r="AV26" s="71"/>
-      <c r="AW26" s="71"/>
-      <c r="AX26" s="71"/>
-      <c r="AY26" s="71"/>
-      <c r="AZ26" s="71"/>
-      <c r="BA26" s="71"/>
-      <c r="BB26" s="71"/>
-      <c r="BC26" s="71"/>
-      <c r="BD26" s="71"/>
-      <c r="BE26" s="71"/>
-      <c r="BF26" s="71"/>
-      <c r="BG26" s="71"/>
-      <c r="BH26" s="71"/>
-      <c r="BI26" s="71"/>
-      <c r="BJ26" s="71"/>
-      <c r="BK26" s="73"/>
-      <c r="BL26" s="73"/>
-      <c r="BM26" s="73"/>
-      <c r="BN26" s="73"/>
-      <c r="BO26" s="73"/>
-      <c r="BP26" s="73"/>
-      <c r="BQ26" s="73"/>
-      <c r="BR26" s="73"/>
-      <c r="BS26" s="73"/>
-      <c r="BT26" s="73"/>
-      <c r="BU26" s="73"/>
-      <c r="BV26" s="71"/>
-      <c r="BW26" s="71"/>
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="70"/>
+      <c r="AW26" s="70"/>
+      <c r="AX26" s="70"/>
+      <c r="AY26" s="70"/>
+      <c r="AZ26" s="70"/>
+      <c r="BA26" s="70"/>
+      <c r="BB26" s="70"/>
+      <c r="BC26" s="70"/>
+      <c r="BD26" s="70"/>
+      <c r="BE26" s="70"/>
+      <c r="BF26" s="70"/>
+      <c r="BG26" s="70"/>
+      <c r="BH26" s="70"/>
+      <c r="BI26" s="70"/>
+      <c r="BJ26" s="70"/>
+      <c r="BK26" s="72"/>
+      <c r="BL26" s="72"/>
+      <c r="BM26" s="72"/>
+      <c r="BN26" s="72"/>
+      <c r="BO26" s="72"/>
+      <c r="BP26" s="72"/>
+      <c r="BQ26" s="72"/>
+      <c r="BR26" s="72"/>
+      <c r="BS26" s="72"/>
+      <c r="BT26" s="72"/>
+      <c r="BU26" s="72"/>
+      <c r="BV26" s="70"/>
+      <c r="BW26" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2"/>
-      <c r="B27" s="71"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -6906,75 +6912,75 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="73"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="73"/>
-      <c r="AI27" s="73"/>
-      <c r="AJ27" s="73"/>
-      <c r="AK27" s="73"/>
-      <c r="AL27" s="73"/>
-      <c r="AM27" s="74"/>
-      <c r="AN27" s="74"/>
-      <c r="AO27" s="74"/>
-      <c r="AP27" s="75"/>
-      <c r="AQ27" s="74"/>
-      <c r="AR27" s="71"/>
-      <c r="AS27" s="71"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="73"/>
+      <c r="AN27" s="73"/>
+      <c r="AO27" s="73"/>
+      <c r="AP27" s="74"/>
+      <c r="AQ27" s="73"/>
+      <c r="AR27" s="70"/>
+      <c r="AS27" s="70"/>
       <c r="AT27" s="2"/>
-      <c r="AU27" s="71"/>
-      <c r="AV27" s="71"/>
-      <c r="AW27" s="71"/>
-      <c r="AX27" s="71"/>
-      <c r="AY27" s="71"/>
-      <c r="AZ27" s="71"/>
-      <c r="BA27" s="71"/>
-      <c r="BB27" s="71"/>
-      <c r="BC27" s="71"/>
-      <c r="BD27" s="71"/>
-      <c r="BE27" s="71"/>
-      <c r="BF27" s="71"/>
-      <c r="BG27" s="71"/>
-      <c r="BH27" s="71"/>
-      <c r="BI27" s="71"/>
-      <c r="BJ27" s="71"/>
-      <c r="BK27" s="73"/>
-      <c r="BL27" s="73"/>
-      <c r="BM27" s="73"/>
-      <c r="BN27" s="73"/>
-      <c r="BO27" s="73"/>
-      <c r="BP27" s="73"/>
-      <c r="BQ27" s="73"/>
-      <c r="BR27" s="73"/>
-      <c r="BS27" s="73"/>
-      <c r="BT27" s="73"/>
-      <c r="BU27" s="73"/>
-      <c r="BV27" s="71"/>
-      <c r="BW27" s="71"/>
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="70"/>
+      <c r="AW27" s="70"/>
+      <c r="AX27" s="70"/>
+      <c r="AY27" s="70"/>
+      <c r="AZ27" s="70"/>
+      <c r="BA27" s="70"/>
+      <c r="BB27" s="70"/>
+      <c r="BC27" s="70"/>
+      <c r="BD27" s="70"/>
+      <c r="BE27" s="70"/>
+      <c r="BF27" s="70"/>
+      <c r="BG27" s="70"/>
+      <c r="BH27" s="70"/>
+      <c r="BI27" s="70"/>
+      <c r="BJ27" s="70"/>
+      <c r="BK27" s="72"/>
+      <c r="BL27" s="72"/>
+      <c r="BM27" s="72"/>
+      <c r="BN27" s="72"/>
+      <c r="BO27" s="72"/>
+      <c r="BP27" s="72"/>
+      <c r="BQ27" s="72"/>
+      <c r="BR27" s="72"/>
+      <c r="BS27" s="72"/>
+      <c r="BT27" s="72"/>
+      <c r="BU27" s="72"/>
+      <c r="BV27" s="70"/>
+      <c r="BW27" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="2"/>
-      <c r="B28" s="71"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -6983,75 +6989,75 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="71"/>
-      <c r="AD28" s="71"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="73"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="74"/>
-      <c r="AN28" s="74"/>
-      <c r="AO28" s="74"/>
-      <c r="AP28" s="75"/>
-      <c r="AQ28" s="74"/>
-      <c r="AR28" s="71"/>
-      <c r="AS28" s="71"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="72"/>
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="72"/>
+      <c r="AM28" s="73"/>
+      <c r="AN28" s="73"/>
+      <c r="AO28" s="73"/>
+      <c r="AP28" s="74"/>
+      <c r="AQ28" s="73"/>
+      <c r="AR28" s="70"/>
+      <c r="AS28" s="70"/>
       <c r="AT28" s="2"/>
-      <c r="AU28" s="71"/>
-      <c r="AV28" s="71"/>
-      <c r="AW28" s="71"/>
-      <c r="AX28" s="71"/>
-      <c r="AY28" s="71"/>
-      <c r="AZ28" s="71"/>
-      <c r="BA28" s="71"/>
-      <c r="BB28" s="71"/>
-      <c r="BC28" s="71"/>
-      <c r="BD28" s="71"/>
-      <c r="BE28" s="71"/>
-      <c r="BF28" s="71"/>
-      <c r="BG28" s="71"/>
-      <c r="BH28" s="71"/>
-      <c r="BI28" s="71"/>
-      <c r="BJ28" s="71"/>
-      <c r="BK28" s="73"/>
-      <c r="BL28" s="73"/>
-      <c r="BM28" s="73"/>
-      <c r="BN28" s="73"/>
-      <c r="BO28" s="73"/>
-      <c r="BP28" s="73"/>
-      <c r="BQ28" s="73"/>
-      <c r="BR28" s="73"/>
-      <c r="BS28" s="73"/>
-      <c r="BT28" s="73"/>
-      <c r="BU28" s="73"/>
-      <c r="BV28" s="71"/>
-      <c r="BW28" s="71"/>
+      <c r="AU28" s="70"/>
+      <c r="AV28" s="70"/>
+      <c r="AW28" s="70"/>
+      <c r="AX28" s="70"/>
+      <c r="AY28" s="70"/>
+      <c r="AZ28" s="70"/>
+      <c r="BA28" s="70"/>
+      <c r="BB28" s="70"/>
+      <c r="BC28" s="70"/>
+      <c r="BD28" s="70"/>
+      <c r="BE28" s="70"/>
+      <c r="BF28" s="70"/>
+      <c r="BG28" s="70"/>
+      <c r="BH28" s="70"/>
+      <c r="BI28" s="70"/>
+      <c r="BJ28" s="70"/>
+      <c r="BK28" s="72"/>
+      <c r="BL28" s="72"/>
+      <c r="BM28" s="72"/>
+      <c r="BN28" s="72"/>
+      <c r="BO28" s="72"/>
+      <c r="BP28" s="72"/>
+      <c r="BQ28" s="72"/>
+      <c r="BR28" s="72"/>
+      <c r="BS28" s="72"/>
+      <c r="BT28" s="72"/>
+      <c r="BU28" s="72"/>
+      <c r="BV28" s="70"/>
+      <c r="BW28" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="2"/>
-      <c r="B29" s="71"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -7060,75 +7066,75 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="71"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="74"/>
-      <c r="AN29" s="74"/>
-      <c r="AO29" s="74"/>
-      <c r="AP29" s="75"/>
-      <c r="AQ29" s="74"/>
-      <c r="AR29" s="71"/>
-      <c r="AS29" s="71"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="72"/>
+      <c r="AM29" s="73"/>
+      <c r="AN29" s="73"/>
+      <c r="AO29" s="73"/>
+      <c r="AP29" s="74"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="70"/>
+      <c r="AS29" s="70"/>
       <c r="AT29" s="2"/>
-      <c r="AU29" s="71"/>
-      <c r="AV29" s="71"/>
-      <c r="AW29" s="71"/>
-      <c r="AX29" s="71"/>
-      <c r="AY29" s="71"/>
-      <c r="AZ29" s="71"/>
-      <c r="BA29" s="71"/>
-      <c r="BB29" s="71"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="71"/>
-      <c r="BE29" s="71"/>
-      <c r="BF29" s="71"/>
-      <c r="BG29" s="71"/>
-      <c r="BH29" s="71"/>
-      <c r="BI29" s="71"/>
-      <c r="BJ29" s="71"/>
-      <c r="BK29" s="73"/>
-      <c r="BL29" s="73"/>
-      <c r="BM29" s="73"/>
-      <c r="BN29" s="73"/>
-      <c r="BO29" s="73"/>
-      <c r="BP29" s="73"/>
-      <c r="BQ29" s="73"/>
-      <c r="BR29" s="73"/>
-      <c r="BS29" s="73"/>
-      <c r="BT29" s="73"/>
-      <c r="BU29" s="73"/>
-      <c r="BV29" s="71"/>
-      <c r="BW29" s="71"/>
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="70"/>
+      <c r="AW29" s="70"/>
+      <c r="AX29" s="70"/>
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="70"/>
+      <c r="BA29" s="70"/>
+      <c r="BB29" s="70"/>
+      <c r="BC29" s="70"/>
+      <c r="BD29" s="70"/>
+      <c r="BE29" s="70"/>
+      <c r="BF29" s="70"/>
+      <c r="BG29" s="70"/>
+      <c r="BH29" s="70"/>
+      <c r="BI29" s="70"/>
+      <c r="BJ29" s="70"/>
+      <c r="BK29" s="72"/>
+      <c r="BL29" s="72"/>
+      <c r="BM29" s="72"/>
+      <c r="BN29" s="72"/>
+      <c r="BO29" s="72"/>
+      <c r="BP29" s="72"/>
+      <c r="BQ29" s="72"/>
+      <c r="BR29" s="72"/>
+      <c r="BS29" s="72"/>
+      <c r="BT29" s="72"/>
+      <c r="BU29" s="72"/>
+      <c r="BV29" s="70"/>
+      <c r="BW29" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="2"/>
-      <c r="B30" s="71"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -7137,75 +7143,75 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="73"/>
-      <c r="AF30" s="73"/>
-      <c r="AG30" s="73"/>
-      <c r="AH30" s="73"/>
-      <c r="AI30" s="73"/>
-      <c r="AJ30" s="73"/>
-      <c r="AK30" s="73"/>
-      <c r="AL30" s="73"/>
-      <c r="AM30" s="74"/>
-      <c r="AN30" s="74"/>
-      <c r="AO30" s="74"/>
-      <c r="AP30" s="75"/>
-      <c r="AQ30" s="74"/>
-      <c r="AR30" s="71"/>
-      <c r="AS30" s="71"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="72"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="72"/>
+      <c r="AL30" s="72"/>
+      <c r="AM30" s="73"/>
+      <c r="AN30" s="73"/>
+      <c r="AO30" s="73"/>
+      <c r="AP30" s="74"/>
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="70"/>
+      <c r="AS30" s="70"/>
       <c r="AT30" s="2"/>
-      <c r="AU30" s="71"/>
-      <c r="AV30" s="71"/>
-      <c r="AW30" s="71"/>
-      <c r="AX30" s="71"/>
-      <c r="AY30" s="71"/>
-      <c r="AZ30" s="71"/>
-      <c r="BA30" s="71"/>
-      <c r="BB30" s="71"/>
-      <c r="BC30" s="71"/>
-      <c r="BD30" s="71"/>
-      <c r="BE30" s="71"/>
-      <c r="BF30" s="71"/>
-      <c r="BG30" s="71"/>
-      <c r="BH30" s="71"/>
-      <c r="BI30" s="71"/>
-      <c r="BJ30" s="71"/>
-      <c r="BK30" s="73"/>
-      <c r="BL30" s="73"/>
-      <c r="BM30" s="73"/>
-      <c r="BN30" s="73"/>
-      <c r="BO30" s="73"/>
-      <c r="BP30" s="73"/>
-      <c r="BQ30" s="73"/>
-      <c r="BR30" s="73"/>
-      <c r="BS30" s="73"/>
-      <c r="BT30" s="73"/>
-      <c r="BU30" s="73"/>
-      <c r="BV30" s="71"/>
-      <c r="BW30" s="71"/>
+      <c r="AU30" s="70"/>
+      <c r="AV30" s="70"/>
+      <c r="AW30" s="70"/>
+      <c r="AX30" s="70"/>
+      <c r="AY30" s="70"/>
+      <c r="AZ30" s="70"/>
+      <c r="BA30" s="70"/>
+      <c r="BB30" s="70"/>
+      <c r="BC30" s="70"/>
+      <c r="BD30" s="70"/>
+      <c r="BE30" s="70"/>
+      <c r="BF30" s="70"/>
+      <c r="BG30" s="70"/>
+      <c r="BH30" s="70"/>
+      <c r="BI30" s="70"/>
+      <c r="BJ30" s="70"/>
+      <c r="BK30" s="72"/>
+      <c r="BL30" s="72"/>
+      <c r="BM30" s="72"/>
+      <c r="BN30" s="72"/>
+      <c r="BO30" s="72"/>
+      <c r="BP30" s="72"/>
+      <c r="BQ30" s="72"/>
+      <c r="BR30" s="72"/>
+      <c r="BS30" s="72"/>
+      <c r="BT30" s="72"/>
+      <c r="BU30" s="72"/>
+      <c r="BV30" s="70"/>
+      <c r="BW30" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="2"/>
-      <c r="B31" s="71"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -7214,75 +7220,75 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="71"/>
-      <c r="AE31" s="73"/>
-      <c r="AF31" s="73"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="73"/>
-      <c r="AI31" s="73"/>
-      <c r="AJ31" s="73"/>
-      <c r="AK31" s="73"/>
-      <c r="AL31" s="73"/>
-      <c r="AM31" s="74"/>
-      <c r="AN31" s="74"/>
-      <c r="AO31" s="74"/>
-      <c r="AP31" s="75"/>
-      <c r="AQ31" s="74"/>
-      <c r="AR31" s="71"/>
-      <c r="AS31" s="71"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="70"/>
+      <c r="AD31" s="70"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="72"/>
+      <c r="AI31" s="72"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="72"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="73"/>
+      <c r="AP31" s="74"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="70"/>
+      <c r="AS31" s="70"/>
       <c r="AT31" s="2"/>
-      <c r="AU31" s="71"/>
-      <c r="AV31" s="71"/>
-      <c r="AW31" s="71"/>
-      <c r="AX31" s="71"/>
-      <c r="AY31" s="71"/>
-      <c r="AZ31" s="71"/>
-      <c r="BA31" s="71"/>
-      <c r="BB31" s="71"/>
-      <c r="BC31" s="71"/>
-      <c r="BD31" s="71"/>
-      <c r="BE31" s="71"/>
-      <c r="BF31" s="71"/>
-      <c r="BG31" s="71"/>
-      <c r="BH31" s="71"/>
-      <c r="BI31" s="71"/>
-      <c r="BJ31" s="71"/>
-      <c r="BK31" s="73"/>
-      <c r="BL31" s="73"/>
-      <c r="BM31" s="73"/>
-      <c r="BN31" s="73"/>
-      <c r="BO31" s="73"/>
-      <c r="BP31" s="73"/>
-      <c r="BQ31" s="73"/>
-      <c r="BR31" s="73"/>
-      <c r="BS31" s="73"/>
-      <c r="BT31" s="73"/>
-      <c r="BU31" s="73"/>
-      <c r="BV31" s="71"/>
-      <c r="BW31" s="71"/>
+      <c r="AU31" s="70"/>
+      <c r="AV31" s="70"/>
+      <c r="AW31" s="70"/>
+      <c r="AX31" s="70"/>
+      <c r="AY31" s="70"/>
+      <c r="AZ31" s="70"/>
+      <c r="BA31" s="70"/>
+      <c r="BB31" s="70"/>
+      <c r="BC31" s="70"/>
+      <c r="BD31" s="70"/>
+      <c r="BE31" s="70"/>
+      <c r="BF31" s="70"/>
+      <c r="BG31" s="70"/>
+      <c r="BH31" s="70"/>
+      <c r="BI31" s="70"/>
+      <c r="BJ31" s="70"/>
+      <c r="BK31" s="72"/>
+      <c r="BL31" s="72"/>
+      <c r="BM31" s="72"/>
+      <c r="BN31" s="72"/>
+      <c r="BO31" s="72"/>
+      <c r="BP31" s="72"/>
+      <c r="BQ31" s="72"/>
+      <c r="BR31" s="72"/>
+      <c r="BS31" s="72"/>
+      <c r="BT31" s="72"/>
+      <c r="BU31" s="72"/>
+      <c r="BV31" s="70"/>
+      <c r="BW31" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="2"/>
-      <c r="B32" s="71"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -7291,75 +7297,75 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="71"/>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="71"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="73"/>
-      <c r="AG32" s="73"/>
-      <c r="AH32" s="73"/>
-      <c r="AI32" s="73"/>
-      <c r="AJ32" s="73"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="74"/>
-      <c r="AN32" s="74"/>
-      <c r="AO32" s="74"/>
-      <c r="AP32" s="75"/>
-      <c r="AQ32" s="74"/>
-      <c r="AR32" s="71"/>
-      <c r="AS32" s="71"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="70"/>
+      <c r="AB32" s="70"/>
+      <c r="AC32" s="70"/>
+      <c r="AD32" s="70"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="72"/>
+      <c r="AL32" s="72"/>
+      <c r="AM32" s="73"/>
+      <c r="AN32" s="73"/>
+      <c r="AO32" s="73"/>
+      <c r="AP32" s="74"/>
+      <c r="AQ32" s="73"/>
+      <c r="AR32" s="70"/>
+      <c r="AS32" s="70"/>
       <c r="AT32" s="2"/>
-      <c r="AU32" s="71"/>
-      <c r="AV32" s="71"/>
-      <c r="AW32" s="71"/>
-      <c r="AX32" s="71"/>
-      <c r="AY32" s="71"/>
-      <c r="AZ32" s="71"/>
-      <c r="BA32" s="71"/>
-      <c r="BB32" s="71"/>
-      <c r="BC32" s="71"/>
-      <c r="BD32" s="71"/>
-      <c r="BE32" s="71"/>
-      <c r="BF32" s="71"/>
-      <c r="BG32" s="71"/>
-      <c r="BH32" s="71"/>
-      <c r="BI32" s="71"/>
-      <c r="BJ32" s="71"/>
-      <c r="BK32" s="73"/>
-      <c r="BL32" s="73"/>
-      <c r="BM32" s="73"/>
-      <c r="BN32" s="73"/>
-      <c r="BO32" s="73"/>
-      <c r="BP32" s="73"/>
-      <c r="BQ32" s="73"/>
-      <c r="BR32" s="73"/>
-      <c r="BS32" s="73"/>
-      <c r="BT32" s="73"/>
-      <c r="BU32" s="73"/>
-      <c r="BV32" s="71"/>
-      <c r="BW32" s="71"/>
+      <c r="AU32" s="70"/>
+      <c r="AV32" s="70"/>
+      <c r="AW32" s="70"/>
+      <c r="AX32" s="70"/>
+      <c r="AY32" s="70"/>
+      <c r="AZ32" s="70"/>
+      <c r="BA32" s="70"/>
+      <c r="BB32" s="70"/>
+      <c r="BC32" s="70"/>
+      <c r="BD32" s="70"/>
+      <c r="BE32" s="70"/>
+      <c r="BF32" s="70"/>
+      <c r="BG32" s="70"/>
+      <c r="BH32" s="70"/>
+      <c r="BI32" s="70"/>
+      <c r="BJ32" s="70"/>
+      <c r="BK32" s="72"/>
+      <c r="BL32" s="72"/>
+      <c r="BM32" s="72"/>
+      <c r="BN32" s="72"/>
+      <c r="BO32" s="72"/>
+      <c r="BP32" s="72"/>
+      <c r="BQ32" s="72"/>
+      <c r="BR32" s="72"/>
+      <c r="BS32" s="72"/>
+      <c r="BT32" s="72"/>
+      <c r="BU32" s="72"/>
+      <c r="BV32" s="70"/>
+      <c r="BW32" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="2"/>
-      <c r="B33" s="71"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -7368,75 +7374,75 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="71"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="73"/>
-      <c r="AG33" s="73"/>
-      <c r="AH33" s="73"/>
-      <c r="AI33" s="73"/>
-      <c r="AJ33" s="73"/>
-      <c r="AK33" s="73"/>
-      <c r="AL33" s="73"/>
-      <c r="AM33" s="74"/>
-      <c r="AN33" s="74"/>
-      <c r="AO33" s="74"/>
-      <c r="AP33" s="75"/>
-      <c r="AQ33" s="74"/>
-      <c r="AR33" s="71"/>
-      <c r="AS33" s="71"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="70"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="72"/>
+      <c r="AM33" s="73"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="73"/>
+      <c r="AP33" s="74"/>
+      <c r="AQ33" s="73"/>
+      <c r="AR33" s="70"/>
+      <c r="AS33" s="70"/>
       <c r="AT33" s="2"/>
-      <c r="AU33" s="71"/>
-      <c r="AV33" s="71"/>
-      <c r="AW33" s="71"/>
-      <c r="AX33" s="71"/>
-      <c r="AY33" s="71"/>
-      <c r="AZ33" s="71"/>
-      <c r="BA33" s="71"/>
-      <c r="BB33" s="71"/>
-      <c r="BC33" s="71"/>
-      <c r="BD33" s="71"/>
-      <c r="BE33" s="71"/>
-      <c r="BF33" s="71"/>
-      <c r="BG33" s="71"/>
-      <c r="BH33" s="71"/>
-      <c r="BI33" s="71"/>
-      <c r="BJ33" s="71"/>
-      <c r="BK33" s="73"/>
-      <c r="BL33" s="73"/>
-      <c r="BM33" s="73"/>
-      <c r="BN33" s="73"/>
-      <c r="BO33" s="73"/>
-      <c r="BP33" s="73"/>
-      <c r="BQ33" s="73"/>
-      <c r="BR33" s="73"/>
-      <c r="BS33" s="73"/>
-      <c r="BT33" s="73"/>
-      <c r="BU33" s="73"/>
-      <c r="BV33" s="71"/>
-      <c r="BW33" s="71"/>
+      <c r="AU33" s="70"/>
+      <c r="AV33" s="70"/>
+      <c r="AW33" s="70"/>
+      <c r="AX33" s="70"/>
+      <c r="AY33" s="70"/>
+      <c r="AZ33" s="70"/>
+      <c r="BA33" s="70"/>
+      <c r="BB33" s="70"/>
+      <c r="BC33" s="70"/>
+      <c r="BD33" s="70"/>
+      <c r="BE33" s="70"/>
+      <c r="BF33" s="70"/>
+      <c r="BG33" s="70"/>
+      <c r="BH33" s="70"/>
+      <c r="BI33" s="70"/>
+      <c r="BJ33" s="70"/>
+      <c r="BK33" s="72"/>
+      <c r="BL33" s="72"/>
+      <c r="BM33" s="72"/>
+      <c r="BN33" s="72"/>
+      <c r="BO33" s="72"/>
+      <c r="BP33" s="72"/>
+      <c r="BQ33" s="72"/>
+      <c r="BR33" s="72"/>
+      <c r="BS33" s="72"/>
+      <c r="BT33" s="72"/>
+      <c r="BU33" s="72"/>
+      <c r="BV33" s="70"/>
+      <c r="BW33" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="2"/>
-      <c r="B34" s="71"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -7445,75 +7451,75 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="73"/>
-      <c r="AF34" s="73"/>
-      <c r="AG34" s="73"/>
-      <c r="AH34" s="73"/>
-      <c r="AI34" s="73"/>
-      <c r="AJ34" s="73"/>
-      <c r="AK34" s="73"/>
-      <c r="AL34" s="73"/>
-      <c r="AM34" s="74"/>
-      <c r="AN34" s="74"/>
-      <c r="AO34" s="74"/>
-      <c r="AP34" s="75"/>
-      <c r="AQ34" s="74"/>
-      <c r="AR34" s="71"/>
-      <c r="AS34" s="71"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="70"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="72"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="72"/>
+      <c r="AL34" s="72"/>
+      <c r="AM34" s="73"/>
+      <c r="AN34" s="73"/>
+      <c r="AO34" s="73"/>
+      <c r="AP34" s="74"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="70"/>
+      <c r="AS34" s="70"/>
       <c r="AT34" s="2"/>
-      <c r="AU34" s="71"/>
-      <c r="AV34" s="71"/>
-      <c r="AW34" s="71"/>
-      <c r="AX34" s="71"/>
-      <c r="AY34" s="71"/>
-      <c r="AZ34" s="71"/>
-      <c r="BA34" s="71"/>
-      <c r="BB34" s="71"/>
-      <c r="BC34" s="71"/>
-      <c r="BD34" s="71"/>
-      <c r="BE34" s="71"/>
-      <c r="BF34" s="71"/>
-      <c r="BG34" s="71"/>
-      <c r="BH34" s="71"/>
-      <c r="BI34" s="71"/>
-      <c r="BJ34" s="71"/>
-      <c r="BK34" s="73"/>
-      <c r="BL34" s="73"/>
-      <c r="BM34" s="73"/>
-      <c r="BN34" s="73"/>
-      <c r="BO34" s="73"/>
-      <c r="BP34" s="73"/>
-      <c r="BQ34" s="73"/>
-      <c r="BR34" s="73"/>
-      <c r="BS34" s="73"/>
-      <c r="BT34" s="73"/>
-      <c r="BU34" s="73"/>
-      <c r="BV34" s="71"/>
-      <c r="BW34" s="71"/>
+      <c r="AU34" s="70"/>
+      <c r="AV34" s="70"/>
+      <c r="AW34" s="70"/>
+      <c r="AX34" s="70"/>
+      <c r="AY34" s="70"/>
+      <c r="AZ34" s="70"/>
+      <c r="BA34" s="70"/>
+      <c r="BB34" s="70"/>
+      <c r="BC34" s="70"/>
+      <c r="BD34" s="70"/>
+      <c r="BE34" s="70"/>
+      <c r="BF34" s="70"/>
+      <c r="BG34" s="70"/>
+      <c r="BH34" s="70"/>
+      <c r="BI34" s="70"/>
+      <c r="BJ34" s="70"/>
+      <c r="BK34" s="72"/>
+      <c r="BL34" s="72"/>
+      <c r="BM34" s="72"/>
+      <c r="BN34" s="72"/>
+      <c r="BO34" s="72"/>
+      <c r="BP34" s="72"/>
+      <c r="BQ34" s="72"/>
+      <c r="BR34" s="72"/>
+      <c r="BS34" s="72"/>
+      <c r="BT34" s="72"/>
+      <c r="BU34" s="72"/>
+      <c r="BV34" s="70"/>
+      <c r="BW34" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="2"/>
-      <c r="B35" s="71"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -7522,75 +7528,75 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
-      <c r="AD35" s="71"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="73"/>
-      <c r="AG35" s="73"/>
-      <c r="AH35" s="73"/>
-      <c r="AI35" s="73"/>
-      <c r="AJ35" s="73"/>
-      <c r="AK35" s="73"/>
-      <c r="AL35" s="73"/>
-      <c r="AM35" s="74"/>
-      <c r="AN35" s="74"/>
-      <c r="AO35" s="74"/>
-      <c r="AP35" s="75"/>
-      <c r="AQ35" s="74"/>
-      <c r="AR35" s="71"/>
-      <c r="AS35" s="71"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="70"/>
+      <c r="AB35" s="70"/>
+      <c r="AC35" s="70"/>
+      <c r="AD35" s="70"/>
+      <c r="AE35" s="72"/>
+      <c r="AF35" s="72"/>
+      <c r="AG35" s="72"/>
+      <c r="AH35" s="72"/>
+      <c r="AI35" s="72"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="72"/>
+      <c r="AL35" s="72"/>
+      <c r="AM35" s="73"/>
+      <c r="AN35" s="73"/>
+      <c r="AO35" s="73"/>
+      <c r="AP35" s="74"/>
+      <c r="AQ35" s="73"/>
+      <c r="AR35" s="70"/>
+      <c r="AS35" s="70"/>
       <c r="AT35" s="2"/>
-      <c r="AU35" s="71"/>
-      <c r="AV35" s="71"/>
-      <c r="AW35" s="71"/>
-      <c r="AX35" s="71"/>
-      <c r="AY35" s="71"/>
-      <c r="AZ35" s="71"/>
-      <c r="BA35" s="71"/>
-      <c r="BB35" s="71"/>
-      <c r="BC35" s="71"/>
-      <c r="BD35" s="71"/>
-      <c r="BE35" s="71"/>
-      <c r="BF35" s="71"/>
-      <c r="BG35" s="71"/>
-      <c r="BH35" s="71"/>
-      <c r="BI35" s="71"/>
-      <c r="BJ35" s="71"/>
-      <c r="BK35" s="73"/>
-      <c r="BL35" s="73"/>
-      <c r="BM35" s="73"/>
-      <c r="BN35" s="73"/>
-      <c r="BO35" s="73"/>
-      <c r="BP35" s="73"/>
-      <c r="BQ35" s="73"/>
-      <c r="BR35" s="73"/>
-      <c r="BS35" s="73"/>
-      <c r="BT35" s="73"/>
-      <c r="BU35" s="73"/>
-      <c r="BV35" s="71"/>
-      <c r="BW35" s="71"/>
+      <c r="AU35" s="70"/>
+      <c r="AV35" s="70"/>
+      <c r="AW35" s="70"/>
+      <c r="AX35" s="70"/>
+      <c r="AY35" s="70"/>
+      <c r="AZ35" s="70"/>
+      <c r="BA35" s="70"/>
+      <c r="BB35" s="70"/>
+      <c r="BC35" s="70"/>
+      <c r="BD35" s="70"/>
+      <c r="BE35" s="70"/>
+      <c r="BF35" s="70"/>
+      <c r="BG35" s="70"/>
+      <c r="BH35" s="70"/>
+      <c r="BI35" s="70"/>
+      <c r="BJ35" s="70"/>
+      <c r="BK35" s="72"/>
+      <c r="BL35" s="72"/>
+      <c r="BM35" s="72"/>
+      <c r="BN35" s="72"/>
+      <c r="BO35" s="72"/>
+      <c r="BP35" s="72"/>
+      <c r="BQ35" s="72"/>
+      <c r="BR35" s="72"/>
+      <c r="BS35" s="72"/>
+      <c r="BT35" s="72"/>
+      <c r="BU35" s="72"/>
+      <c r="BV35" s="70"/>
+      <c r="BW35" s="70"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="2"/>
-      <c r="B36" s="71"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -7599,73 +7605,73 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="73"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
-      <c r="Z36" s="73"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="73"/>
-      <c r="AF36" s="73"/>
-      <c r="AG36" s="73"/>
-      <c r="AH36" s="73"/>
-      <c r="AI36" s="73"/>
-      <c r="AJ36" s="73"/>
-      <c r="AK36" s="73"/>
-      <c r="AL36" s="73"/>
-      <c r="AM36" s="74"/>
-      <c r="AN36" s="74"/>
-      <c r="AO36" s="74"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="70"/>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="70"/>
+      <c r="AD36" s="70"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="72"/>
+      <c r="AG36" s="72"/>
+      <c r="AH36" s="72"/>
+      <c r="AI36" s="72"/>
+      <c r="AJ36" s="72"/>
+      <c r="AK36" s="72"/>
+      <c r="AL36" s="72"/>
+      <c r="AM36" s="73"/>
+      <c r="AN36" s="73"/>
+      <c r="AO36" s="73"/>
       <c r="AP36" s="17">
         <v>2</v>
       </c>
-      <c r="AQ36" s="74"/>
-      <c r="AR36" s="71"/>
-      <c r="AS36" s="71"/>
+      <c r="AQ36" s="73"/>
+      <c r="AR36" s="70"/>
+      <c r="AS36" s="70"/>
       <c r="AT36" s="2"/>
-      <c r="AU36" s="71"/>
-      <c r="AV36" s="71"/>
-      <c r="AW36" s="71"/>
-      <c r="AX36" s="71"/>
-      <c r="AY36" s="71"/>
-      <c r="AZ36" s="71"/>
-      <c r="BA36" s="71"/>
-      <c r="BB36" s="71"/>
-      <c r="BC36" s="71"/>
-      <c r="BD36" s="71"/>
-      <c r="BE36" s="71"/>
-      <c r="BF36" s="71"/>
-      <c r="BG36" s="71"/>
-      <c r="BH36" s="71"/>
-      <c r="BI36" s="71"/>
-      <c r="BJ36" s="71"/>
-      <c r="BK36" s="73"/>
-      <c r="BL36" s="73"/>
-      <c r="BM36" s="73"/>
-      <c r="BN36" s="73"/>
-      <c r="BO36" s="73"/>
-      <c r="BP36" s="73"/>
-      <c r="BQ36" s="73"/>
-      <c r="BR36" s="73"/>
-      <c r="BS36" s="73"/>
-      <c r="BT36" s="73"/>
-      <c r="BU36" s="73"/>
-      <c r="BV36" s="71"/>
-      <c r="BW36" s="71"/>
+      <c r="AU36" s="70"/>
+      <c r="AV36" s="70"/>
+      <c r="AW36" s="70"/>
+      <c r="AX36" s="70"/>
+      <c r="AY36" s="70"/>
+      <c r="AZ36" s="70"/>
+      <c r="BA36" s="70"/>
+      <c r="BB36" s="70"/>
+      <c r="BC36" s="70"/>
+      <c r="BD36" s="70"/>
+      <c r="BE36" s="70"/>
+      <c r="BF36" s="70"/>
+      <c r="BG36" s="70"/>
+      <c r="BH36" s="70"/>
+      <c r="BI36" s="70"/>
+      <c r="BJ36" s="70"/>
+      <c r="BK36" s="72"/>
+      <c r="BL36" s="72"/>
+      <c r="BM36" s="72"/>
+      <c r="BN36" s="72"/>
+      <c r="BO36" s="72"/>
+      <c r="BP36" s="72"/>
+      <c r="BQ36" s="72"/>
+      <c r="BR36" s="72"/>
+      <c r="BS36" s="72"/>
+      <c r="BT36" s="72"/>
+      <c r="BU36" s="72"/>
+      <c r="BV36" s="70"/>
+      <c r="BW36" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7682,36 +7688,36 @@
   </sheetPr>
   <dimension ref="A1:CF6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="19" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="20" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="20" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="20" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="19" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="19" width="37.005" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="27" max="27" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="28" max="28" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="29" max="29" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
@@ -7724,18 +7730,18 @@
     <col min="36" max="36" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="37" max="37" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="38" max="38" style="19" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="20" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="20" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="20" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="20" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="20" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="20" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="20" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="20" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="20" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="20" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="20" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="20" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="21" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="21" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="21" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="21" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="21" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="21" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="21" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="21" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="21" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="21" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="21" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="21" width="16.14785714285714" customWidth="1" bestFit="1"/>
     <col min="51" max="51" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="52" max="52" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="53" max="53" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -7884,7 +7890,7 @@
       <c r="AK1" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AL1" s="26" t="s">
         <v>798</v>
       </c>
       <c r="AM1" s="9" t="s">
@@ -7893,25 +7899,25 @@
       <c r="AN1" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AO1" s="27" t="s">
         <v>801</v>
       </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AP1" s="27" t="s">
         <v>802</v>
       </c>
-      <c r="AQ1" s="28" t="s">
+      <c r="AQ1" s="27" t="s">
         <v>803</v>
       </c>
-      <c r="AR1" s="28" t="s">
+      <c r="AR1" s="27" t="s">
         <v>804</v>
       </c>
-      <c r="AS1" s="29" t="s">
+      <c r="AS1" s="28" t="s">
         <v>805</v>
       </c>
-      <c r="AT1" s="29" t="s">
+      <c r="AT1" s="28" t="s">
         <v>806</v>
       </c>
-      <c r="AU1" s="29" t="s">
+      <c r="AU1" s="28" t="s">
         <v>807</v>
       </c>
       <c r="AV1" s="8" t="s">
@@ -7929,92 +7935,92 @@
       <c r="AZ1" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="30"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="31"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
-      <c r="BQ1" s="32"/>
-      <c r="BR1" s="32"/>
-      <c r="BS1" s="32"/>
-      <c r="BT1" s="32"/>
-      <c r="BU1" s="32"/>
-      <c r="BV1" s="32"/>
-      <c r="BW1" s="32"/>
-      <c r="BX1" s="32"/>
-      <c r="BY1" s="32"/>
-      <c r="BZ1" s="32"/>
-      <c r="CA1" s="32"/>
-      <c r="CB1" s="32"/>
-      <c r="CC1" s="32"/>
-      <c r="CD1" s="32"/>
-      <c r="CE1" s="32"/>
-      <c r="CF1" s="33"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="32"/>
+      <c r="BL1" s="31"/>
+      <c r="BM1" s="31"/>
+      <c r="BN1" s="30"/>
+      <c r="BO1" s="31"/>
+      <c r="BP1" s="31"/>
+      <c r="BQ1" s="31"/>
+      <c r="BR1" s="31"/>
+      <c r="BS1" s="31"/>
+      <c r="BT1" s="31"/>
+      <c r="BU1" s="31"/>
+      <c r="BV1" s="31"/>
+      <c r="BW1" s="31"/>
+      <c r="BX1" s="31"/>
+      <c r="BY1" s="31"/>
+      <c r="BZ1" s="31"/>
+      <c r="CA1" s="31"/>
+      <c r="CB1" s="31"/>
+      <c r="CC1" s="31"/>
+      <c r="CD1" s="31"/>
+      <c r="CE1" s="31"/>
+      <c r="CF1" s="32"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="34">
+      <c r="A2" s="33">
         <f>CONCATENATE("DREF",Table13[[#This Row], [Country]],Table13[[#This Row], [Appeal Code]])</f>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>45448</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="37">
         <f>VLOOKUP(Table13[[#This Row], [Country]],Lists!B1:D217,3,FALSE)</f>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>812</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>813</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="39">
+      <c r="K2" s="38">
         <v>45450</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="39">
         <v>45449</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M2" s="39">
         <v>45452</v>
       </c>
-      <c r="N2" s="35">
+      <c r="N2" s="34">
         <v>45458</v>
       </c>
-      <c r="O2" s="40">
+      <c r="O2" s="39">
         <v>45448</v>
       </c>
-      <c r="P2" s="35">
+      <c r="P2" s="34">
         <v>45449</v>
       </c>
-      <c r="Q2" s="35">
+      <c r="Q2" s="34">
         <v>45449</v>
       </c>
-      <c r="R2" s="41">
+      <c r="R2" s="40">
         <v>45452</v>
       </c>
       <c r="S2" s="16">
@@ -8056,31 +8062,31 @@
       <c r="AE2" s="17">
         <v>2</v>
       </c>
-      <c r="AF2" s="35">
+      <c r="AF2" s="34">
         <v>45464</v>
       </c>
-      <c r="AG2" s="35">
+      <c r="AG2" s="34">
         <v>45465</v>
       </c>
-      <c r="AH2" s="35">
+      <c r="AH2" s="34">
         <v>45463</v>
       </c>
-      <c r="AI2" s="35">
+      <c r="AI2" s="34">
         <v>45465</v>
       </c>
-      <c r="AJ2" s="35">
+      <c r="AJ2" s="34">
         <v>45466</v>
       </c>
-      <c r="AK2" s="35">
+      <c r="AK2" s="34">
         <v>45469</v>
       </c>
-      <c r="AL2" s="35">
+      <c r="AL2" s="34">
         <v>45458</v>
       </c>
-      <c r="AM2" s="42">
+      <c r="AM2" s="41">
         <v>0.4</v>
       </c>
-      <c r="AN2" s="43">
+      <c r="AN2" s="42">
         <v>0.6</v>
       </c>
       <c r="AO2" s="16">
@@ -8095,116 +8101,116 @@
       <c r="AR2" s="16">
         <v>0.68</v>
       </c>
-      <c r="AS2" s="43">
+      <c r="AS2" s="42">
         <v>0.55</v>
       </c>
-      <c r="AT2" s="42">
+      <c r="AT2" s="41">
         <v>0.6</v>
       </c>
-      <c r="AU2" s="44">
+      <c r="AU2" s="43">
         <v>0.7</v>
       </c>
-      <c r="AV2" s="42">
+      <c r="AV2" s="41">
         <v>0.3</v>
       </c>
-      <c r="AW2" s="43">
+      <c r="AW2" s="42">
         <v>0.5</v>
       </c>
-      <c r="AX2" s="42">
+      <c r="AX2" s="41">
         <v>0.7</v>
       </c>
-      <c r="AY2" s="35">
+      <c r="AY2" s="34">
         <v>45449</v>
       </c>
-      <c r="AZ2" s="35" t="s">
+      <c r="AZ2" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="48"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="48"/>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="51"/>
-      <c r="BQ2" s="51"/>
-      <c r="BR2" s="51"/>
-      <c r="BS2" s="51"/>
-      <c r="BT2" s="51"/>
-      <c r="BU2" s="51"/>
-      <c r="BV2" s="51"/>
-      <c r="BW2" s="51"/>
-      <c r="BX2" s="51"/>
-      <c r="BY2" s="51"/>
-      <c r="BZ2" s="51"/>
-      <c r="CA2" s="51"/>
-      <c r="CB2" s="51"/>
-      <c r="CC2" s="51"/>
-      <c r="CD2" s="51"/>
-      <c r="CE2" s="51"/>
-      <c r="CF2" s="51"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="47"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="48"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="50"/>
+      <c r="BQ2" s="50"/>
+      <c r="BR2" s="50"/>
+      <c r="BS2" s="50"/>
+      <c r="BT2" s="50"/>
+      <c r="BU2" s="50"/>
+      <c r="BV2" s="50"/>
+      <c r="BW2" s="50"/>
+      <c r="BX2" s="50"/>
+      <c r="BY2" s="50"/>
+      <c r="BZ2" s="50"/>
+      <c r="CA2" s="50"/>
+      <c r="CB2" s="50"/>
+      <c r="CC2" s="50"/>
+      <c r="CD2" s="50"/>
+      <c r="CE2" s="50"/>
+      <c r="CF2" s="50"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="52">
+      <c r="A3" s="51">
         <f>CONCATENATE("DREF",Table13[[#This Row], [Country]],Table13[[#This Row], [Appeal Code]])</f>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>45474</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <f>VLOOKUP(Table13[[#This Row], [Country]],Lists!B2:D218,3,FALSE)</f>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>815</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="54">
         <v>45475</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="54">
         <v>45475</v>
       </c>
-      <c r="M3" s="55">
+      <c r="M3" s="54">
         <v>45485</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="34">
         <v>45485</v>
       </c>
-      <c r="O3" s="55">
+      <c r="O3" s="54">
         <v>45476</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="34">
         <v>45475</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="34">
         <v>45475</v>
       </c>
-      <c r="R3" s="41">
+      <c r="R3" s="40">
         <v>45478</v>
       </c>
       <c r="S3" s="16">
@@ -8246,31 +8252,31 @@
       <c r="AE3" s="17">
         <v>4</v>
       </c>
-      <c r="AF3" s="35">
+      <c r="AF3" s="34">
         <v>45491</v>
       </c>
-      <c r="AG3" s="35">
+      <c r="AG3" s="34">
         <v>45487</v>
       </c>
-      <c r="AH3" s="35">
+      <c r="AH3" s="34">
         <v>45492</v>
       </c>
-      <c r="AI3" s="35">
+      <c r="AI3" s="34">
         <v>45495</v>
       </c>
-      <c r="AJ3" s="35">
+      <c r="AJ3" s="34">
         <v>45497</v>
       </c>
-      <c r="AK3" s="35">
+      <c r="AK3" s="34">
         <v>45500</v>
       </c>
-      <c r="AL3" s="35">
+      <c r="AL3" s="34">
         <v>45485</v>
       </c>
-      <c r="AM3" s="56">
+      <c r="AM3" s="55">
         <v>0.6</v>
       </c>
-      <c r="AN3" s="43">
+      <c r="AN3" s="42">
         <v>0.9</v>
       </c>
       <c r="AO3" s="16">
@@ -8285,39 +8291,39 @@
       <c r="AR3" s="16">
         <v>0.85</v>
       </c>
-      <c r="AS3" s="57">
+      <c r="AS3" s="56">
         <v>0.4</v>
       </c>
-      <c r="AT3" s="56">
+      <c r="AT3" s="55">
         <v>0.43</v>
       </c>
-      <c r="AU3" s="58">
+      <c r="AU3" s="57">
         <v>0.55</v>
       </c>
-      <c r="AV3" s="56">
+      <c r="AV3" s="55">
         <v>0.25</v>
       </c>
-      <c r="AW3" s="57">
+      <c r="AW3" s="56">
         <v>0.55</v>
       </c>
-      <c r="AX3" s="56">
+      <c r="AX3" s="55">
         <v>0.6</v>
       </c>
-      <c r="AY3" s="35">
+      <c r="AY3" s="34">
         <v>45475</v>
       </c>
-      <c r="AZ3" s="35" t="s">
+      <c r="AZ3" s="34" t="s">
         <v>754</v>
       </c>
       <c r="BA3" s="2"/>
-      <c r="BB3" s="59"/>
+      <c r="BB3" s="58"/>
       <c r="BC3" s="2"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="60"/>
+      <c r="BF3" s="61"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="58"/>
       <c r="BJ3" s="2"/>
       <c r="BK3" s="2"/>
       <c r="BL3" s="2"/>
@@ -8343,58 +8349,58 @@
       <c r="CF3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="52">
+      <c r="A4" s="51">
         <f>CONCATENATE("DREF",Table13[[#This Row], [Country]],Table13[[#This Row], [Appeal Code]])</f>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <v>45514</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="63">
         <f>VLOOKUP(Table13[[#This Row], [Country]],Lists!B3:D219,3,FALSE)</f>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>816</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="52" t="s">
         <v>817</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="54">
         <v>45518</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="40">
         <v>45516</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="40">
         <v>45524</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="34">
         <v>45525</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="40">
         <v>45515</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="34">
         <v>45515</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="34">
         <v>45515</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="40">
         <v>45517</v>
       </c>
       <c r="S4" s="16">
@@ -8436,31 +8442,31 @@
       <c r="AE4" s="17">
         <v>3</v>
       </c>
-      <c r="AF4" s="35">
+      <c r="AF4" s="34">
         <v>45533</v>
       </c>
-      <c r="AG4" s="35">
+      <c r="AG4" s="34">
         <v>45537</v>
       </c>
-      <c r="AH4" s="35">
+      <c r="AH4" s="34">
         <v>45534</v>
       </c>
-      <c r="AI4" s="35">
+      <c r="AI4" s="34">
         <v>45537</v>
       </c>
-      <c r="AJ4" s="35">
+      <c r="AJ4" s="34">
         <v>45538</v>
       </c>
-      <c r="AK4" s="35">
+      <c r="AK4" s="34">
         <v>45541</v>
       </c>
-      <c r="AL4" s="35">
+      <c r="AL4" s="34">
         <v>45525</v>
       </c>
-      <c r="AM4" s="56">
+      <c r="AM4" s="55">
         <v>0.9</v>
       </c>
-      <c r="AN4" s="57">
+      <c r="AN4" s="56">
         <v>0.92</v>
       </c>
       <c r="AO4" s="16">
@@ -8475,28 +8481,28 @@
       <c r="AR4" s="16">
         <v>0.72</v>
       </c>
-      <c r="AS4" s="57">
+      <c r="AS4" s="56">
         <v>0.7</v>
       </c>
-      <c r="AT4" s="56">
+      <c r="AT4" s="55">
         <v>0.72</v>
       </c>
-      <c r="AU4" s="58">
+      <c r="AU4" s="57">
         <v>0.8</v>
       </c>
-      <c r="AV4" s="56">
+      <c r="AV4" s="55">
         <v>0.4</v>
       </c>
-      <c r="AW4" s="57">
+      <c r="AW4" s="56">
         <v>0.6</v>
       </c>
-      <c r="AX4" s="56">
+      <c r="AX4" s="55">
         <v>0.8</v>
       </c>
-      <c r="AY4" s="35">
+      <c r="AY4" s="34">
         <v>45516</v>
       </c>
-      <c r="AZ4" s="35" t="s">
+      <c r="AZ4" s="34" t="s">
         <v>754</v>
       </c>
       <c r="BA4" s="2"/>
@@ -8533,58 +8539,58 @@
       <c r="CF4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="52">
+      <c r="A5" s="51">
         <f>CONCATENATE("DREF",Table13[[#This Row], [Country]],Table13[[#This Row], [Appeal Code]])</f>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="34">
         <v>45524</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="63">
         <f>VLOOKUP(Table13[[#This Row], [Country]],Lists!B4:D220,3,FALSE)</f>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="53" t="s">
         <v>818</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="52" t="s">
         <v>819</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="54">
         <v>45529</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="40">
         <v>45525</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="40">
         <v>45529</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="34">
         <v>45534</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="40">
         <v>45527</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5" s="34">
         <v>45526</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="34">
         <v>45525</v>
       </c>
-      <c r="R5" s="41">
+      <c r="R5" s="40">
         <v>45527</v>
       </c>
       <c r="S5" s="16">
@@ -8626,67 +8632,67 @@
       <c r="AE5" s="17">
         <v>2</v>
       </c>
-      <c r="AF5" s="35">
+      <c r="AF5" s="34">
         <v>45542</v>
       </c>
-      <c r="AG5" s="35">
+      <c r="AG5" s="34">
         <v>45537</v>
       </c>
-      <c r="AH5" s="35">
+      <c r="AH5" s="34">
         <v>45543</v>
       </c>
-      <c r="AI5" s="35">
+      <c r="AI5" s="34">
         <v>45545</v>
       </c>
-      <c r="AJ5" s="35">
+      <c r="AJ5" s="34">
         <v>45546</v>
       </c>
-      <c r="AK5" s="35">
+      <c r="AK5" s="34">
         <v>45550</v>
       </c>
-      <c r="AL5" s="35">
+      <c r="AL5" s="34">
         <v>45534</v>
       </c>
-      <c r="AM5" s="56">
+      <c r="AM5" s="55">
         <v>0.3</v>
       </c>
-      <c r="AN5" s="57">
+      <c r="AN5" s="56">
         <v>0.65</v>
       </c>
-      <c r="AO5" s="56">
+      <c r="AO5" s="55">
         <v>0.4</v>
       </c>
-      <c r="AP5" s="65">
+      <c r="AP5" s="64">
         <v>0.6</v>
       </c>
-      <c r="AQ5" s="57">
+      <c r="AQ5" s="56">
         <v>0.6</v>
       </c>
-      <c r="AR5" s="56">
+      <c r="AR5" s="55">
         <v>0.7</v>
       </c>
-      <c r="AS5" s="57">
+      <c r="AS5" s="56">
         <v>0.72</v>
       </c>
-      <c r="AT5" s="56">
+      <c r="AT5" s="55">
         <v>0.74</v>
       </c>
-      <c r="AU5" s="58">
+      <c r="AU5" s="57">
         <v>0.85</v>
       </c>
-      <c r="AV5" s="56">
+      <c r="AV5" s="55">
         <v>0.45</v>
       </c>
-      <c r="AW5" s="57">
+      <c r="AW5" s="56">
         <v>0.64</v>
       </c>
-      <c r="AX5" s="56">
+      <c r="AX5" s="55">
         <v>1</v>
       </c>
-      <c r="AY5" s="35">
+      <c r="AY5" s="34">
         <v>45525</v>
       </c>
-      <c r="AZ5" s="35" t="s">
+      <c r="AZ5" s="34" t="s">
         <v>754</v>
       </c>
       <c r="BA5" s="2"/>
@@ -8723,58 +8729,58 @@
       <c r="CF5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="52">
+      <c r="A6" s="51">
         <f>CONCATENATE("DREF",Table13[[#This Row], [Country]],Table13[[#This Row], [Appeal Code]])</f>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>45537</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="63">
         <f>VLOOKUP(Table13[[#This Row], [Country]],Lists!B5:D221,3,FALSE)</f>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>820</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="52" t="s">
         <v>821</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="54">
         <v>45538</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="40">
         <v>45541</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="40">
         <v>45556</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="34">
         <v>45553</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="40">
         <v>45543</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="34">
         <v>45540</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="34">
         <v>45538</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="40">
         <v>45550</v>
       </c>
       <c r="S6" s="16">
@@ -8816,31 +8822,31 @@
       <c r="AE6" s="17">
         <v>11</v>
       </c>
-      <c r="AF6" s="35">
+      <c r="AF6" s="34">
         <v>45560</v>
       </c>
-      <c r="AG6" s="35">
+      <c r="AG6" s="34">
         <v>45549</v>
       </c>
-      <c r="AH6" s="35">
+      <c r="AH6" s="34">
         <v>45557</v>
       </c>
-      <c r="AI6" s="35">
+      <c r="AI6" s="34">
         <v>45560</v>
       </c>
-      <c r="AJ6" s="35">
+      <c r="AJ6" s="34">
         <v>45561</v>
       </c>
-      <c r="AK6" s="35">
+      <c r="AK6" s="34">
         <v>45564</v>
       </c>
-      <c r="AL6" s="35">
+      <c r="AL6" s="34">
         <v>45553</v>
       </c>
-      <c r="AM6" s="56">
+      <c r="AM6" s="55">
         <v>0.45</v>
       </c>
-      <c r="AN6" s="57">
+      <c r="AN6" s="56">
         <v>0.7</v>
       </c>
       <c r="AO6" s="16">
@@ -8855,28 +8861,28 @@
       <c r="AR6" s="16">
         <v>0.75</v>
       </c>
-      <c r="AS6" s="57">
+      <c r="AS6" s="56">
         <v>0.8</v>
       </c>
-      <c r="AT6" s="56">
+      <c r="AT6" s="55">
         <v>0.9</v>
       </c>
-      <c r="AU6" s="58">
+      <c r="AU6" s="57">
         <v>0.9</v>
       </c>
-      <c r="AV6" s="56">
+      <c r="AV6" s="55">
         <v>0.7</v>
       </c>
-      <c r="AW6" s="57">
+      <c r="AW6" s="56">
         <v>1</v>
       </c>
-      <c r="AX6" s="56" t="s">
+      <c r="AX6" s="55" t="s">
         <v>754</v>
       </c>
-      <c r="AY6" s="35" t="s">
+      <c r="AY6" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="AZ6" s="35">
+      <c r="AZ6" s="34">
         <v>45547</v>
       </c>
       <c r="BA6" s="2"/>
@@ -8944,22 +8950,22 @@
     <col min="11" max="11" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="20" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="20" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="20" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="20" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="20" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="21" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="21" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="21" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="21" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="21" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="21" width="14.862142857142858" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="20" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="21" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="30" max="30" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="31" max="31" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="32" max="32" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
@@ -8971,11 +8977,11 @@
     <col min="38" max="38" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="39" max="39" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="40" max="40" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="26" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="25" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="42" max="42" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="43" max="43" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -9206,13 +9212,13 @@
       <c r="M3" s="14">
         <v>45472</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="23" t="s">
         <v>781</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="23" t="s">
         <v>782</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="23" t="s">
         <v>757</v>
       </c>
       <c r="Q3" s="16">
@@ -9287,7 +9293,7 @@
       <c r="AN3" s="14">
         <v>45476</v>
       </c>
-      <c r="AO3" s="25" t="s">
+      <c r="AO3" s="24" t="s">
         <v>754</v>
       </c>
       <c r="AP3" s="14">
@@ -9343,13 +9349,13 @@
       <c r="M4" s="14">
         <v>45503</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="23" t="s">
         <v>785</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="23" t="s">
         <v>781</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="23" t="s">
         <v>751</v>
       </c>
       <c r="Q4" s="16" t="s">
@@ -9424,7 +9430,7 @@
       <c r="AN4" s="14">
         <v>45496</v>
       </c>
-      <c r="AO4" s="25" t="s">
+      <c r="AO4" s="24" t="s">
         <v>754</v>
       </c>
       <c r="AP4" s="14">
@@ -9561,7 +9567,7 @@
       <c r="AN5" s="14">
         <v>45531</v>
       </c>
-      <c r="AO5" s="25">
+      <c r="AO5" s="24">
         <v>45526</v>
       </c>
       <c r="AP5" s="14">
@@ -9610,25 +9616,25 @@
     <col min="12" max="12" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="3" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="3" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="20" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="20" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="20" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="20" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="20" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="21" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="21" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="21" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="22" max="22" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="23" max="23" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="24" max="24" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="20" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="20" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="20" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="20" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="21" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="21" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="21" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="21" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="34" max="34" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="35" max="35" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="36" max="36" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
@@ -9640,23 +9646,23 @@
     <col min="42" max="42" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="43" max="43" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="44" max="44" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="52" max="52" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="23" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="21" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="60" max="60" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="3" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="20" width="29.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">

--- a/dummy_data/ewts_master_dummy_data.xlsx
+++ b/dummy_data/ewts_master_dummy_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="EA_MD"/>
@@ -7688,7 +7688,7 @@
   </sheetPr>
   <dimension ref="A1:CF6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7703,10 +7703,10 @@
     <col min="9" max="9" style="20" width="16.290714285714284" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="20" width="15.862142857142858" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="19" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
@@ -8933,7 +8933,7 @@
   </sheetPr>
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8950,7 +8950,7 @@
     <col min="11" max="11" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="21" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="21" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="21" width="12.290714285714287" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="21" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="21" width="12.005" customWidth="1" bestFit="1"/>
@@ -8972,7 +8972,7 @@
     <col min="33" max="33" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="34" max="34" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="35" max="35" style="19" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="19" width="29.576428571428572" customWidth="1" bestFit="1"/>
     <col min="37" max="37" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="38" max="38" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="39" max="39" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>

--- a/dummy_data/ewts_master_dummy_data.xlsx
+++ b/dummy_data/ewts_master_dummy_data.xlsx
@@ -8950,7 +8950,7 @@
     <col min="11" max="11" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="21" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="21" width="12.719285714285713" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="21" width="12.290714285714287" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="21" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="21" width="12.005" customWidth="1" bestFit="1"/>
@@ -8972,7 +8972,7 @@
     <col min="33" max="33" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="34" max="34" style="22" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="35" max="35" style="19" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="19" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="37" max="37" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="38" max="38" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="39" max="39" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>

--- a/dummy_data/ewts_master_dummy_data.xlsx
+++ b/dummy_data/ewts_master_dummy_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ifrcorg.sharepoint.com/sites/QualityDeliveryUnit221/Shared Documents/Quality team files/Project folders/Tracking system working folder/Master_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hun.rim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1347" documentId="8_{3286DCFA-4F67-4C04-878E-48483F6B2EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB949F4C-7AB5-49F6-80CC-1B5CD6D09FE5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC07FBCB-71CA-471C-92D9-E648B3B362CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{25E8ACD6-C9F0-4828-AAC2-6BEC79C8E8F4}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{25E8ACD6-C9F0-4828-AAC2-6BEC79C8E8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="EA_MD" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="925">
   <si>
     <t>Ref</t>
   </si>
@@ -2892,6 +2892,9 @@
     <t xml:space="preserve">&lt;50% Bad 
 &gt; 50% Okay 
 &gt;75% good </t>
+  </si>
+  <si>
+    <t>DNU</t>
   </si>
 </sst>
 </file>
@@ -3472,7 +3475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3634,7 +3637,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3644,14 +3647,11 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3660,36 +3660,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="212">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="213">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3734,6 +3709,23 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3875,7 +3867,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3993,7 +3985,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4006,7 +3998,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4026,7 +4018,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4302,7 +4294,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4322,7 +4314,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4342,7 +4334,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4362,7 +4354,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4382,7 +4374,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4402,7 +4394,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4422,7 +4414,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4718,7 +4710,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4738,7 +4730,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4758,7 +4750,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4780,7 +4772,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4800,7 +4792,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -5026,7 +5018,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -5051,6 +5043,14 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5115,7 +5115,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5140,19 +5140,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5171,6 +5171,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5279,7 +5282,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -5305,14 +5308,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3363E91-63B7-4666-85CA-07B3A6FFD6F9}" name="Table1" displayName="Table1" ref="A1:BX6" totalsRowShown="0" tableBorderDxfId="211">
-  <autoFilter ref="A1:BX6" xr:uid="{D3363E91-63B7-4666-85CA-07B3A6FFD6F9}"/>
-  <tableColumns count="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3363E91-63B7-4666-85CA-07B3A6FFD6F9}" name="Table1" displayName="Table1" ref="A1:BY6" totalsRowShown="0" tableBorderDxfId="212">
+  <autoFilter ref="A1:BY6" xr:uid="{D3363E91-63B7-4666-85CA-07B3A6FFD6F9}"/>
+  <tableColumns count="77">
     <tableColumn id="1" xr3:uid="{AB27E9A0-98B3-42F6-BB22-A095B78EB98F}" name="Ref">
       <calculatedColumnFormula>CONCATENATE("EA",Table1[[#This Row],[Country]],Table1[[#This Row],[Appeal Code]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="76" xr3:uid="{B1110447-1791-44F3-9B09-306CEF192C35}" name="tracker Status"/>
-    <tableColumn id="2" xr3:uid="{B73EE3D3-7272-4766-90EF-6CC914E19EAB}" name="Trigger Date " dataDxfId="210"/>
+    <tableColumn id="2" xr3:uid="{B73EE3D3-7272-4766-90EF-6CC914E19EAB}" name="Trigger Date " dataDxfId="211"/>
     <tableColumn id="3" xr3:uid="{F477289B-37BF-4172-BEE8-A14749AD4208}" name="Region"/>
     <tableColumn id="4" xr3:uid="{1B45E6E9-6954-4F85-82F2-3E92330D8AC2}" name="Country"/>
     <tableColumn id="49" xr3:uid="{9B8422D5-39C2-4F25-862C-53E953555CA7}" name="ISO"/>
@@ -5321,42 +5324,43 @@
     <tableColumn id="7" xr3:uid="{EF5E3EC1-E9C0-41F9-809E-3AB8E9A3A768}" name="Disaster Type "/>
     <tableColumn id="8" xr3:uid="{D9DA7AD4-8E28-49B3-8D9F-4C1AF8CF587D}" name="Classification "/>
     <tableColumn id="9" xr3:uid="{49E53AA7-CDC5-457B-BD0F-DCED4B3D44E1}" name="EWTS Varient "/>
-    <tableColumn id="10" xr3:uid="{7FBCD97A-4F79-41D4-B3F8-1F07A42690FB}" name="Initial needs assessments completed and disseminated within 72 hours​ of the event." dataDxfId="209"/>
-    <tableColumn id="11" xr3:uid="{DC972B82-A9F6-4BD7-9F44-8B6726E26A52}" name="Disaster Brief done to inform the FAD between 48-72 h" dataDxfId="208"/>
-    <tableColumn id="12" xr3:uid="{A30D6604-CB65-4F7B-8AF6-5CE2E0AA0CA4}" name="EA is launched within 24 hours after the FAD has been approved (or within 48 hours after field report was published). " dataDxfId="207"/>
-    <tableColumn id="13" xr3:uid="{8CF26CFE-9472-4DED-926D-97929C788B0F}" name="Operational Strategy validated 7 days after the EA " dataDxfId="206"/>
-    <tableColumn id="14" xr3:uid="{EFF4BFA9-B318-4AFA-91AA-A240D72015DF}" name="% coverage of the EA - 10 days (Sect.)" dataDxfId="205"/>
-    <tableColumn id="41" xr3:uid="{9C029AA3-F01B-4886-9B4C-B17B712E3701}" name="% coverage of the EA - 2 weeks (Sect.)" dataDxfId="204"/>
-    <tableColumn id="42" xr3:uid="{AFEEAC68-0B3D-40BA-9D3D-434F8D81091B}" name="% coverage of the EA - 3 weeks (Sect.)" dataDxfId="203"/>
-    <tableColumn id="43" xr3:uid="{ED4F894C-D7AA-4D22-B950-C7E1722C7BF0}" name="% coverage of the EA - 1 month (Sect.)" dataDxfId="202"/>
-    <tableColumn id="44" xr3:uid="{986110AD-37B3-45BE-B0CF-1C6AFA4787AC}" name="% coverage of the EA - 2 months (Sect.)" dataDxfId="201"/>
-    <tableColumn id="45" xr3:uid="{2ECFA8CD-8320-4CE3-8783-0B4DBBCBC0CB}" name="% coverage of the EA - 3 months (Sect.)" dataDxfId="200"/>
-    <tableColumn id="55" xr3:uid="{88245AB3-6A3B-4566-857D-57FCF7F500FB}" name="% coverage of the EA - 10 days (Fed.)" dataDxfId="199"/>
-    <tableColumn id="51" xr3:uid="{AAE6D3F4-7AE3-445F-B1F5-407C7A6851FB}" name="% coverage of the EA - 2 weeks (Fed.)" dataDxfId="198"/>
-    <tableColumn id="50" xr3:uid="{846FEF06-06D5-4A60-BE01-DE39CB01F62E}" name="% coverage of the EA - 3 weeks (Fed.)" dataDxfId="197"/>
-    <tableColumn id="48" xr3:uid="{C09DA591-4740-426C-AF75-F084E67D3084}" name="% coverage of the EA - 1 month (Fed.)" dataDxfId="196"/>
-    <tableColumn id="47" xr3:uid="{906C50CF-0DF0-40D0-B6BC-F5A5D74AFD3E}" name="% coverage of the EA - 2 months (Fed.)" dataDxfId="195"/>
-    <tableColumn id="46" xr3:uid="{D8172841-CD5C-4069-862A-AE9848FB36E3}" name="% coverage of the EA - 3 months (Fed.)" dataDxfId="194"/>
-    <tableColumn id="15" xr3:uid="{A408DF94-18DF-4060-B6F8-760D90893B8F}" name="A resource mobilization plan is developed and approved within 2 weeks of the EA" dataDxfId="193"/>
-    <tableColumn id="16" xr3:uid="{4F96289A-DEC3-4958-A9A9-C9E764BF2CC1}" name="IFRC having the green light from the receiving NS to deploy RR 24h after the disaster" dataDxfId="192"/>
-    <tableColumn id="17" xr3:uid="{2B18FA43-9CDB-4C18-A06E-91D4FF717A3A}" name="RR personnel Alert sent within 12h of the request " dataDxfId="191"/>
-    <tableColumn id="18" xr3:uid="{C7BF6113-02D2-4CE9-8119-29B5C19629DE}" name="Identification of 1st rotation RR personnel within 48h of the alert " dataDxfId="190"/>
-    <tableColumn id="19" xr3:uid="{435C0BCB-169D-4BAE-AB0E-AE95D5D252DB}" name="% of female and male out of the RRP deployed -  2 weeks " dataDxfId="189"/>
-    <tableColumn id="54" xr3:uid="{EA82C928-8B8E-4F98-A2E9-1384ED4FEAB2}" name="% of female and male out of the RRP deployed - 1 month " dataDxfId="188"/>
-    <tableColumn id="53" xr3:uid="{843EFA50-DAF5-4CFA-86CC-118C2A008F2D}" name="% of female and male out of the RRP deployed - 2 months" dataDxfId="187"/>
-    <tableColumn id="52" xr3:uid="{C7F08E34-2BB0-4B17-9443-5609139B1237}" name="% of female and male out of the RRP deployed - 3 months" dataDxfId="186"/>
-    <tableColumn id="20" xr3:uid="{6E36B6B7-B3FB-4B89-A370-E3691ED45D90}" name="% of RRP coming within the region of the disaster - 2 weeks " dataDxfId="185"/>
-    <tableColumn id="58" xr3:uid="{1F457CF8-DC24-4FD9-86B2-0F97E0F1BC9E}" name="% of RRP coming within the region of the disaster - 1 Month " dataDxfId="184"/>
-    <tableColumn id="57" xr3:uid="{0D6FF2F0-8081-4694-9939-123E17A044D7}" name="% of RRP coming within the region of the disaster - 2 months " dataDxfId="183"/>
-    <tableColumn id="56" xr3:uid="{DF5E89B5-CEB9-4755-933B-BC4DB5C65310}" name="% of RRP coming within the region of the disaster - 3 months " dataDxfId="182"/>
-    <tableColumn id="21" xr3:uid="{1E8EB7BA-D9D3-4AAD-AC0A-AD6EC64B696C}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 Week " dataDxfId="181"/>
-    <tableColumn id="61" xr3:uid="{58878D62-01A2-41FF-878C-B1E785F9A027}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 Weeks" dataDxfId="180"/>
-    <tableColumn id="60" xr3:uid="{8AD09693-6D78-4FD0-8906-E86F7BEEDE4E}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 month" dataDxfId="179"/>
-    <tableColumn id="62" xr3:uid="{8E9429C5-0D32-4EF3-982C-148BAB76B816}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 months" dataDxfId="178"/>
-    <tableColumn id="59" xr3:uid="{6D90C9BA-E502-4A74-85E0-BBF829A3D971}" name="# of RR deployed arriving in country of operation within 4 days from deployment message  - 3 months" dataDxfId="177"/>
-    <tableColumn id="22" xr3:uid="{1814E2AF-44DC-4071-892C-B927F33D691B}" name="Key initial longer-term positions identified by operational leadership and requested via submission in the HR system, one week after the EA publication" dataDxfId="176"/>
-    <tableColumn id="23" xr3:uid="{F583C92D-A1AD-44E4-8F5B-2D28B8EECED1}" name="Once approved in the HR system and pre-classified JD provided, HR advertises key initial longer-term positions within 48 hours." dataDxfId="175"/>
-    <tableColumn id="24" xr3:uid="{59F1936C-6A92-428F-A3B5-1976614E87B7}" name="Hold a mini summit within 48 h of the disaster" dataDxfId="174"/>
+    <tableColumn id="10" xr3:uid="{7FBCD97A-4F79-41D4-B3F8-1F07A42690FB}" name="Initial needs assessments completed and disseminated within 72 hours​ of the event." dataDxfId="210"/>
+    <tableColumn id="11" xr3:uid="{DC972B82-A9F6-4BD7-9F44-8B6726E26A52}" name="Disaster Brief done to inform the FAD between 48-72 h" dataDxfId="209"/>
+    <tableColumn id="12" xr3:uid="{A30D6604-CB65-4F7B-8AF6-5CE2E0AA0CA4}" name="EA is launched within 24 hours after the FAD has been approved (or within 48 hours after field report was published). " dataDxfId="208"/>
+    <tableColumn id="13" xr3:uid="{8CF26CFE-9472-4DED-926D-97929C788B0F}" name="Operational Strategy validated 7 days after the EA " dataDxfId="207"/>
+    <tableColumn id="14" xr3:uid="{EFF4BFA9-B318-4AFA-91AA-A240D72015DF}" name="% coverage of the EA - 10 days (Sect.)" dataDxfId="206"/>
+    <tableColumn id="41" xr3:uid="{9C029AA3-F01B-4886-9B4C-B17B712E3701}" name="% coverage of the EA - 2 weeks (Sect.)" dataDxfId="205"/>
+    <tableColumn id="42" xr3:uid="{AFEEAC68-0B3D-40BA-9D3D-434F8D81091B}" name="% coverage of the EA - 3 weeks (Sect.)" dataDxfId="204"/>
+    <tableColumn id="43" xr3:uid="{ED4F894C-D7AA-4D22-B950-C7E1722C7BF0}" name="% coverage of the EA - 1 month (Sect.)" dataDxfId="203"/>
+    <tableColumn id="44" xr3:uid="{986110AD-37B3-45BE-B0CF-1C6AFA4787AC}" name="% coverage of the EA - 2 months (Sect.)" dataDxfId="202"/>
+    <tableColumn id="45" xr3:uid="{2ECFA8CD-8320-4CE3-8783-0B4DBBCBC0CB}" name="% coverage of the EA - 3 months (Sect.)" dataDxfId="201"/>
+    <tableColumn id="55" xr3:uid="{88245AB3-6A3B-4566-857D-57FCF7F500FB}" name="% coverage of the EA - 10 days (Fed.)" dataDxfId="200"/>
+    <tableColumn id="51" xr3:uid="{AAE6D3F4-7AE3-445F-B1F5-407C7A6851FB}" name="% coverage of the EA - 2 weeks (Fed.)" dataDxfId="199"/>
+    <tableColumn id="50" xr3:uid="{846FEF06-06D5-4A60-BE01-DE39CB01F62E}" name="% coverage of the EA - 3 weeks (Fed.)" dataDxfId="198"/>
+    <tableColumn id="48" xr3:uid="{C09DA591-4740-426C-AF75-F084E67D3084}" name="% coverage of the EA - 1 month (Fed.)" dataDxfId="197"/>
+    <tableColumn id="47" xr3:uid="{906C50CF-0DF0-40D0-B6BC-F5A5D74AFD3E}" name="% coverage of the EA - 2 months (Fed.)" dataDxfId="196"/>
+    <tableColumn id="46" xr3:uid="{D8172841-CD5C-4069-862A-AE9848FB36E3}" name="% coverage of the EA - 3 months (Fed.)" dataDxfId="195"/>
+    <tableColumn id="15" xr3:uid="{A408DF94-18DF-4060-B6F8-760D90893B8F}" name="A resource mobilization plan is developed and approved within 2 weeks of the EA" dataDxfId="194"/>
+    <tableColumn id="16" xr3:uid="{4F96289A-DEC3-4958-A9A9-C9E764BF2CC1}" name="IFRC having the green light from the receiving NS to deploy RR 24h after the disaster" dataDxfId="193"/>
+    <tableColumn id="17" xr3:uid="{2B18FA43-9CDB-4C18-A06E-91D4FF717A3A}" name="RR personnel Alert sent within 12h of the request " dataDxfId="192"/>
+    <tableColumn id="18" xr3:uid="{C7BF6113-02D2-4CE9-8119-29B5C19629DE}" name="Identification of 1st rotation RR personnel within 48h of the alert " dataDxfId="191"/>
+    <tableColumn id="19" xr3:uid="{435C0BCB-169D-4BAE-AB0E-AE95D5D252DB}" name="% of female and male out of the RRP deployed -  2 weeks " dataDxfId="190"/>
+    <tableColumn id="54" xr3:uid="{EA82C928-8B8E-4F98-A2E9-1384ED4FEAB2}" name="% of female and male out of the RRP deployed - 1 month " dataDxfId="189"/>
+    <tableColumn id="53" xr3:uid="{843EFA50-DAF5-4CFA-86CC-118C2A008F2D}" name="% of female and male out of the RRP deployed - 2 months" dataDxfId="188"/>
+    <tableColumn id="52" xr3:uid="{C7F08E34-2BB0-4B17-9443-5609139B1237}" name="% of female and male out of the RRP deployed - 3 months" dataDxfId="187"/>
+    <tableColumn id="20" xr3:uid="{6E36B6B7-B3FB-4B89-A370-E3691ED45D90}" name="% of RRP coming within the region of the disaster - 2 weeks " dataDxfId="186"/>
+    <tableColumn id="58" xr3:uid="{1F457CF8-DC24-4FD9-86B2-0F97E0F1BC9E}" name="% of RRP coming within the region of the disaster - 1 Month " dataDxfId="185"/>
+    <tableColumn id="57" xr3:uid="{0D6FF2F0-8081-4694-9939-123E17A044D7}" name="% of RRP coming within the region of the disaster - 2 months " dataDxfId="184"/>
+    <tableColumn id="56" xr3:uid="{DF5E89B5-CEB9-4755-933B-BC4DB5C65310}" name="% of RRP coming within the region of the disaster - 3 months " dataDxfId="183"/>
+    <tableColumn id="21" xr3:uid="{1E8EB7BA-D9D3-4AAD-AC0A-AD6EC64B696C}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 Week " dataDxfId="182"/>
+    <tableColumn id="61" xr3:uid="{58878D62-01A2-41FF-878C-B1E785F9A027}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 Weeks" dataDxfId="181"/>
+    <tableColumn id="60" xr3:uid="{8AD09693-6D78-4FD0-8906-E86F7BEEDE4E}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 month" dataDxfId="180"/>
+    <tableColumn id="62" xr3:uid="{8E9429C5-0D32-4EF3-982C-148BAB76B816}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 months" dataDxfId="179"/>
+    <tableColumn id="59" xr3:uid="{6D90C9BA-E502-4A74-85E0-BBF829A3D971}" name="# of RR deployed arriving in country of operation within 4 days from deployment message  - 3 months" dataDxfId="178"/>
+    <tableColumn id="22" xr3:uid="{1814E2AF-44DC-4071-892C-B927F33D691B}" name="Key initial longer-term positions identified by operational leadership and requested via submission in the HR system, one week after the EA publication" dataDxfId="177"/>
+    <tableColumn id="23" xr3:uid="{F583C92D-A1AD-44E4-8F5B-2D28B8EECED1}" name="Once approved in the HR system and pre-classified JD provided, HR advertises key initial longer-term positions within 48 hours." dataDxfId="176"/>
+    <tableColumn id="24" xr3:uid="{59F1936C-6A92-428F-A3B5-1976614E87B7}" name="Hold a mini summit within 48 h of the disaster" dataDxfId="175"/>
+    <tableColumn id="77" xr3:uid="{9AF74F56-0A9B-4FB8-94E9-B7DC7C6ADA09}" name="The Movement Joint statement is produced 48h after the Mini Summit" dataDxfId="174"/>
     <tableColumn id="25" xr3:uid="{3FDC6096-7ED0-41A9-857C-16903817B646}" name="review/adapt membership coordination for the context for this specific emergency " dataDxfId="173"/>
     <tableColumn id="26" xr3:uid="{B5238923-D05C-4387-9A8C-8B7490C61833}" name="Appropriate membership coordination is in place after 24h of disaster" dataDxfId="172"/>
     <tableColumn id="27" xr3:uid="{804D249C-72D3-4DB8-8FE4-230624B604A6}" name="Supply chain plan developed between logs and ops coordinator within 1 week of the approved EA" dataDxfId="171"/>
@@ -5398,74 +5402,74 @@
     <tableColumn id="1" xr3:uid="{E11E1B90-133E-4BDB-816F-A19490A5DFC8}" name="Ref" dataDxfId="142">
       <calculatedColumnFormula>CONCATENATE("DREF",Table13[[#This Row],[Country]],Table13[[#This Row],[Appeal Code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{FCB47D9A-6070-42F7-B481-2F3293EBD25F}" name="tracker Status" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{43DC3599-C9F2-4FB3-BFBF-FF6D928C04BE}" name="Trigger Date " dataDxfId="141"/>
-    <tableColumn id="3" xr3:uid="{B42BA893-B8F0-47EA-9C65-55A2CD19BE94}" name="Region" dataDxfId="140"/>
-    <tableColumn id="4" xr3:uid="{BB8BA2CB-42DF-4907-8CD1-D7E84B47E232}" name="Country" dataDxfId="139"/>
-    <tableColumn id="49" xr3:uid="{27494AE3-5192-48A6-80B8-3B47D68AE4FF}" name="ISO" dataDxfId="138">
+    <tableColumn id="18" xr3:uid="{FCB47D9A-6070-42F7-B481-2F3293EBD25F}" name="tracker Status" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{43DC3599-C9F2-4FB3-BFBF-FF6D928C04BE}" name="Trigger Date " dataDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{B42BA893-B8F0-47EA-9C65-55A2CD19BE94}" name="Region" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{BB8BA2CB-42DF-4907-8CD1-D7E84B47E232}" name="Country" dataDxfId="138"/>
+    <tableColumn id="49" xr3:uid="{27494AE3-5192-48A6-80B8-3B47D68AE4FF}" name="ISO" dataDxfId="137">
       <calculatedColumnFormula>VLOOKUP(Table13[[#This Row],[Country]],Lists!B1:D217,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{86E07FD7-117B-451D-B13C-2815132BF148}" name="Appeal Code" dataDxfId="137"/>
-    <tableColumn id="6" xr3:uid="{B35C0A66-C031-443F-961C-F7B5ABDAAE54}" name="Appeal Name " dataDxfId="136"/>
-    <tableColumn id="7" xr3:uid="{1EFF0AD6-1DF4-4834-A14E-A564AB6EDB2B}" name="Disaster Type " dataDxfId="135"/>
-    <tableColumn id="8" xr3:uid="{FB880FD2-A21C-4DD7-BABD-6D635EC8D386}" name="Classification " dataDxfId="134"/>
-    <tableColumn id="9" xr3:uid="{D98DB8E3-9746-4B81-A875-9799C42BE094}" name="EWTS Varient " dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{344F86FC-F9C4-4330-B5B6-9B3B61F79175}" name="Initial needs assessments completed within 72 hours​ of the event." dataDxfId="132"/>
-    <tableColumn id="11" xr3:uid="{B4A1FDCD-BA91-4CB0-B505-2B4DB7B22249}" name="Risk management one pager using country risk the dashboard developed within 48h after the approval" dataDxfId="131"/>
-    <tableColumn id="12" xr3:uid="{2E69013F-8646-4E6E-B3BA-33BBE7A5E3EB}" name="Project manager and appeal manager responsibilities one pager is shared with approval (max 14 days after trigger)" dataDxfId="130"/>
-    <tableColumn id="13" xr3:uid="{CD52430F-F8C8-4396-8EC5-B9770E18B78E}" name="DREF approved within 10 days of the trigger. 14 if the NS has started responding." dataDxfId="129"/>
-    <tableColumn id="14" xr3:uid="{D77206F9-73DE-462C-AB4E-EF7AF44FFB66}" name="Approval by the DREF appeal manager within 24h of receiving the final package" dataDxfId="128"/>
-    <tableColumn id="15" xr3:uid="{81B80D9B-6DA6-4F5A-A5E0-FFC25AE991CE}" name="IFRC having the green light from the receiving NS to deploy RR 24h after the disaster (if relevant)" dataDxfId="127"/>
-    <tableColumn id="16" xr3:uid="{9F8EC316-26C8-48AC-8CC1-AE808849FF5A}" name="RR personnel Alert sent within 12h of the request " dataDxfId="126"/>
-    <tableColumn id="17" xr3:uid="{42FDF1E8-48BB-467F-836F-FDDEEE8AACE3}" name="Identification of 1st rotation RR personnel within 48h of the alert " dataDxfId="125"/>
-    <tableColumn id="41" xr3:uid="{473AA5D1-74B3-40E6-B850-E724419DE9A5}" name="% of female and male out of the RRP deployed -  2 weeks " dataDxfId="124"/>
-    <tableColumn id="40" xr3:uid="{F619B04D-6EDE-41A5-9954-8CA778C8D705}" name="% of female and male out of the RRP deployed - 1 month " dataDxfId="123"/>
-    <tableColumn id="39" xr3:uid="{55DDCBFF-4FC4-49D4-95E2-1CE5E41D3DA3}" name="% of female and male out of the RRP deployed - 2 months" dataDxfId="122"/>
-    <tableColumn id="38" xr3:uid="{0E858EAE-7E30-48C4-93BF-4B7ABB6C6F7D}" name="% of female and male out of the RRP deployed - 3 months" dataDxfId="121"/>
-    <tableColumn id="37" xr3:uid="{6E6A6C33-042B-48EF-8AC2-70AA5F4698C4}" name="% of RRP coming within the region of the disaster - 2 weeks " dataDxfId="120"/>
-    <tableColumn id="36" xr3:uid="{EF6C8F51-F429-44BF-9EBD-9FBC48FA9207}" name="% of RRP coming within the region of the disaster - 1 Month " dataDxfId="119"/>
-    <tableColumn id="35" xr3:uid="{3C8C5247-E551-48D0-B6DE-D73EB0019058}" name="% of RRP coming within the region of the disaster - 2 months " dataDxfId="118"/>
-    <tableColumn id="34" xr3:uid="{6EBD97FE-E254-436A-8008-2D2C39764EA2}" name="% of RRP coming within the region of the disaster - 3 months " dataDxfId="117"/>
-    <tableColumn id="45" xr3:uid="{633BA92F-809A-483E-BC9E-1EB4FC43F89F}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 Week " dataDxfId="116"/>
-    <tableColumn id="44" xr3:uid="{5A278D3A-5B55-4915-A5A2-426B5A2C5034}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 Weeks" dataDxfId="115"/>
-    <tableColumn id="43" xr3:uid="{4B5B2341-F7FA-49C2-8F43-845758DE9179}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 month" dataDxfId="114"/>
-    <tableColumn id="42" xr3:uid="{58895408-6F08-45E5-89BB-3942D262E626}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 months" dataDxfId="113"/>
-    <tableColumn id="33" xr3:uid="{3E66ABBE-81BB-44D3-A519-F330F8E437C6}" name="# of RR deployed arriving in country of operation within 4 days from deployment message  - 3 months" dataDxfId="112"/>
-    <tableColumn id="21" xr3:uid="{E61178E6-E432-474E-9714-74B06FD4D105}" name="Supply chain plan developed within 1 week of DREF approval" dataDxfId="111"/>
-    <tableColumn id="22" xr3:uid="{4238777E-6A65-4C89-8493-EF37FC512936}" name="NFI (or emergencies items) being delivered to the country in 3 days since the Requistion" dataDxfId="110"/>
-    <tableColumn id="23" xr3:uid="{5C3214B5-43B5-4988-AA82-76E2786B77F4}" name="Project funding agreements (PFAs) signed by the NS and the IFRC no longer than 7 days from the DREF approval" dataDxfId="109"/>
-    <tableColumn id="24" xr3:uid="{6444E6CB-5D9C-4263-BA9C-064B005A0952}" name="After PFA is signed by both parties, HoD/project manager to process the Request for Payment to be sent to Treasury within 10 days of DREF approval" dataDxfId="108"/>
-    <tableColumn id="25" xr3:uid="{D16CBAA7-1E33-4BA0-8DC0-E619346551B0}" name="Bank transfer process by IFRC to the NS within 24h after the request for payment is received/approved" dataDxfId="107"/>
-    <tableColumn id="26" xr3:uid="{E131F2FB-8D94-4094-9359-CEA92E8EA926}" name="Confirmation from the NSs of the funds received to be obtained within 3 working days from the value date of the transfer" dataDxfId="106"/>
-    <tableColumn id="27" xr3:uid="{A247FC75-894A-4DE8-AAFE-B5C6B90BAE4F}" name="First round of payment received to the target beneficiaries four weeks after the DREF approval - 1 Month (Date)" dataDxfId="105"/>
-    <tableColumn id="47" xr3:uid="{49661E78-1363-4960-96A7-8F5DD72DEE35}" name="First round of payment received to the target beneficiaries four weeks after the DREF approval l - 2 Months (%)" dataDxfId="104"/>
-    <tableColumn id="46" xr3:uid="{E76A1E8E-6F62-4420-89F0-FA8D4374EA1A}" name="First round of payment received to the target beneficiaries four weeks after the DREF approval - 3 Month (%)" dataDxfId="103"/>
-    <tableColumn id="28" xr3:uid="{A7CC34AE-BB39-492E-A154-A03173797730}" name="% of targeted population receiving assistance - 2 weeks " dataDxfId="102"/>
-    <tableColumn id="51" xr3:uid="{DD24F071-5C20-4813-8B8F-33E4D0235D5A}" name="% of targeted population receiving assistance - 1 Month " dataDxfId="101"/>
-    <tableColumn id="50" xr3:uid="{AF87017F-20A6-4A82-822B-D518771C26EB}" name="% of targeted population receiving assistance - 2 Months " dataDxfId="100"/>
-    <tableColumn id="48" xr3:uid="{82A9EFF6-1F4A-45CE-AA32-5BCD59BFC1AC}" name="% of targeted population receiving assistance - 3 months" dataDxfId="99"/>
-    <tableColumn id="29" xr3:uid="{04ED2693-B711-4747-AB32-A7A2CEBB4BEC}" name="EHI distributed to targetted population on time - 1 month " dataDxfId="98"/>
-    <tableColumn id="53" xr3:uid="{4701170F-ECC0-4A64-9D70-F48F9AFB4743}" name="EHI distributed to targetted population on time - 2 months " dataDxfId="97"/>
-    <tableColumn id="52" xr3:uid="{DCB65B12-2BE9-40D2-A4B7-9B3297279867}" name="EHI distributed to targetted population on time - 3 months " dataDxfId="96"/>
-    <tableColumn id="30" xr3:uid="{A1A58D86-3ECF-4B65-85BD-680EF7E1C9BE}" name=" Implementation rate: 30% after 1 month " dataDxfId="95"/>
-    <tableColumn id="56" xr3:uid="{A1FFF633-00E9-41A1-B5E8-16502E4F2103}" name=" Implementation rate: " dataDxfId="94"/>
-    <tableColumn id="55" xr3:uid="{0BE13385-DFC0-4FE7-A97F-C41C72F6B9B8}" name=" Implementation rate: 2" dataDxfId="93"/>
-    <tableColumn id="31" xr3:uid="{B50EEFAE-10CC-4413-90A0-8006004A6495}" name="Operation is MSR (v.2021) compliant" dataDxfId="92"/>
-    <tableColumn id="32" xr3:uid="{B0E34FA6-7974-4061-B5F7-4656EB248C67}" name="If the country is not MSR, enough resource (HR/ Funds) have been allocated to operate in a Red/ orange security phase areas" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{86E07FD7-117B-451D-B13C-2815132BF148}" name="Appeal Code" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{B35C0A66-C031-443F-961C-F7B5ABDAAE54}" name="Appeal Name " dataDxfId="135"/>
+    <tableColumn id="7" xr3:uid="{1EFF0AD6-1DF4-4834-A14E-A564AB6EDB2B}" name="Disaster Type " dataDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{FB880FD2-A21C-4DD7-BABD-6D635EC8D386}" name="Classification " dataDxfId="133"/>
+    <tableColumn id="9" xr3:uid="{D98DB8E3-9746-4B81-A875-9799C42BE094}" name="EWTS Varient " dataDxfId="132"/>
+    <tableColumn id="10" xr3:uid="{344F86FC-F9C4-4330-B5B6-9B3B61F79175}" name="Initial needs assessments completed within 72 hours​ of the event." dataDxfId="131"/>
+    <tableColumn id="11" xr3:uid="{B4A1FDCD-BA91-4CB0-B505-2B4DB7B22249}" name="Risk management one pager using country risk the dashboard developed within 48h after the approval" dataDxfId="130"/>
+    <tableColumn id="12" xr3:uid="{2E69013F-8646-4E6E-B3BA-33BBE7A5E3EB}" name="Project manager and appeal manager responsibilities one pager is shared with approval (max 14 days after trigger)" dataDxfId="129"/>
+    <tableColumn id="13" xr3:uid="{CD52430F-F8C8-4396-8EC5-B9770E18B78E}" name="DREF approved within 10 days of the trigger. 14 if the NS has started responding." dataDxfId="128"/>
+    <tableColumn id="14" xr3:uid="{D77206F9-73DE-462C-AB4E-EF7AF44FFB66}" name="Approval by the DREF appeal manager within 24h of receiving the final package" dataDxfId="127"/>
+    <tableColumn id="15" xr3:uid="{81B80D9B-6DA6-4F5A-A5E0-FFC25AE991CE}" name="IFRC having the green light from the receiving NS to deploy RR 24h after the disaster (if relevant)" dataDxfId="126"/>
+    <tableColumn id="16" xr3:uid="{9F8EC316-26C8-48AC-8CC1-AE808849FF5A}" name="RR personnel Alert sent within 12h of the request " dataDxfId="125"/>
+    <tableColumn id="17" xr3:uid="{42FDF1E8-48BB-467F-836F-FDDEEE8AACE3}" name="Identification of 1st rotation RR personnel within 48h of the alert " dataDxfId="124"/>
+    <tableColumn id="41" xr3:uid="{473AA5D1-74B3-40E6-B850-E724419DE9A5}" name="% of female and male out of the RRP deployed -  2 weeks " dataDxfId="123"/>
+    <tableColumn id="40" xr3:uid="{F619B04D-6EDE-41A5-9954-8CA778C8D705}" name="% of female and male out of the RRP deployed - 1 month " dataDxfId="122"/>
+    <tableColumn id="39" xr3:uid="{55DDCBFF-4FC4-49D4-95E2-1CE5E41D3DA3}" name="% of female and male out of the RRP deployed - 2 months" dataDxfId="121"/>
+    <tableColumn id="38" xr3:uid="{0E858EAE-7E30-48C4-93BF-4B7ABB6C6F7D}" name="% of female and male out of the RRP deployed - 3 months" dataDxfId="120"/>
+    <tableColumn id="37" xr3:uid="{6E6A6C33-042B-48EF-8AC2-70AA5F4698C4}" name="% of RRP coming within the region of the disaster - 2 weeks " dataDxfId="119"/>
+    <tableColumn id="36" xr3:uid="{EF6C8F51-F429-44BF-9EBD-9FBC48FA9207}" name="% of RRP coming within the region of the disaster - 1 Month " dataDxfId="118"/>
+    <tableColumn id="35" xr3:uid="{3C8C5247-E551-48D0-B6DE-D73EB0019058}" name="% of RRP coming within the region of the disaster - 2 months " dataDxfId="117"/>
+    <tableColumn id="34" xr3:uid="{6EBD97FE-E254-436A-8008-2D2C39764EA2}" name="% of RRP coming within the region of the disaster - 3 months " dataDxfId="116"/>
+    <tableColumn id="45" xr3:uid="{633BA92F-809A-483E-BC9E-1EB4FC43F89F}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 Week " dataDxfId="115"/>
+    <tableColumn id="44" xr3:uid="{5A278D3A-5B55-4915-A5A2-426B5A2C5034}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 Weeks" dataDxfId="114"/>
+    <tableColumn id="43" xr3:uid="{4B5B2341-F7FA-49C2-8F43-845758DE9179}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 month" dataDxfId="113"/>
+    <tableColumn id="42" xr3:uid="{58895408-6F08-45E5-89BB-3942D262E626}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 months" dataDxfId="112"/>
+    <tableColumn id="33" xr3:uid="{3E66ABBE-81BB-44D3-A519-F330F8E437C6}" name="# of RR deployed arriving in country of operation within 4 days from deployment message  - 3 months" dataDxfId="111"/>
+    <tableColumn id="21" xr3:uid="{E61178E6-E432-474E-9714-74B06FD4D105}" name="Supply chain plan developed within 1 week of DREF approval" dataDxfId="110"/>
+    <tableColumn id="22" xr3:uid="{4238777E-6A65-4C89-8493-EF37FC512936}" name="NFI (or emergencies items) being delivered to the country in 3 days since the Requistion" dataDxfId="109"/>
+    <tableColumn id="23" xr3:uid="{5C3214B5-43B5-4988-AA82-76E2786B77F4}" name="Project funding agreements (PFAs) signed by the NS and the IFRC no longer than 7 days from the DREF approval" dataDxfId="108"/>
+    <tableColumn id="24" xr3:uid="{6444E6CB-5D9C-4263-BA9C-064B005A0952}" name="After PFA is signed by both parties, HoD/project manager to process the Request for Payment to be sent to Treasury within 10 days of DREF approval" dataDxfId="107"/>
+    <tableColumn id="25" xr3:uid="{D16CBAA7-1E33-4BA0-8DC0-E619346551B0}" name="Bank transfer process by IFRC to the NS within 24h after the request for payment is received/approved" dataDxfId="106"/>
+    <tableColumn id="26" xr3:uid="{E131F2FB-8D94-4094-9359-CEA92E8EA926}" name="Confirmation from the NSs of the funds received to be obtained within 3 working days from the value date of the transfer" dataDxfId="105"/>
+    <tableColumn id="27" xr3:uid="{A247FC75-894A-4DE8-AAFE-B5C6B90BAE4F}" name="First round of payment received to the target beneficiaries four weeks after the DREF approval - 1 Month (Date)" dataDxfId="104"/>
+    <tableColumn id="47" xr3:uid="{49661E78-1363-4960-96A7-8F5DD72DEE35}" name="First round of payment received to the target beneficiaries four weeks after the DREF approval l - 2 Months (%)" dataDxfId="103"/>
+    <tableColumn id="46" xr3:uid="{E76A1E8E-6F62-4420-89F0-FA8D4374EA1A}" name="First round of payment received to the target beneficiaries four weeks after the DREF approval - 3 Month (%)" dataDxfId="102"/>
+    <tableColumn id="28" xr3:uid="{A7CC34AE-BB39-492E-A154-A03173797730}" name="% of targeted population receiving assistance - 2 weeks " dataDxfId="101"/>
+    <tableColumn id="51" xr3:uid="{DD24F071-5C20-4813-8B8F-33E4D0235D5A}" name="% of targeted population receiving assistance - 1 Month " dataDxfId="100"/>
+    <tableColumn id="50" xr3:uid="{AF87017F-20A6-4A82-822B-D518771C26EB}" name="% of targeted population receiving assistance - 2 Months " dataDxfId="99"/>
+    <tableColumn id="48" xr3:uid="{82A9EFF6-1F4A-45CE-AA32-5BCD59BFC1AC}" name="% of targeted population receiving assistance - 3 months" dataDxfId="98"/>
+    <tableColumn id="29" xr3:uid="{04ED2693-B711-4747-AB32-A7A2CEBB4BEC}" name="EHI distributed to targetted population on time - 1 month " dataDxfId="97"/>
+    <tableColumn id="53" xr3:uid="{4701170F-ECC0-4A64-9D70-F48F9AFB4743}" name="EHI distributed to targetted population on time - 2 months " dataDxfId="96"/>
+    <tableColumn id="52" xr3:uid="{DCB65B12-2BE9-40D2-A4B7-9B3297279867}" name="EHI distributed to targetted population on time - 3 months " dataDxfId="95"/>
+    <tableColumn id="30" xr3:uid="{A1A58D86-3ECF-4B65-85BD-680EF7E1C9BE}" name=" Implementation rate: 30% after 1 month " dataDxfId="94"/>
+    <tableColumn id="56" xr3:uid="{A1FFF633-00E9-41A1-B5E8-16502E4F2103}" name=" Implementation rate: " dataDxfId="93"/>
+    <tableColumn id="55" xr3:uid="{0BE13385-DFC0-4FE7-A97F-C41C72F6B9B8}" name=" Implementation rate: 2" dataDxfId="92"/>
+    <tableColumn id="31" xr3:uid="{B50EEFAE-10CC-4413-90A0-8006004A6495}" name="Operation is MSR (v.2021) compliant" dataDxfId="91"/>
+    <tableColumn id="32" xr3:uid="{B0E34FA6-7974-4061-B5F7-4656EB248C67}" name="If the country is not MSR, enough resource (HR/ Funds) have been allocated to operate in a Red/ orange security phase areas" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4D23DB93-CF37-497D-9C8C-E7C6BE0B006C}" name="Table14" displayName="Table14" ref="A1:AT4" totalsRowShown="0" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4D23DB93-CF37-497D-9C8C-E7C6BE0B006C}" name="Table14" displayName="Table14" ref="A1:AT4" totalsRowShown="0" tableBorderDxfId="89">
   <autoFilter ref="A1:AT4" xr:uid="{4D23DB93-CF37-497D-9C8C-E7C6BE0B006C}"/>
   <tableColumns count="46">
     <tableColumn id="1" xr3:uid="{CAE59280-DE78-4A04-B351-EE30BDB8853A}" name="Ref">
       <calculatedColumnFormula>CONCATENATE("MCMR",Table14[[#This Row],[Country]],Table14[[#This Row],[Appeal Code]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{B363AFDF-56F2-429F-BC2B-87B3DAD2C025}" name="tracker Status"/>
-    <tableColumn id="2" xr3:uid="{18DB6B13-4574-428F-AD9E-12B3F2AEC7D3}" name=" Disaster Escalation Date " dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{18DB6B13-4574-428F-AD9E-12B3F2AEC7D3}" name=" Disaster Escalation Date " dataDxfId="88"/>
     <tableColumn id="3" xr3:uid="{1D85E724-ABF7-404B-94AA-19C35A2CB14F}" name="Region"/>
     <tableColumn id="4" xr3:uid="{82445D9B-4909-4C8B-8E94-77F308113559}" name="Country"/>
     <tableColumn id="49" xr3:uid="{D23DFDB0-94EA-458E-9EF6-7615AF33EAE9}" name="ISO">
@@ -5476,55 +5480,55 @@
     <tableColumn id="7" xr3:uid="{355542E4-7D3D-4238-BBED-1A3825E46962}" name="Disaster Type "/>
     <tableColumn id="8" xr3:uid="{6A6D33FE-70FD-43D7-84B2-FAF741F07668}" name="Classification "/>
     <tableColumn id="9" xr3:uid="{DC369E3C-F1D4-44EE-978F-90BD152EF9AE}" name="EWTS Varient "/>
-    <tableColumn id="10" xr3:uid="{F3E2FE13-A930-4BF5-8D06-2A78C5BC5E45}" name="Disaster Brief done for the  Management Call to inform the FAD between 48-72 h" dataDxfId="88"/>
-    <tableColumn id="11" xr3:uid="{C465429F-870D-459B-A25D-588DC6AA311A}" name="EA is launched within 24 hours after the FAD has been approved (or within 48 hours after field report was published). " dataDxfId="87"/>
-    <tableColumn id="12" xr3:uid="{E9809FFE-7E71-451F-9843-8D5E5AA827DF}" name="Operational Strategy validated 12 days after the EA " dataDxfId="86"/>
-    <tableColumn id="13" xr3:uid="{D24CFAFF-3F70-491F-99D5-6835CB97D37F}" name="% (Total Fed and Sec) coverage of the EA - 10 days " dataDxfId="85"/>
-    <tableColumn id="34" xr3:uid="{41848610-67C8-4323-8DCC-C380A8749434}" name="% (Total Fed and Sec)coverage of the EA - 2 weeks" dataDxfId="84"/>
-    <tableColumn id="33" xr3:uid="{7200EFEA-9025-4475-95E9-DC4BC8BBBDF7}" name="% (Total Fed and Sec)coverage of the EA - 3 weeks" dataDxfId="83"/>
-    <tableColumn id="32" xr3:uid="{9AB95A7E-ADDC-469B-A35A-742DF9C1A56F}" name="% (Total Fed and Sec)coverage of the EA - 1 month" dataDxfId="82"/>
-    <tableColumn id="31" xr3:uid="{7712441B-2A46-4949-8BD1-5CF972733473}" name="% (Total Fed and Sec)coverage of the EA - 2 months" dataDxfId="81"/>
-    <tableColumn id="14" xr3:uid="{0C0C803D-82BE-4220-9F31-4ED4D76053CF}" name="% (Total Fed and Sec)coverage of the EA - 3 months" dataDxfId="80"/>
-    <tableColumn id="15" xr3:uid="{C8E7B850-7AF4-4B9E-90A2-4D3901B3E593}" name="Regional RR personnel Alert sent within 12h of the request " dataDxfId="79"/>
-    <tableColumn id="16" xr3:uid="{E6C76F17-6FD3-4AD8-983D-6A85019AA7D7}" name="Identification of 1st rotation RR personnel within 48h of the alert " dataDxfId="78"/>
-    <tableColumn id="46" xr3:uid="{F86C2AE2-514D-4C06-8F27-895462B1BA82}" name="% of female and male out of the RRP deployed -  2 weeks " dataDxfId="77"/>
-    <tableColumn id="45" xr3:uid="{9F724520-54C3-42B5-AD8E-FB743F850EA3}" name="% of female and male out of the RRP deployed - 1 month " dataDxfId="76"/>
-    <tableColumn id="44" xr3:uid="{D5FA7F45-17BB-4163-B207-91DAC429B81C}" name="% of female and male out of the RRP deployed - 2 months" dataDxfId="75"/>
-    <tableColumn id="43" xr3:uid="{49591EBD-C993-42D7-918E-F294DF216274}" name="% of female and male out of the RRP deployed - 3 months" dataDxfId="74"/>
-    <tableColumn id="42" xr3:uid="{89F5EC99-43FB-4D57-861A-6A4E18F87BB4}" name="% of RRP coming within the region of the disaster - 2 weeks " dataDxfId="73"/>
-    <tableColumn id="41" xr3:uid="{47808147-DDF5-44AE-A916-CCD8A27E39BD}" name="% of RRP coming within the region of the disaster - 1 Month " dataDxfId="72"/>
-    <tableColumn id="40" xr3:uid="{1E74389C-EDAD-415A-9BAF-99CC58A3AD83}" name="% of RRP coming within the region of the disaster - 2 months " dataDxfId="71"/>
-    <tableColumn id="39" xr3:uid="{44CE4894-FB2F-4964-A675-B61CC259DB75}" name="% of RRP coming within the region of the disaster - 3 months " dataDxfId="70"/>
-    <tableColumn id="38" xr3:uid="{6282A476-2C7B-4296-9D14-97E7C949C0A2}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 Week " dataDxfId="69"/>
-    <tableColumn id="37" xr3:uid="{2D58CCB9-D486-4819-9E8D-1A6B899A1E00}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 Weeks" dataDxfId="68"/>
-    <tableColumn id="36" xr3:uid="{687E9545-FEED-4985-80DE-E260A41B34BB}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 month" dataDxfId="67"/>
-    <tableColumn id="35" xr3:uid="{60E9F86B-7CB1-4B0D-8A04-BE9219F96849}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 months" dataDxfId="66"/>
-    <tableColumn id="17" xr3:uid="{41BE6C71-B260-48F4-AC2E-2FE07A7E7ECC}" name="# of RR deployed arriving in country of operation within 4 days from deployment message  - 3 months" dataDxfId="65"/>
-    <tableColumn id="20" xr3:uid="{46DD71EB-76BC-438F-920F-D8FD7ACEDF18}" name="Key initial longer-term positions (for the Regional/multi country level) identified by operational leadership and requested via submission in the HR system, one week after the EA publication" dataDxfId="64"/>
-    <tableColumn id="21" xr3:uid="{4FEB823F-5F6D-454C-B23C-22DCDAF5AC27}" name="Once approved in the HR system and pre-classified JD provided, HR advertises key initial longer-term positions within 48 hours." dataDxfId="63"/>
-    <tableColumn id="22" xr3:uid="{4F254A06-D008-4A1C-BFB3-08BF4FD889A0}" name="Establish a Multi country coordination mechanimsms with the membership for the crisis (24 hours since escalation date)" dataDxfId="62"/>
-    <tableColumn id="23" xr3:uid="{BEF9D46E-6D40-4C46-A844-420ED1575080}" name="Supply chain plan developed for the regional needs between logs and ops  within 1 week of the approved EA" dataDxfId="61"/>
-    <tableColumn id="24" xr3:uid="{1ACE6DF5-6A33-4351-A1D9-77B7E6963137}" name="Fully approved and submitted multi country requisitions for NFIs within 1 week of the EA (when relevant) " dataDxfId="60"/>
-    <tableColumn id="25" xr3:uid="{F842B621-5F9B-41BE-8A70-CECA1C5DD903}" name="NFI (or emergencies items) being delivered to the country in 3 days since the Requistion" dataDxfId="59"/>
-    <tableColumn id="26" xr3:uid="{09E93F95-C1D8-44E3-8F2C-49C283E84A2F}" name="A multi country dashboard is in place and updated timely to display the situation and the activities being implemented" dataDxfId="58"/>
-    <tableColumn id="27" xr3:uid="{95E25C16-9284-450B-8A67-E997A8E9DD1B}" name="A breakdown of the Financial allocation per country is made within 5 days of the approval of the EA" dataDxfId="57"/>
-    <tableColumn id="28" xr3:uid="{41353656-C773-4E51-8288-F7A20567BA30}" name="Transferts to NS &amp; IFRC Sec. Structure are made within 5 days of the allocation table" dataDxfId="56"/>
-    <tableColumn id="29" xr3:uid="{59D9CC14-DA2B-41A0-B810-42677BB3C06B}" name="Cumulated % of targeted population receiving assistance " dataDxfId="55"/>
-    <tableColumn id="30" xr3:uid="{FC1577D4-F2FB-4F8F-BCBA-A5B35F0758C5}" name="Cumulated % implementation rate of available budget" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{F3E2FE13-A930-4BF5-8D06-2A78C5BC5E45}" name="Disaster Brief done for the  Management Call to inform the FAD between 48-72 h" dataDxfId="87"/>
+    <tableColumn id="11" xr3:uid="{C465429F-870D-459B-A25D-588DC6AA311A}" name="EA is launched within 24 hours after the FAD has been approved (or within 48 hours after field report was published). " dataDxfId="86"/>
+    <tableColumn id="12" xr3:uid="{E9809FFE-7E71-451F-9843-8D5E5AA827DF}" name="Operational Strategy validated 12 days after the EA " dataDxfId="85"/>
+    <tableColumn id="13" xr3:uid="{D24CFAFF-3F70-491F-99D5-6835CB97D37F}" name="% (Total Fed and Sec) coverage of the EA - 10 days " dataDxfId="84"/>
+    <tableColumn id="34" xr3:uid="{41848610-67C8-4323-8DCC-C380A8749434}" name="% (Total Fed and Sec)coverage of the EA - 2 weeks" dataDxfId="83"/>
+    <tableColumn id="33" xr3:uid="{7200EFEA-9025-4475-95E9-DC4BC8BBBDF7}" name="% (Total Fed and Sec)coverage of the EA - 3 weeks" dataDxfId="82"/>
+    <tableColumn id="32" xr3:uid="{9AB95A7E-ADDC-469B-A35A-742DF9C1A56F}" name="% (Total Fed and Sec)coverage of the EA - 1 month" dataDxfId="81"/>
+    <tableColumn id="31" xr3:uid="{7712441B-2A46-4949-8BD1-5CF972733473}" name="% (Total Fed and Sec)coverage of the EA - 2 months" dataDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{0C0C803D-82BE-4220-9F31-4ED4D76053CF}" name="% (Total Fed and Sec)coverage of the EA - 3 months" dataDxfId="79"/>
+    <tableColumn id="15" xr3:uid="{C8E7B850-7AF4-4B9E-90A2-4D3901B3E593}" name="Regional RR personnel Alert sent within 12h of the request " dataDxfId="78"/>
+    <tableColumn id="16" xr3:uid="{E6C76F17-6FD3-4AD8-983D-6A85019AA7D7}" name="Identification of 1st rotation RR personnel within 48h of the alert " dataDxfId="77"/>
+    <tableColumn id="46" xr3:uid="{F86C2AE2-514D-4C06-8F27-895462B1BA82}" name="% of female and male out of the RRP deployed -  2 weeks " dataDxfId="76"/>
+    <tableColumn id="45" xr3:uid="{9F724520-54C3-42B5-AD8E-FB743F850EA3}" name="% of female and male out of the RRP deployed - 1 month " dataDxfId="75"/>
+    <tableColumn id="44" xr3:uid="{D5FA7F45-17BB-4163-B207-91DAC429B81C}" name="% of female and male out of the RRP deployed - 2 months" dataDxfId="74"/>
+    <tableColumn id="43" xr3:uid="{49591EBD-C993-42D7-918E-F294DF216274}" name="% of female and male out of the RRP deployed - 3 months" dataDxfId="73"/>
+    <tableColumn id="42" xr3:uid="{89F5EC99-43FB-4D57-861A-6A4E18F87BB4}" name="% of RRP coming within the region of the disaster - 2 weeks " dataDxfId="72"/>
+    <tableColumn id="41" xr3:uid="{47808147-DDF5-44AE-A916-CCD8A27E39BD}" name="% of RRP coming within the region of the disaster - 1 Month " dataDxfId="71"/>
+    <tableColumn id="40" xr3:uid="{1E74389C-EDAD-415A-9BAF-99CC58A3AD83}" name="% of RRP coming within the region of the disaster - 2 months " dataDxfId="70"/>
+    <tableColumn id="39" xr3:uid="{44CE4894-FB2F-4964-A675-B61CC259DB75}" name="% of RRP coming within the region of the disaster - 3 months " dataDxfId="69"/>
+    <tableColumn id="38" xr3:uid="{6282A476-2C7B-4296-9D14-97E7C949C0A2}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 Week " dataDxfId="68"/>
+    <tableColumn id="37" xr3:uid="{2D58CCB9-D486-4819-9E8D-1A6B899A1E00}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 Weeks" dataDxfId="67"/>
+    <tableColumn id="36" xr3:uid="{687E9545-FEED-4985-80DE-E260A41B34BB}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 month" dataDxfId="66"/>
+    <tableColumn id="35" xr3:uid="{60E9F86B-7CB1-4B0D-8A04-BE9219F96849}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 months" dataDxfId="65"/>
+    <tableColumn id="17" xr3:uid="{41BE6C71-B260-48F4-AC2E-2FE07A7E7ECC}" name="# of RR deployed arriving in country of operation within 4 days from deployment message  - 3 months" dataDxfId="64"/>
+    <tableColumn id="20" xr3:uid="{46DD71EB-76BC-438F-920F-D8FD7ACEDF18}" name="Key initial longer-term positions (for the Regional/multi country level) identified by operational leadership and requested via submission in the HR system, one week after the EA publication" dataDxfId="63"/>
+    <tableColumn id="21" xr3:uid="{4FEB823F-5F6D-454C-B23C-22DCDAF5AC27}" name="Once approved in the HR system and pre-classified JD provided, HR advertises key initial longer-term positions within 48 hours." dataDxfId="62"/>
+    <tableColumn id="22" xr3:uid="{4F254A06-D008-4A1C-BFB3-08BF4FD889A0}" name="Establish a Multi country coordination mechanimsms with the membership for the crisis (24 hours since escalation date)" dataDxfId="61"/>
+    <tableColumn id="23" xr3:uid="{BEF9D46E-6D40-4C46-A844-420ED1575080}" name="Supply chain plan developed for the regional needs between logs and ops  within 1 week of the approved EA" dataDxfId="60"/>
+    <tableColumn id="24" xr3:uid="{1ACE6DF5-6A33-4351-A1D9-77B7E6963137}" name="Fully approved and submitted multi country requisitions for NFIs within 1 week of the EA (when relevant) " dataDxfId="59"/>
+    <tableColumn id="25" xr3:uid="{F842B621-5F9B-41BE-8A70-CECA1C5DD903}" name="NFI (or emergencies items) being delivered to the country in 3 days since the Requistion" dataDxfId="58"/>
+    <tableColumn id="26" xr3:uid="{09E93F95-C1D8-44E3-8F2C-49C283E84A2F}" name="A multi country dashboard is in place and updated timely to display the situation and the activities being implemented" dataDxfId="57"/>
+    <tableColumn id="27" xr3:uid="{95E25C16-9284-450B-8A67-E997A8E9DD1B}" name="A breakdown of the Financial allocation per country is made within 5 days of the approval of the EA" dataDxfId="56"/>
+    <tableColumn id="28" xr3:uid="{41353656-C773-4E51-8288-F7A20567BA30}" name="Transferts to NS &amp; IFRC Sec. Structure are made within 5 days of the allocation table" dataDxfId="55"/>
+    <tableColumn id="29" xr3:uid="{59D9CC14-DA2B-41A0-B810-42677BB3C06B}" name="Cumulated % of targeted population receiving assistance " dataDxfId="54"/>
+    <tableColumn id="30" xr3:uid="{FC1577D4-F2FB-4F8F-BCBA-A5B35F0758C5}" name="Cumulated % implementation rate of available budget" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B5CD156C-9DDD-48C9-A196-C67B1A015773}" name="Table15" displayName="Table15" ref="A1:BJ3" totalsRowShown="0" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B5CD156C-9DDD-48C9-A196-C67B1A015773}" name="Table15" displayName="Table15" ref="A1:BJ3" totalsRowShown="0" tableBorderDxfId="52">
   <autoFilter ref="A1:BJ3" xr:uid="{B5CD156C-9DDD-48C9-A196-C67B1A015773}"/>
   <tableColumns count="62">
     <tableColumn id="1" xr3:uid="{52ADBC92-E29C-4648-8E6D-A0737C6C4BBC}" name="Ref">
       <calculatedColumnFormula>CONCATENATE("PCCE",Table15[[#This Row],[Country]],Table15[[#This Row],[Appeal Code]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="62" xr3:uid="{A51AB1D6-DA68-4943-9498-1B19295BA810}" name="tracker Status"/>
-    <tableColumn id="2" xr3:uid="{30BF32FF-A69A-4005-AADB-919BEC62B28B}" name="Escalation date" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{30BF32FF-A69A-4005-AADB-919BEC62B28B}" name="Escalation date" dataDxfId="51"/>
     <tableColumn id="3" xr3:uid="{1896874A-2113-4796-95C3-4AEA281AE483}" name="Region"/>
     <tableColumn id="4" xr3:uid="{4CBFC5C5-909C-4812-A68F-3A7478D9066C}" name="Country"/>
     <tableColumn id="49" xr3:uid="{F3115F9C-A295-4B8F-B352-90FD074D0F2B}" name="ISO">
@@ -5535,67 +5539,67 @@
     <tableColumn id="7" xr3:uid="{91ACD6F3-35FE-4C14-9AA6-164FB48C7785}" name="Disaster Type "/>
     <tableColumn id="8" xr3:uid="{3C0770BE-5D76-447D-B291-DA4E250275C1}" name="Classification "/>
     <tableColumn id="9" xr3:uid="{E3F1EDA7-6246-4DC0-B8AC-B51D339AE778}" name="EWTS Varient "/>
-    <tableColumn id="10" xr3:uid="{D895FEC7-B779-43C5-9E45-749B0030C2EA}" name="Needs assessments of triggers to identify the need for an EA. (before EA launch)" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{5B283F17-0366-4A0E-8AF1-AC6EB684A82C}" name="Disaster Brief done for the  Management Call to inform the FAD between 48-72 " dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{43FD35F4-F4DC-4884-A328-E9EB9C63E245}" name="EA is launched within 24 hours after the FAD has been approved (or within 48 hours after field report was published). " dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{3F3B7BAA-4977-4352-9B40-5F960C47446D}" name="Operational Strategy validated 10 to 14  days after the EA " dataDxfId="48"/>
-    <tableColumn id="45" xr3:uid="{0FBE36EB-AD1C-45F9-B402-CE6E7CA30662}" name="% coverage of the EA - 10 days " dataDxfId="47"/>
-    <tableColumn id="44" xr3:uid="{FC539DA9-CBB2-4012-A9BB-BACB132B45F9}" name="% coverage of the EA - 2 weeks" dataDxfId="46"/>
-    <tableColumn id="43" xr3:uid="{8D932EEB-7230-4E9A-8D5D-B1763A50CFB5}" name="% coverage of the EA - 3 weeks" dataDxfId="45"/>
-    <tableColumn id="42" xr3:uid="{0C4CE716-1F5F-484B-8851-200E33BF7A1F}" name="% coverage of the EA - 1 month" dataDxfId="44"/>
-    <tableColumn id="41" xr3:uid="{A7DC8972-663E-42BE-B845-593D5887FF86}" name="% coverage of the EA - 2 months" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{2F25A476-1AF5-4C9D-9411-63B19DA1E469}" name="% coverage of the EA - 3 months" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{D9F8531B-E0DB-4452-B0B8-949EC1301FD2}" name="A resource mobilization plan is developed and approved within 3 to 4 weeks of the EA that looks at long term funding and sustianability.  " dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{44868EA8-72D3-4BCC-808B-EDC3E964DEEA}" name="IFRC advocates with NS  for the approval and use of  Surge or  in country capacity from movement partners within the first  5 days of the trigger" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{8DB47F60-8153-4B36-9DE2-B7BCF14790A3}" name="RR personnel Alert sent within 12h of the request " dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{A8ED4B51-5510-4A38-B5B6-FAA6D5E84A66}" name="Identification of 1st rotation RR personnel within 5 days of the alert *if not aligned to readiness process could be slower " dataDxfId="38"/>
-    <tableColumn id="51" xr3:uid="{94FF491C-7B09-4168-B547-314361924EF1}" name="% of female and male out of the RRP deployed -  2 weeks " dataDxfId="37"/>
-    <tableColumn id="48" xr3:uid="{21560704-F785-417E-A26F-1A7E848EFF15}" name="% of female and male out of the RRP deployed - 1 month " dataDxfId="36"/>
-    <tableColumn id="47" xr3:uid="{B25D0A3D-B7B7-47CE-A532-61E4DDE7047C}" name="% of female and male out of the RRP deployed - 2 months" dataDxfId="35"/>
-    <tableColumn id="46" xr3:uid="{80772A4F-EF68-4334-A95E-813BC1CF2043}" name="% of female and male out of the RRP deployed - 3 months" dataDxfId="34"/>
-    <tableColumn id="20" xr3:uid="{E72FEFEC-DBCC-4715-BC21-3BF7C4605A06}" name="duration - % of 3 months deployments " dataDxfId="33"/>
-    <tableColumn id="59" xr3:uid="{6F4BD96B-93C8-4CD7-A966-3F0727CB52A9}" name="% of RRP coming within the region of the disaster - 2 weeks " dataDxfId="32"/>
-    <tableColumn id="58" xr3:uid="{70E19A08-22DC-4866-B07C-92C54E1B4431}" name="% of RRP coming within the region of the disaster - 1 Month " dataDxfId="31"/>
-    <tableColumn id="57" xr3:uid="{B3C79D87-A0E2-4389-A8F8-20343D029AFD}" name="% of RRP coming within the region of the disaster - 2 months " dataDxfId="30"/>
-    <tableColumn id="56" xr3:uid="{78E94D3B-9DAE-4983-83C8-B18954A2BA2D}" name="% of RRP coming within the region of the disaster - 3 months " dataDxfId="29"/>
-    <tableColumn id="55" xr3:uid="{140F9359-B962-4518-B5C2-9344944BEE6E}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 Week " dataDxfId="28"/>
-    <tableColumn id="54" xr3:uid="{A1AC01E8-5F04-42CE-8614-0F3EF6F06256}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 Weeks" dataDxfId="27"/>
-    <tableColumn id="53" xr3:uid="{A916E4CA-5017-4D3A-832F-343D457AA559}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 month" dataDxfId="26"/>
-    <tableColumn id="52" xr3:uid="{21C56656-3CA9-4F7E-8F6D-8691979C45A5}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 months" dataDxfId="25"/>
-    <tableColumn id="21" xr3:uid="{BF82076D-D7F0-469D-B54C-1CAA5226ECFE}" name="# of RR deployed arriving in country of operation within 4 days from deployment message  - 3 months" dataDxfId="24"/>
-    <tableColumn id="23" xr3:uid="{43DEF4FF-63B1-4684-B3E1-E6B610BD6653}" name="Key initial longer-term positions identified by operational leadership and requested via submission in the HR system, one week after the EA publication" dataDxfId="23"/>
-    <tableColumn id="24" xr3:uid="{BDA07F25-4AAF-4F08-91CF-C975C9A02E40}" name="Once approved in the HR system and pre-classified JD provided, HR advertises key initial longer-term positions within 48 hours." dataDxfId="22"/>
-    <tableColumn id="25" xr3:uid="{ADE2C372-ECEE-41D3-9414-12F25F527AA0}" name="Hold a mini summit within 48 h of the disaster" dataDxfId="21"/>
-    <tableColumn id="26" xr3:uid="{6E0D736F-30A8-4B49-A46E-D7B72EE34A4A}" name="Review/adapt membership coordination framework for the context for this specific emergency " dataDxfId="20"/>
-    <tableColumn id="27" xr3:uid="{E5094FD2-466F-47FB-85EB-FA8158A2E1A0}" name="Ensure an appropriate membership coordination framework is in place after 24h of trigger " dataDxfId="19"/>
-    <tableColumn id="28" xr3:uid="{59500F2A-C1C7-486A-BAA5-CC2D053277E8}" name="Initial supply chain plan developed between logs and ops coordinator within 1 week of the approved EA" dataDxfId="18"/>
-    <tableColumn id="29" xr3:uid="{063B249F-720E-4B11-94BF-69A4F0058F75}" name="Fully approved and submitted requisitions for NFIs within 1 week of the EA (when relevant) " dataDxfId="17"/>
-    <tableColumn id="30" xr3:uid="{1CBC7E4B-AA60-4DAD-903E-D77845A4DD02}" name="NFI (or emergencies items) being delivered to the country in 3 days since the Requistion" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{D895FEC7-B779-43C5-9E45-749B0030C2EA}" name="Needs assessments of triggers to identify the need for an EA. (before EA launch)" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{5B283F17-0366-4A0E-8AF1-AC6EB684A82C}" name="Disaster Brief done for the  Management Call to inform the FAD between 48-72 " dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{43FD35F4-F4DC-4884-A328-E9EB9C63E245}" name="EA is launched within 24 hours after the FAD has been approved (or within 48 hours after field report was published). " dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{3F3B7BAA-4977-4352-9B40-5F960C47446D}" name="Operational Strategy validated 10 to 14  days after the EA " dataDxfId="47"/>
+    <tableColumn id="45" xr3:uid="{0FBE36EB-AD1C-45F9-B402-CE6E7CA30662}" name="% coverage of the EA - 10 days " dataDxfId="46"/>
+    <tableColumn id="44" xr3:uid="{FC539DA9-CBB2-4012-A9BB-BACB132B45F9}" name="% coverage of the EA - 2 weeks" dataDxfId="45"/>
+    <tableColumn id="43" xr3:uid="{8D932EEB-7230-4E9A-8D5D-B1763A50CFB5}" name="% coverage of the EA - 3 weeks" dataDxfId="44"/>
+    <tableColumn id="42" xr3:uid="{0C4CE716-1F5F-484B-8851-200E33BF7A1F}" name="% coverage of the EA - 1 month" dataDxfId="43"/>
+    <tableColumn id="41" xr3:uid="{A7DC8972-663E-42BE-B845-593D5887FF86}" name="% coverage of the EA - 2 months" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{2F25A476-1AF5-4C9D-9411-63B19DA1E469}" name="% coverage of the EA - 3 months" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{D9F8531B-E0DB-4452-B0B8-949EC1301FD2}" name="A resource mobilization plan is developed and approved within 3 to 4 weeks of the EA that looks at long term funding and sustianability.  " dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{44868EA8-72D3-4BCC-808B-EDC3E964DEEA}" name="IFRC advocates with NS  for the approval and use of  Surge or  in country capacity from movement partners within the first  5 days of the trigger" dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{8DB47F60-8153-4B36-9DE2-B7BCF14790A3}" name="RR personnel Alert sent within 12h of the request " dataDxfId="38"/>
+    <tableColumn id="18" xr3:uid="{A8ED4B51-5510-4A38-B5B6-FAA6D5E84A66}" name="Identification of 1st rotation RR personnel within 5 days of the alert *if not aligned to readiness process could be slower " dataDxfId="37"/>
+    <tableColumn id="51" xr3:uid="{94FF491C-7B09-4168-B547-314361924EF1}" name="% of female and male out of the RRP deployed -  2 weeks " dataDxfId="36"/>
+    <tableColumn id="48" xr3:uid="{21560704-F785-417E-A26F-1A7E848EFF15}" name="% of female and male out of the RRP deployed - 1 month " dataDxfId="35"/>
+    <tableColumn id="47" xr3:uid="{B25D0A3D-B7B7-47CE-A532-61E4DDE7047C}" name="% of female and male out of the RRP deployed - 2 months" dataDxfId="34"/>
+    <tableColumn id="46" xr3:uid="{80772A4F-EF68-4334-A95E-813BC1CF2043}" name="% of female and male out of the RRP deployed - 3 months" dataDxfId="33"/>
+    <tableColumn id="20" xr3:uid="{E72FEFEC-DBCC-4715-BC21-3BF7C4605A06}" name="duration - % of 3 months deployments " dataDxfId="32"/>
+    <tableColumn id="59" xr3:uid="{6F4BD96B-93C8-4CD7-A966-3F0727CB52A9}" name="% of RRP coming within the region of the disaster - 2 weeks " dataDxfId="31"/>
+    <tableColumn id="58" xr3:uid="{70E19A08-22DC-4866-B07C-92C54E1B4431}" name="% of RRP coming within the region of the disaster - 1 Month " dataDxfId="30"/>
+    <tableColumn id="57" xr3:uid="{B3C79D87-A0E2-4389-A8F8-20343D029AFD}" name="% of RRP coming within the region of the disaster - 2 months " dataDxfId="29"/>
+    <tableColumn id="56" xr3:uid="{78E94D3B-9DAE-4983-83C8-B18954A2BA2D}" name="% of RRP coming within the region of the disaster - 3 months " dataDxfId="28"/>
+    <tableColumn id="55" xr3:uid="{140F9359-B962-4518-B5C2-9344944BEE6E}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 Week " dataDxfId="27"/>
+    <tableColumn id="54" xr3:uid="{A1AC01E8-5F04-42CE-8614-0F3EF6F06256}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 Weeks" dataDxfId="26"/>
+    <tableColumn id="53" xr3:uid="{A916E4CA-5017-4D3A-832F-343D457AA559}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 1 month" dataDxfId="25"/>
+    <tableColumn id="52" xr3:uid="{21C56656-3CA9-4F7E-8F6D-8691979C45A5}" name="# of RR deployed arriving in country of operation within 4 days from deployment message - 2 months" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{BF82076D-D7F0-469D-B54C-1CAA5226ECFE}" name="# of RR deployed arriving in country of operation within 4 days from deployment message  - 3 months" dataDxfId="23"/>
+    <tableColumn id="23" xr3:uid="{43DEF4FF-63B1-4684-B3E1-E6B610BD6653}" name="Key initial longer-term positions identified by operational leadership and requested via submission in the HR system, one week after the EA publication" dataDxfId="22"/>
+    <tableColumn id="24" xr3:uid="{BDA07F25-4AAF-4F08-91CF-C975C9A02E40}" name="Once approved in the HR system and pre-classified JD provided, HR advertises key initial longer-term positions within 48 hours." dataDxfId="21"/>
+    <tableColumn id="25" xr3:uid="{ADE2C372-ECEE-41D3-9414-12F25F527AA0}" name="Hold a mini summit within 48 h of the disaster" dataDxfId="20"/>
+    <tableColumn id="26" xr3:uid="{6E0D736F-30A8-4B49-A46E-D7B72EE34A4A}" name="Review/adapt membership coordination framework for the context for this specific emergency " dataDxfId="19"/>
+    <tableColumn id="27" xr3:uid="{E5094FD2-466F-47FB-85EB-FA8158A2E1A0}" name="Ensure an appropriate membership coordination framework is in place after 24h of trigger " dataDxfId="18"/>
+    <tableColumn id="28" xr3:uid="{59500F2A-C1C7-486A-BAA5-CC2D053277E8}" name="Initial supply chain plan developed between logs and ops coordinator within 1 week of the approved EA" dataDxfId="17"/>
+    <tableColumn id="29" xr3:uid="{063B249F-720E-4B11-94BF-69A4F0058F75}" name="Fully approved and submitted requisitions for NFIs within 1 week of the EA (when relevant) " dataDxfId="16"/>
+    <tableColumn id="30" xr3:uid="{1CBC7E4B-AA60-4DAD-903E-D77845A4DD02}" name="NFI (or emergencies items) being delivered to the country in 3 days since the Requistion" dataDxfId="15"/>
     <tableColumn id="61" xr3:uid="{2733AA3F-D3C0-4113-8BA5-56866EB28789}" name="A dashboard is in place and updated timely to display the situation and the activities being implemented (24h)"/>
     <tableColumn id="60" xr3:uid="{C2330E12-507B-47D3-B075-0EF9463DAE07}" name="A dashboard is in place and updated timely to display the situation and the activities being implemented (72h)"/>
     <tableColumn id="22" xr3:uid="{501F90EE-9F88-4559-81F1-FD2291CB48C2}" name="A dashboard is in place and updated timely to display the situation and the activities being implemented (1 week)"/>
     <tableColumn id="19" xr3:uid="{9975CEED-93EF-4921-89ED-BC19DC77672A}" name="A dashboard is in place and updated timely to display the situation and the activities being implemented (2 weeks)"/>
-    <tableColumn id="31" xr3:uid="{BDF481F4-2E10-4526-8043-518EE8B070F8}" name="A dashboard is in place and updated timely to display the situation and the activities being implemented (1 m)" dataDxfId="15"/>
-    <tableColumn id="32" xr3:uid="{619EE3A9-23B7-4446-BB04-1490FDB5926B}" name="Project agreements signed by the NS and the IFRC no longer than 7 days from the DREF/EA approval" dataDxfId="14"/>
-    <tableColumn id="33" xr3:uid="{7ECDA68F-C743-41A5-8718-4E08EF956A83}" name="After PA is signed by both parties, HoD/project manager to process the Request for Payment to be sent to Treasury within 10 days of DREF/ EA approval" dataDxfId="13"/>
-    <tableColumn id="34" xr3:uid="{A2CFA4AE-7EB4-4070-A747-0A262755E696}" name="Bank transfer process by IFRC to the NS within 24h after the request for payment is received/approved" dataDxfId="12"/>
-    <tableColumn id="35" xr3:uid="{79536823-3E1E-45BF-AD24-BEFCE85718D7}" name="Confirmation from the NSs of the funds received to be obtained within 3 working days from the value date of the transfer" dataDxfId="11"/>
-    <tableColumn id="36" xr3:uid="{E4676393-3A8D-42DE-AAB8-93BB00E0F704}" name="First round of payment received to the target beneficiaries four weeks after the EA launch for sudden onset (when relevant and when CVA is planned)" dataDxfId="10"/>
-    <tableColumn id="37" xr3:uid="{6D269DB8-A37F-4346-B36E-630B66190D96}" name="NFIs distributed to targetted population within one month of the EA " dataDxfId="9"/>
-    <tableColumn id="38" xr3:uid="{978A7F4D-73B3-406B-96DE-645E3599C6B2}" name="% of targeted population receiving assistance " dataDxfId="8"/>
-    <tableColumn id="39" xr3:uid="{4949E4BA-5BA6-435D-9C3D-86E471113452}" name="% implementation rate of available budget" dataDxfId="7"/>
-    <tableColumn id="40" xr3:uid="{AA1276E9-CCD6-401B-BFAF-3953CBC9C1F7}" name="Operation is MSR (v.2021) compliant" dataDxfId="6"/>
-    <tableColumn id="50" xr3:uid="{DE72BA84-FF90-4CAD-A558-588A38BB08D6}" name="If the country is not MSR, enough resource (HR/Funds) have been allocated to operate in a Red/orange security phase areas" dataDxfId="5"/>
+    <tableColumn id="31" xr3:uid="{BDF481F4-2E10-4526-8043-518EE8B070F8}" name="A dashboard is in place and updated timely to display the situation and the activities being implemented (1 m)" dataDxfId="14"/>
+    <tableColumn id="32" xr3:uid="{619EE3A9-23B7-4446-BB04-1490FDB5926B}" name="Project agreements signed by the NS and the IFRC no longer than 7 days from the DREF/EA approval" dataDxfId="13"/>
+    <tableColumn id="33" xr3:uid="{7ECDA68F-C743-41A5-8718-4E08EF956A83}" name="After PA is signed by both parties, HoD/project manager to process the Request for Payment to be sent to Treasury within 10 days of DREF/ EA approval" dataDxfId="12"/>
+    <tableColumn id="34" xr3:uid="{A2CFA4AE-7EB4-4070-A747-0A262755E696}" name="Bank transfer process by IFRC to the NS within 24h after the request for payment is received/approved" dataDxfId="11"/>
+    <tableColumn id="35" xr3:uid="{79536823-3E1E-45BF-AD24-BEFCE85718D7}" name="Confirmation from the NSs of the funds received to be obtained within 3 working days from the value date of the transfer" dataDxfId="10"/>
+    <tableColumn id="36" xr3:uid="{E4676393-3A8D-42DE-AAB8-93BB00E0F704}" name="First round of payment received to the target beneficiaries four weeks after the EA launch for sudden onset (when relevant and when CVA is planned)" dataDxfId="9"/>
+    <tableColumn id="37" xr3:uid="{6D269DB8-A37F-4346-B36E-630B66190D96}" name="NFIs distributed to targetted population within one month of the EA " dataDxfId="8"/>
+    <tableColumn id="38" xr3:uid="{978A7F4D-73B3-406B-96DE-645E3599C6B2}" name="% of targeted population receiving assistance " dataDxfId="7"/>
+    <tableColumn id="39" xr3:uid="{4949E4BA-5BA6-435D-9C3D-86E471113452}" name="% implementation rate of available budget" dataDxfId="6"/>
+    <tableColumn id="40" xr3:uid="{AA1276E9-CCD6-401B-BFAF-3953CBC9C1F7}" name="Operation is MSR (v.2021) compliant" dataDxfId="5"/>
+    <tableColumn id="50" xr3:uid="{DE72BA84-FF90-4CAD-A558-588A38BB08D6}" name="If the country is not MSR, enough resource (HR/Funds) have been allocated to operate in a Red/orange security phase areas" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79D82F77-05BA-454F-A721-DDE7252F50FF}" name="Table5" displayName="Table5" ref="A1:D33" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79D82F77-05BA-454F-A721-DDE7252F50FF}" name="Table5" displayName="Table5" ref="A1:D33" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:D33" xr:uid="{79D82F77-05BA-454F-A721-DDE7252F50FF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9DADC78A-060A-4E37-83EF-B0624819597E}" name="Area" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{9DADC78A-060A-4E37-83EF-B0624819597E}" name="Area" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{715BE568-174D-4C37-BB28-BB103ABF94C0}" name="Indicator"/>
     <tableColumn id="3" xr3:uid="{1C2245AC-989F-4300-A16A-18C76EDC01AF}" name="Expected date for completion (from disaster trigger date)"/>
     <tableColumn id="4" xr3:uid="{A2380D21-73DA-4122-8648-95E9379C692B}" name="Other targets"/>
@@ -5921,44 +5925,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F4EFAB-EC39-487F-816B-9A6CE4F0BFDE}">
-  <dimension ref="A1:BX36"/>
+  <dimension ref="A1:BY6"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1796875" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="29.7265625" style="3" customWidth="1"/>
-    <col min="16" max="27" width="10.81640625" style="3" customWidth="1"/>
-    <col min="28" max="30" width="29.7265625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="14.54296875" style="3" customWidth="1"/>
-    <col min="32" max="35" width="13.26953125" style="3" customWidth="1"/>
-    <col min="36" max="39" width="14.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="29.7109375" style="3" customWidth="1"/>
+    <col min="16" max="27" width="10.85546875" style="3" customWidth="1"/>
+    <col min="28" max="30" width="29.7109375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="3" customWidth="1"/>
+    <col min="32" max="35" width="13.28515625" style="3" customWidth="1"/>
+    <col min="36" max="39" width="14.28515625" style="3" customWidth="1"/>
     <col min="40" max="44" width="20" style="3" customWidth="1"/>
-    <col min="45" max="45" width="32.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="49" width="29.7265625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="32.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="62" width="29.7265625" style="3" customWidth="1"/>
-    <col min="63" max="64" width="15.26953125" style="3" customWidth="1"/>
-    <col min="65" max="65" width="14" style="3" customWidth="1"/>
-    <col min="66" max="69" width="12" style="3" customWidth="1"/>
-    <col min="70" max="74" width="14.453125" style="3" customWidth="1"/>
-    <col min="75" max="76" width="29.7265625" style="3" customWidth="1"/>
+    <col min="45" max="45" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="50" width="29.7109375" style="3" customWidth="1"/>
+    <col min="51" max="51" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="63" width="29.7109375" style="3" customWidth="1"/>
+    <col min="64" max="65" width="15.28515625" style="3" customWidth="1"/>
+    <col min="66" max="66" width="14" style="3" customWidth="1"/>
+    <col min="67" max="70" width="12" style="3" customWidth="1"/>
+    <col min="71" max="75" width="14.42578125" style="3" customWidth="1"/>
+    <col min="76" max="77" width="29.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:77" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6101,94 +6105,97 @@
         <v>18</v>
       </c>
       <c r="AV1" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BL1" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BM1" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BN1" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="BN1" s="12" t="s">
+      <c r="BO1" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="BO1" s="12" t="s">
+      <c r="BP1" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="BP1" s="12" t="s">
+      <c r="BQ1" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="BQ1" s="12" t="s">
+      <c r="BR1" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="BS1" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BT1" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BU1" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="BU1" s="13" t="s">
+      <c r="BV1" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="BV1" s="13" t="s">
+      <c r="BW1" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BY1" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:76" ht="32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("EA",Table1[[#This Row],[Country]],Table1[[#This Row],[Appeal Code]])</f>
         <v>EAMozambiqueMDRM989</v>
@@ -6326,19 +6333,19 @@
         <v>45475</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="AV2" s="16">
+        <v>924</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AW2" s="16">
         <v>45478</v>
       </c>
-      <c r="AW2" s="16">
+      <c r="AX2" s="16">
         <v>45465</v>
       </c>
-      <c r="AX2" s="16">
+      <c r="AY2" s="16">
         <v>45478</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>828</v>
       </c>
       <c r="AZ2" s="3" t="s">
         <v>828</v>
@@ -6349,74 +6356,77 @@
       <c r="BB2" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="BC2" s="16">
+      <c r="BC2" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="BD2" s="16">
         <v>45478</v>
       </c>
-      <c r="BD2" s="16">
+      <c r="BE2" s="16">
         <v>45492</v>
       </c>
-      <c r="BE2" s="16">
+      <c r="BF2" s="16">
         <v>45514</v>
       </c>
-      <c r="BF2" s="16">
+      <c r="BG2" s="16">
         <v>45477</v>
       </c>
-      <c r="BG2" s="16">
+      <c r="BH2" s="16">
         <v>45480</v>
       </c>
-      <c r="BH2" s="16">
+      <c r="BI2" s="16">
         <v>45483</v>
       </c>
-      <c r="BI2" s="16">
+      <c r="BJ2" s="16">
         <v>45485</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="BK2" s="16">
+      <c r="BL2" s="16">
         <v>45491</v>
       </c>
-      <c r="BL2" s="17">
+      <c r="BM2" s="17">
         <v>0.6</v>
       </c>
-      <c r="BM2" s="17">
+      <c r="BN2" s="17">
         <v>1</v>
       </c>
-      <c r="BN2" s="17">
+      <c r="BO2" s="17">
         <v>0.4</v>
-      </c>
-      <c r="BO2" s="17">
-        <v>0.6</v>
       </c>
       <c r="BP2" s="17">
         <v>0.6</v>
       </c>
       <c r="BQ2" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="BR2" s="17">
         <v>0.7</v>
       </c>
-      <c r="BR2" s="17">
+      <c r="BS2" s="17">
         <v>0.3</v>
       </c>
-      <c r="BS2" s="17">
+      <c r="BT2" s="17">
         <v>0.35</v>
       </c>
-      <c r="BT2" s="17">
+      <c r="BU2" s="17">
         <v>0.4</v>
       </c>
-      <c r="BU2" s="17">
+      <c r="BV2" s="17">
         <v>0.5</v>
       </c>
-      <c r="BV2" s="17">
+      <c r="BW2" s="17">
         <v>0.6</v>
       </c>
-      <c r="BW2" s="16">
+      <c r="BX2" s="16">
         <v>45468</v>
       </c>
-      <c r="BX2" s="16" t="s">
+      <c r="BY2" s="16" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:76" ht="32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("EA",Table1[[#This Row],[Country]],Table1[[#This Row],[Appeal Code]])</f>
         <v>EANigeriaMDRN777</v>
@@ -6451,8 +6461,8 @@
       <c r="L3" s="8">
         <v>45490</v>
       </c>
-      <c r="M3" s="16">
-        <v>45492</v>
+      <c r="M3" s="16" t="s">
+        <v>563</v>
       </c>
       <c r="N3" s="16">
         <v>45495</v>
@@ -6554,27 +6564,27 @@
         <v>45503</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="AV3" s="16">
+        <v>924</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AW3" s="16">
         <v>45502</v>
       </c>
-      <c r="AW3" s="16">
+      <c r="AX3" s="16">
         <v>45489</v>
       </c>
-      <c r="AX3" s="16">
+      <c r="AY3" s="16">
         <v>45502</v>
       </c>
-      <c r="AY3" s="16">
+      <c r="AZ3" s="16">
         <v>45503</v>
       </c>
-      <c r="AZ3" s="16">
+      <c r="BA3" s="16">
         <v>45506</v>
       </c>
-      <c r="BA3" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="BB3" s="16" t="s">
+      <c r="BB3" s="3" t="s">
         <v>828</v>
       </c>
       <c r="BC3" s="16" t="s">
@@ -6583,68 +6593,71 @@
       <c r="BD3" s="16" t="s">
         <v>828</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BE3" s="16" t="s">
         <v>828</v>
       </c>
-      <c r="BF3" s="16">
+      <c r="BF3" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="BG3" s="16">
         <v>45503</v>
       </c>
-      <c r="BG3" s="16">
+      <c r="BH3" s="16">
         <v>45506</v>
       </c>
-      <c r="BH3" s="16">
+      <c r="BI3" s="16">
         <v>45507</v>
       </c>
-      <c r="BI3" s="16">
+      <c r="BJ3" s="16">
         <v>45510</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BK3" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="BK3" s="16">
+      <c r="BL3" s="16">
         <v>45516</v>
       </c>
-      <c r="BL3" s="17">
+      <c r="BM3" s="17">
         <v>0.5</v>
       </c>
-      <c r="BM3" s="17">
+      <c r="BN3" s="17">
         <v>0.7</v>
       </c>
-      <c r="BN3" s="17">
+      <c r="BO3" s="17">
         <v>0.5</v>
       </c>
-      <c r="BO3" s="17">
+      <c r="BP3" s="17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BP3" s="17">
+      <c r="BQ3" s="17">
         <v>0.56000000000000005</v>
       </c>
-      <c r="BQ3" s="17">
+      <c r="BR3" s="17">
         <v>0.65</v>
       </c>
-      <c r="BR3" s="17">
+      <c r="BS3" s="17">
         <v>0.2</v>
       </c>
-      <c r="BS3" s="17">
+      <c r="BT3" s="17">
         <v>0.3</v>
       </c>
-      <c r="BT3" s="17">
+      <c r="BU3" s="17">
         <v>0.4</v>
       </c>
-      <c r="BU3" s="17">
+      <c r="BV3" s="17">
         <v>0.6</v>
       </c>
-      <c r="BV3" s="17">
+      <c r="BW3" s="17">
         <v>0.7</v>
       </c>
-      <c r="BW3" s="16">
+      <c r="BX3" s="16">
         <v>45495</v>
       </c>
-      <c r="BX3" s="16" t="s">
+      <c r="BY3" s="16" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="4" spans="1:76" ht="32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE("EA",Table1[[#This Row],[Country]],Table1[[#This Row],[Appeal Code]])</f>
         <v>EAPeruMDRO999</v>
@@ -6781,94 +6794,97 @@
       <c r="AT4" s="16">
         <v>45536</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" s="16">
+        <v>45517</v>
+      </c>
+      <c r="AV4" s="16">
+        <v>45519</v>
+      </c>
+      <c r="AW4" s="16">
+        <v>45532</v>
+      </c>
+      <c r="AX4" s="16">
+        <v>45515</v>
+      </c>
+      <c r="AY4" s="16">
+        <v>45532</v>
+      </c>
+      <c r="AZ4" s="16">
+        <v>45531</v>
+      </c>
+      <c r="BA4" s="16">
+        <v>45533</v>
+      </c>
+      <c r="BB4" s="16">
+        <v>45529</v>
+      </c>
+      <c r="BC4" s="16">
+        <v>45534</v>
+      </c>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16" t="s">
         <v>828</v>
       </c>
-      <c r="AV4" s="16">
+      <c r="BG4" s="16">
+        <v>45530</v>
+      </c>
+      <c r="BH4" s="16">
+        <v>45531</v>
+      </c>
+      <c r="BI4" s="16">
         <v>45532</v>
       </c>
-      <c r="AW4" s="16">
-        <v>45515</v>
-      </c>
-      <c r="AX4" s="16">
-        <v>45532</v>
-      </c>
-      <c r="AY4" s="16">
-        <v>45531</v>
-      </c>
-      <c r="AZ4" s="16">
-        <v>45533</v>
-      </c>
-      <c r="BA4" s="16">
-        <v>45529</v>
-      </c>
-      <c r="BB4" s="16">
-        <v>45534</v>
-      </c>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="16" t="s">
+      <c r="BJ4" s="16">
+        <v>45536</v>
+      </c>
+      <c r="BK4" s="16">
+        <v>45555</v>
+      </c>
+      <c r="BL4" s="16">
+        <v>45546</v>
+      </c>
+      <c r="BM4" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="BN4" s="17">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="BP4" s="17">
+        <v>0.63</v>
+      </c>
+      <c r="BQ4" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="BR4" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="BS4" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="BT4" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="BU4" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="BV4" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="BW4" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="BX4" s="16" t="s">
         <v>828</v>
       </c>
-      <c r="BF4" s="16">
-        <v>45530</v>
-      </c>
-      <c r="BG4" s="16">
-        <v>45531</v>
-      </c>
-      <c r="BH4" s="16">
-        <v>45532</v>
-      </c>
-      <c r="BI4" s="16">
-        <v>45536</v>
-      </c>
-      <c r="BJ4" s="16">
-        <v>45555</v>
-      </c>
-      <c r="BK4" s="16">
-        <v>45546</v>
-      </c>
-      <c r="BL4" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="BM4" s="17">
-        <v>1</v>
-      </c>
-      <c r="BN4" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="BO4" s="17">
-        <v>0.63</v>
-      </c>
-      <c r="BP4" s="17">
-        <v>0.68</v>
-      </c>
-      <c r="BQ4" s="17">
-        <v>0.72</v>
-      </c>
-      <c r="BR4" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="BS4" s="17">
-        <v>0.35</v>
-      </c>
-      <c r="BT4" s="17">
-        <v>0.45</v>
-      </c>
-      <c r="BU4" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="BV4" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="BW4" s="16" t="s">
-        <v>828</v>
-      </c>
-      <c r="BX4" s="16">
+      <c r="BY4" s="16">
         <v>45519</v>
       </c>
     </row>
-    <row r="5" spans="1:76" ht="32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE("EA",Table1[[#This Row],[Country]],Table1[[#This Row],[Appeal Code]])</f>
         <v>EAMaldivesMDRM787</v>
@@ -6903,8 +6919,8 @@
       <c r="L5" s="8">
         <v>45536</v>
       </c>
-      <c r="M5" s="16">
-        <v>45539</v>
+      <c r="M5" s="16" t="s">
+        <v>563</v>
       </c>
       <c r="N5" s="16">
         <v>45541</v>
@@ -7005,98 +7021,101 @@
       <c r="AT5" s="16">
         <v>45553</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AU5" s="16">
+        <v>45536</v>
+      </c>
+      <c r="AV5" s="16">
+        <v>45537</v>
+      </c>
+      <c r="AW5" s="16">
+        <v>45550</v>
+      </c>
+      <c r="AX5" s="16">
+        <v>45533</v>
+      </c>
+      <c r="AY5" s="16">
+        <v>45514</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>45515</v>
+      </c>
+      <c r="BA5" s="16">
+        <v>45519</v>
+      </c>
+      <c r="BB5" s="16">
+        <v>45509</v>
+      </c>
+      <c r="BC5" s="16">
+        <v>45513</v>
+      </c>
+      <c r="BD5" s="16">
+        <v>45516</v>
+      </c>
+      <c r="BE5" s="16">
+        <v>45524</v>
+      </c>
+      <c r="BF5" s="16">
+        <v>45540</v>
+      </c>
+      <c r="BG5" s="16">
+        <v>45515</v>
+      </c>
+      <c r="BH5" s="16">
+        <v>45517</v>
+      </c>
+      <c r="BI5" s="16">
+        <v>45518</v>
+      </c>
+      <c r="BJ5" s="16">
+        <v>45520</v>
+      </c>
+      <c r="BK5" s="16">
+        <v>45566</v>
+      </c>
+      <c r="BL5" s="16">
+        <v>45560</v>
+      </c>
+      <c r="BM5" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="BN5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="BO5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="BP5" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="BQ5" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="BR5" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="BS5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="BT5" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BU5" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="BV5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="BW5" s="17">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="16" t="s">
         <v>828</v>
       </c>
-      <c r="AV5" s="16">
-        <v>45550</v>
-      </c>
-      <c r="AW5" s="16">
-        <v>45533</v>
-      </c>
-      <c r="AX5" s="16">
-        <v>45514</v>
-      </c>
-      <c r="AY5" s="16">
-        <v>45515</v>
-      </c>
-      <c r="AZ5" s="16">
-        <v>45519</v>
-      </c>
-      <c r="BA5" s="16">
-        <v>45509</v>
-      </c>
-      <c r="BB5" s="16">
-        <v>45513</v>
-      </c>
-      <c r="BC5" s="16">
-        <v>45516</v>
-      </c>
-      <c r="BD5" s="16">
-        <v>45524</v>
-      </c>
-      <c r="BE5" s="16">
-        <v>45540</v>
-      </c>
-      <c r="BF5" s="16">
-        <v>45515</v>
-      </c>
-      <c r="BG5" s="16">
-        <v>45517</v>
-      </c>
-      <c r="BH5" s="16">
-        <v>45518</v>
-      </c>
-      <c r="BI5" s="16">
-        <v>45520</v>
-      </c>
-      <c r="BJ5" s="16">
-        <v>45566</v>
-      </c>
-      <c r="BK5" s="16">
-        <v>45560</v>
-      </c>
-      <c r="BL5" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="BM5" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="BN5" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="BO5" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="BP5" s="17">
-        <v>0.62</v>
-      </c>
-      <c r="BQ5" s="17">
-        <v>0.68</v>
-      </c>
-      <c r="BR5" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="BS5" s="17">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="BT5" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="BU5" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="BV5" s="17">
-        <v>1</v>
-      </c>
-      <c r="BW5" s="16" t="s">
-        <v>828</v>
-      </c>
-      <c r="BX5" s="16">
+      <c r="BY5" s="16">
         <v>45538</v>
       </c>
     </row>
-    <row r="6" spans="1:76" ht="32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE("EA",Table1[[#This Row],[Country]],Table1[[#This Row],[Appeal Code]])</f>
         <v>EAJordanMDRJ000</v>
@@ -7234,19 +7253,19 @@
         <v>45550</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="AV6" s="16">
+        <v>924</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AW6" s="16">
         <v>45547</v>
       </c>
-      <c r="AW6" s="16">
+      <c r="AX6" s="16">
         <v>45536</v>
       </c>
-      <c r="AX6" s="16">
+      <c r="AY6" s="16">
         <v>45550</v>
-      </c>
-      <c r="AY6" s="3" t="s">
-        <v>828</v>
       </c>
       <c r="AZ6" s="3" t="s">
         <v>828</v>
@@ -7266,67 +7285,65 @@
       <c r="BE6" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="BF6" s="16">
+      <c r="BF6" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="BG6" s="16">
         <v>45550</v>
       </c>
-      <c r="BG6" s="16">
+      <c r="BH6" s="16">
         <v>45554</v>
       </c>
-      <c r="BH6" s="16">
+      <c r="BI6" s="16">
         <v>45558</v>
       </c>
-      <c r="BI6" s="16">
+      <c r="BJ6" s="16">
         <v>45560</v>
       </c>
-      <c r="BJ6" s="16">
+      <c r="BK6" s="16">
         <v>45570</v>
       </c>
-      <c r="BK6" s="16">
+      <c r="BL6" s="16">
         <v>45565</v>
       </c>
-      <c r="BL6" s="17">
+      <c r="BM6" s="17">
         <v>0.4</v>
       </c>
-      <c r="BM6" s="17">
+      <c r="BN6" s="17">
         <v>0.9</v>
       </c>
-      <c r="BN6" s="17">
+      <c r="BO6" s="17">
         <v>0.5</v>
       </c>
-      <c r="BO6" s="17">
+      <c r="BP6" s="17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BP6" s="17">
+      <c r="BQ6" s="17">
         <v>0.6</v>
       </c>
-      <c r="BQ6" s="17">
+      <c r="BR6" s="17">
         <v>0.7</v>
       </c>
-      <c r="BR6" s="17">
+      <c r="BS6" s="17">
         <v>0.25</v>
       </c>
-      <c r="BS6" s="17">
+      <c r="BT6" s="17">
         <v>0.4</v>
       </c>
-      <c r="BT6" s="17">
+      <c r="BU6" s="17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BU6" s="17">
+      <c r="BV6" s="17">
         <v>0.9</v>
       </c>
-      <c r="BV6" s="3" t="s">
+      <c r="BW6" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="BW6" s="16" t="s">
+      <c r="BX6" s="16" t="s">
         <v>828</v>
       </c>
-      <c r="BX6" s="16">
+      <c r="BY6" s="16">
         <v>45543</v>
-      </c>
-    </row>
-    <row r="36" spans="43:43" x14ac:dyDescent="0.35">
-      <c r="AQ36" s="3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7387,30 +7404,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4824102C-7A3F-4D60-AD67-EC266F49068C}">
   <dimension ref="A1:CG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+    <sheetView topLeftCell="AL1" zoomScale="78" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="38" width="29.7265625" customWidth="1"/>
-    <col min="39" max="41" width="22.54296875" customWidth="1"/>
-    <col min="42" max="45" width="13.453125" customWidth="1"/>
-    <col min="46" max="48" width="16.7265625" customWidth="1"/>
-    <col min="49" max="51" width="16.1796875" customWidth="1"/>
-    <col min="52" max="53" width="29.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="38" width="29.7109375" customWidth="1"/>
+    <col min="39" max="41" width="22.5703125" customWidth="1"/>
+    <col min="42" max="45" width="13.42578125" customWidth="1"/>
+    <col min="46" max="48" width="16.7109375" customWidth="1"/>
+    <col min="49" max="51" width="16.140625" customWidth="1"/>
+    <col min="52" max="53" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:85" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7603,7 +7620,7 @@
       <c r="CF1" s="32"/>
       <c r="CG1" s="33"/>
     </row>
-    <row r="2" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="str">
         <f>CONCATENATE("DREF",Table13[[#This Row],[Country]],Table13[[#This Row],[Appeal Code]])</f>
         <v>DREFAfghanistanMDRA111</v>
@@ -7798,7 +7815,7 @@
       <c r="CF2" s="22"/>
       <c r="CG2" s="23"/>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="str">
         <f>CONCATENATE("DREF",Table13[[#This Row],[Country]],Table13[[#This Row],[Appeal Code]])</f>
         <v>DREFBangladeshMDRB567</v>
@@ -7968,7 +7985,7 @@
       <c r="BI3" s="29"/>
       <c r="BJ3" s="26"/>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="str">
         <f>CONCATENATE("DREF",Table13[[#This Row],[Country]],Table13[[#This Row],[Appeal Code]])</f>
         <v>DREFGermanyMDRG909</v>
@@ -8131,7 +8148,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="str">
         <f>CONCATENATE("DREF",Table13[[#This Row],[Country]],Table13[[#This Row],[Appeal Code]])</f>
         <v>DREFChileMDRC464</v>
@@ -8294,7 +8311,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>CONCATENATE("DREF",Table13[[#This Row],[Country]],Table13[[#This Row],[Appeal Code]])</f>
         <v>DREFEgyptMDRE698</v>
@@ -8518,33 +8535,33 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="29.7265625" customWidth="1"/>
-    <col min="15" max="15" width="12.7265625" customWidth="1"/>
-    <col min="16" max="16" width="12.26953125" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="29.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="13.26953125" customWidth="1"/>
-    <col min="20" max="20" width="14.81640625" customWidth="1"/>
-    <col min="21" max="23" width="29.7265625" customWidth="1"/>
-    <col min="24" max="24" width="29.54296875" customWidth="1"/>
-    <col min="25" max="35" width="29.7265625" customWidth="1"/>
-    <col min="36" max="36" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="46" width="29.7265625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="21" max="23" width="29.7109375" customWidth="1"/>
+    <col min="24" max="24" width="29.5703125" customWidth="1"/>
+    <col min="25" max="35" width="29.7109375" customWidth="1"/>
+    <col min="36" max="36" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="46" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8684,7 +8701,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("MCMR",Table14[[#This Row],[Country]],Table14[[#This Row],[Appeal Code]])</f>
         <v>MCMRNepalMDRS2002</v>
@@ -8826,7 +8843,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("MCMR",Table14[[#This Row],[Country]],Table14[[#This Row],[Appeal Code]])</f>
         <v>MCMRZambiaMDRS7890</v>
@@ -8968,7 +8985,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE("MCMR",Table14[[#This Row],[Country]],Table14[[#This Row],[Appeal Code]])</f>
         <v>MCMRJordanMDRS1234</v>
@@ -9170,35 +9187,35 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="29.7265625" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" customWidth="1"/>
-    <col min="17" max="17" width="11.1796875" customWidth="1"/>
-    <col min="18" max="18" width="9.81640625" customWidth="1"/>
-    <col min="19" max="19" width="11.453125" customWidth="1"/>
-    <col min="20" max="20" width="12.81640625" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" customWidth="1"/>
-    <col min="22" max="25" width="29.7265625" customWidth="1"/>
-    <col min="26" max="26" width="12.54296875" customWidth="1"/>
-    <col min="27" max="27" width="13.7265625" customWidth="1"/>
-    <col min="28" max="28" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="29.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="22" max="25" width="29.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" customWidth="1"/>
     <col min="29" max="29" width="14" customWidth="1"/>
-    <col min="30" max="62" width="29.7265625" customWidth="1"/>
+    <col min="30" max="62" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:62" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9386,7 +9403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:62" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE("PCCE",Table15[[#This Row],[Country]],Table15[[#This Row],[Appeal Code]])</f>
         <v>PCCEIraqMDRI1998</v>
@@ -9574,7 +9591,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:62" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("PCCE",Table15[[#This Row],[Country]],Table15[[#This Row],[Appeal Code]])</f>
         <v>PCCENigeriaMDRN6879</v>
@@ -9822,17 +9839,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9855,7 +9872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -9878,7 +9895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -9901,7 +9918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -9924,7 +9941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -9944,7 +9961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -9964,7 +9981,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -9981,7 +9998,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>77</v>
       </c>
@@ -9995,7 +10012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -10009,7 +10026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>79</v>
       </c>
@@ -10023,7 +10040,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>80</v>
       </c>
@@ -10037,7 +10054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>81</v>
       </c>
@@ -10051,7 +10068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -10065,7 +10082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -10079,7 +10096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -10093,7 +10110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -10107,7 +10124,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -10121,7 +10138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -10135,7 +10152,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -10149,7 +10166,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -10163,7 +10180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -10177,7 +10194,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -10191,7 +10208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -10205,7 +10222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -10219,7 +10236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -10233,7 +10250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -10244,7 +10261,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>96</v>
       </c>
@@ -10255,7 +10272,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>97</v>
       </c>
@@ -10266,7 +10283,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>98</v>
       </c>
@@ -10277,7 +10294,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>99</v>
       </c>
@@ -10288,7 +10305,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>100</v>
       </c>
@@ -10299,7 +10316,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>101</v>
       </c>
@@ -10310,7 +10327,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>102</v>
       </c>
@@ -10321,7 +10338,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>103</v>
       </c>
@@ -10332,7 +10349,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>104</v>
       </c>
@@ -10343,7 +10360,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>105</v>
       </c>
@@ -10354,7 +10371,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>106</v>
       </c>
@@ -10365,7 +10382,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>107</v>
       </c>
@@ -10376,7 +10393,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>108</v>
       </c>
@@ -10387,7 +10404,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>109</v>
       </c>
@@ -10398,7 +10415,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>110</v>
       </c>
@@ -10409,7 +10426,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>111</v>
       </c>
@@ -10420,7 +10437,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>112</v>
       </c>
@@ -10431,7 +10448,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>113</v>
       </c>
@@ -10442,7 +10459,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>114</v>
       </c>
@@ -10453,7 +10470,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>115</v>
       </c>
@@ -10464,7 +10481,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>116</v>
       </c>
@@ -10475,7 +10492,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>117</v>
       </c>
@@ -10486,7 +10503,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>118</v>
       </c>
@@ -10497,7 +10514,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>119</v>
       </c>
@@ -10508,7 +10525,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>120</v>
       </c>
@@ -10519,7 +10536,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>121</v>
       </c>
@@ -10530,7 +10547,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>122</v>
       </c>
@@ -10541,7 +10558,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>123</v>
       </c>
@@ -10552,7 +10569,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>124</v>
       </c>
@@ -10563,7 +10580,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>125</v>
       </c>
@@ -10574,7 +10591,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>126</v>
       </c>
@@ -10585,7 +10602,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>127</v>
       </c>
@@ -10596,7 +10613,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>128</v>
       </c>
@@ -10607,7 +10624,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>129</v>
       </c>
@@ -10618,7 +10635,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>130</v>
       </c>
@@ -10629,7 +10646,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>131</v>
       </c>
@@ -10640,7 +10657,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>132</v>
       </c>
@@ -10651,7 +10668,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>133</v>
       </c>
@@ -10662,7 +10679,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>134</v>
       </c>
@@ -10673,7 +10690,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>135</v>
       </c>
@@ -10684,7 +10701,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>136</v>
       </c>
@@ -10695,7 +10712,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>137</v>
       </c>
@@ -10706,7 +10723,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>138</v>
       </c>
@@ -10717,7 +10734,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>139</v>
       </c>
@@ -10728,7 +10745,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>140</v>
       </c>
@@ -10739,7 +10756,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>141</v>
       </c>
@@ -10750,7 +10767,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>142</v>
       </c>
@@ -10761,7 +10778,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>143</v>
       </c>
@@ -10772,7 +10789,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>144</v>
       </c>
@@ -10783,7 +10800,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>145</v>
       </c>
@@ -10794,7 +10811,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>146</v>
       </c>
@@ -10805,7 +10822,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>147</v>
       </c>
@@ -10816,7 +10833,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>148</v>
       </c>
@@ -10827,7 +10844,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>149</v>
       </c>
@@ -10838,7 +10855,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>150</v>
       </c>
@@ -10849,7 +10866,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>151</v>
       </c>
@@ -10860,7 +10877,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>152</v>
       </c>
@@ -10871,7 +10888,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>153</v>
       </c>
@@ -10882,7 +10899,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>154</v>
       </c>
@@ -10893,7 +10910,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>155</v>
       </c>
@@ -10904,7 +10921,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>156</v>
       </c>
@@ -10915,7 +10932,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>157</v>
       </c>
@@ -10926,7 +10943,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>158</v>
       </c>
@@ -10937,7 +10954,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>159</v>
       </c>
@@ -10948,7 +10965,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>160</v>
       </c>
@@ -10959,7 +10976,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>161</v>
       </c>
@@ -10970,7 +10987,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>162</v>
       </c>
@@ -10981,7 +10998,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>163</v>
       </c>
@@ -10992,7 +11009,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>164</v>
       </c>
@@ -11003,7 +11020,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>165</v>
       </c>
@@ -11014,7 +11031,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>166</v>
       </c>
@@ -11025,7 +11042,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>167</v>
       </c>
@@ -11036,7 +11053,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>168</v>
       </c>
@@ -11047,7 +11064,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>169</v>
       </c>
@@ -11058,7 +11075,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>170</v>
       </c>
@@ -11069,7 +11086,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>171</v>
       </c>
@@ -11080,7 +11097,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>172</v>
       </c>
@@ -11091,7 +11108,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>173</v>
       </c>
@@ -11102,7 +11119,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>174</v>
       </c>
@@ -11113,7 +11130,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>175</v>
       </c>
@@ -11124,7 +11141,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>176</v>
       </c>
@@ -11135,7 +11152,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>177</v>
       </c>
@@ -11146,7 +11163,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>178</v>
       </c>
@@ -11157,7 +11174,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>179</v>
       </c>
@@ -11168,7 +11185,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>180</v>
       </c>
@@ -11179,7 +11196,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>181</v>
       </c>
@@ -11190,7 +11207,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>182</v>
       </c>
@@ -11201,7 +11218,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>183</v>
       </c>
@@ -11212,7 +11229,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>184</v>
       </c>
@@ -11223,7 +11240,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>185</v>
       </c>
@@ -11234,7 +11251,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>186</v>
       </c>
@@ -11245,7 +11262,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>187</v>
       </c>
@@ -11256,7 +11273,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>188</v>
       </c>
@@ -11267,7 +11284,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>189</v>
       </c>
@@ -11278,7 +11295,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>190</v>
       </c>
@@ -11289,7 +11306,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>191</v>
       </c>
@@ -11300,7 +11317,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>192</v>
       </c>
@@ -11311,7 +11328,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>193</v>
       </c>
@@ -11322,7 +11339,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>194</v>
       </c>
@@ -11333,7 +11350,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>195</v>
       </c>
@@ -11344,7 +11361,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>196</v>
       </c>
@@ -11355,7 +11372,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>197</v>
       </c>
@@ -11366,7 +11383,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>198</v>
       </c>
@@ -11377,7 +11394,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>199</v>
       </c>
@@ -11388,7 +11405,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>200</v>
       </c>
@@ -11399,7 +11416,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>201</v>
       </c>
@@ -11410,7 +11427,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>202</v>
       </c>
@@ -11421,7 +11438,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>203</v>
       </c>
@@ -11432,7 +11449,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>204</v>
       </c>
@@ -11443,7 +11460,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>205</v>
       </c>
@@ -11454,7 +11471,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>206</v>
       </c>
@@ -11465,7 +11482,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>207</v>
       </c>
@@ -11476,7 +11493,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>208</v>
       </c>
@@ -11487,7 +11504,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>209</v>
       </c>
@@ -11498,7 +11515,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>210</v>
       </c>
@@ -11509,7 +11526,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>211</v>
       </c>
@@ -11520,7 +11537,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>212</v>
       </c>
@@ -11531,7 +11548,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>213</v>
       </c>
@@ -11542,7 +11559,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>214</v>
       </c>
@@ -11553,7 +11570,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>215</v>
       </c>
@@ -11564,7 +11581,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>216</v>
       </c>
@@ -11575,7 +11592,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>217</v>
       </c>
@@ -11586,7 +11603,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>218</v>
       </c>
@@ -11597,7 +11614,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>219</v>
       </c>
@@ -11608,7 +11625,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>220</v>
       </c>
@@ -11619,7 +11636,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>221</v>
       </c>
@@ -11630,7 +11647,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>222</v>
       </c>
@@ -11641,7 +11658,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>223</v>
       </c>
@@ -11652,7 +11669,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>224</v>
       </c>
@@ -11663,7 +11680,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>225</v>
       </c>
@@ -11674,7 +11691,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>226</v>
       </c>
@@ -11685,7 +11702,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>227</v>
       </c>
@@ -11696,7 +11713,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>228</v>
       </c>
@@ -11707,7 +11724,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>229</v>
       </c>
@@ -11718,7 +11735,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>230</v>
       </c>
@@ -11729,7 +11746,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>231</v>
       </c>
@@ -11740,7 +11757,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>232</v>
       </c>
@@ -11751,7 +11768,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>233</v>
       </c>
@@ -11762,7 +11779,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>234</v>
       </c>
@@ -11773,7 +11790,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>235</v>
       </c>
@@ -11784,7 +11801,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>236</v>
       </c>
@@ -11795,7 +11812,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>237</v>
       </c>
@@ -11806,7 +11823,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>238</v>
       </c>
@@ -11817,7 +11834,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>239</v>
       </c>
@@ -11828,7 +11845,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>240</v>
       </c>
@@ -11839,7 +11856,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>241</v>
       </c>
@@ -11850,7 +11867,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>242</v>
       </c>
@@ -11861,7 +11878,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>243</v>
       </c>
@@ -11872,7 +11889,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>244</v>
       </c>
@@ -11883,7 +11900,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>245</v>
       </c>
@@ -11894,7 +11911,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>246</v>
       </c>
@@ -11905,7 +11922,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>247</v>
       </c>
@@ -11916,7 +11933,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>248</v>
       </c>
@@ -11927,7 +11944,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>249</v>
       </c>
@@ -11938,7 +11955,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>250</v>
       </c>
@@ -11949,7 +11966,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>251</v>
       </c>
@@ -11960,7 +11977,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>252</v>
       </c>
@@ -11971,7 +11988,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>253</v>
       </c>
@@ -11982,7 +11999,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>254</v>
       </c>
@@ -11993,7 +12010,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>255</v>
       </c>
@@ -12004,7 +12021,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>256</v>
       </c>
@@ -12015,7 +12032,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>257</v>
       </c>
@@ -12026,7 +12043,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>258</v>
       </c>
@@ -12037,7 +12054,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>259</v>
       </c>
@@ -12048,7 +12065,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>260</v>
       </c>
@@ -12059,7 +12076,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>261</v>
       </c>
@@ -12070,7 +12087,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>262</v>
       </c>
@@ -12081,7 +12098,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>263</v>
       </c>
@@ -12092,7 +12109,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>264</v>
       </c>
@@ -12103,7 +12120,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>265</v>
       </c>
@@ -12114,7 +12131,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>266</v>
       </c>
@@ -12125,7 +12142,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>267</v>
       </c>
@@ -12136,7 +12153,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>268</v>
       </c>
@@ -12147,7 +12164,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>269</v>
       </c>
@@ -12158,7 +12175,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>270</v>
       </c>
@@ -12169,7 +12186,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>271</v>
       </c>
@@ -12180,7 +12197,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>272</v>
       </c>
@@ -12191,7 +12208,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>273</v>
       </c>
@@ -12202,7 +12219,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>274</v>
       </c>
@@ -12213,7 +12230,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>275</v>
       </c>
@@ -12224,7 +12241,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>276</v>
       </c>
@@ -12235,7 +12252,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>277</v>
       </c>
@@ -12246,7 +12263,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>278</v>
       </c>
@@ -12257,7 +12274,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>279</v>
       </c>
@@ -12268,7 +12285,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>280</v>
       </c>
@@ -12279,7 +12296,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>281</v>
       </c>
@@ -12290,7 +12307,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>282</v>
       </c>
@@ -12301,7 +12318,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>283</v>
       </c>
@@ -12312,7 +12329,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>284</v>
       </c>
@@ -12323,7 +12340,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>285</v>
       </c>
@@ -12334,7 +12351,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>286</v>
       </c>
@@ -12357,19 +12374,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EED83B1-72A2-4E44-83C6-946A1773E350}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="60.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>878</v>
       </c>
@@ -12383,7 +12400,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>880</v>
       </c>
@@ -12394,7 +12411,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>881</v>
       </c>
@@ -12405,7 +12422,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>881</v>
       </c>
@@ -12416,7 +12433,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>881</v>
       </c>
@@ -12427,7 +12444,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>881</v>
       </c>
@@ -12441,7 +12458,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>881</v>
       </c>
@@ -12452,7 +12469,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>883</v>
       </c>
@@ -12463,7 +12480,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>883</v>
       </c>
@@ -12474,7 +12491,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>883</v>
       </c>
@@ -12485,11 +12502,11 @@
         <v>903</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>883</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="58" t="s">
         <v>885</v>
       </c>
       <c r="C11" t="s">
@@ -12499,11 +12516,11 @@
         <v>917</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>883</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="58" t="s">
         <v>886</v>
       </c>
       <c r="C12" t="s">
@@ -12513,21 +12530,21 @@
         <v>917</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
         <v>883</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="58" t="s">
         <v>887</v>
       </c>
       <c r="C13" t="s">
         <v>828</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="79" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="107" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="107.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>888</v>
       </c>
@@ -12538,7 +12555,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
         <v>888</v>
       </c>
@@ -12549,7 +12566,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="s">
         <v>889</v>
       </c>
@@ -12560,7 +12577,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="71" t="s">
         <v>889</v>
       </c>
@@ -12571,7 +12588,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71" t="s">
         <v>889</v>
       </c>
@@ -12582,7 +12599,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="s">
         <v>889</v>
       </c>
@@ -12593,7 +12610,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
         <v>892</v>
       </c>
@@ -12604,7 +12621,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>892</v>
       </c>
@@ -12615,7 +12632,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
         <v>892</v>
       </c>
@@ -12626,7 +12643,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>894</v>
       </c>
@@ -12637,7 +12654,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="101" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="101.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
         <v>896</v>
       </c>
@@ -12648,7 +12665,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>896</v>
       </c>
@@ -12659,7 +12676,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
         <v>896</v>
       </c>
@@ -12670,7 +12687,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
         <v>896</v>
       </c>
@@ -12681,7 +12698,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="71" t="s">
         <v>898</v>
       </c>
@@ -12692,7 +12709,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="71" t="s">
         <v>898</v>
       </c>
@@ -12703,7 +12720,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="71" t="s">
         <v>898</v>
       </c>
@@ -12717,11 +12734,11 @@
         <v>917</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="71" t="s">
         <v>898</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
@@ -12731,7 +12748,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="72" t="s">
         <v>901</v>
       </c>
@@ -12742,7 +12759,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="95.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" ht="95.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="72" t="s">
         <v>901</v>
       </c>
@@ -12759,7 +12776,7 @@
     <protectedRange algorithmName="SHA-512" hashValue="0Xz+Wi9aKWcaG/ZdDaSval+p74ojP3nfvKjkwz+vB/UKbafHBNLnYn5pKYpH7Qzemw3s8aScEiqwKlFcO+rrMQ==" saltValue="U2inTcs/QgUDZD8MprVJww==" spinCount="100000" sqref="B10" name="Range1_1"/>
   </protectedRanges>
   <conditionalFormatting sqref="A2:B33">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13033,15 +13050,15 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58E40807-54A5-4242-82BE-B76E033362D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6e4201fd-6f06-4ba6-9302-d30e0cc972b2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ba7dd70c-543f-464c-814a-b07805f6c10a"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ba7dd70c-543f-464c-814a-b07805f6c10a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dummy_data/ewts_master_dummy_data.xlsx
+++ b/dummy_data/ewts_master_dummy_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hun.rim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ifrcorg-my.sharepoint.com/personal/anshu_saikia_ifrc_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC07FBCB-71CA-471C-92D9-E648B3B362CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D360E5B-0BC8-4CC6-82AF-D1D64A62B72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{25E8ACD6-C9F0-4828-AAC2-6BEC79C8E8F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{25E8ACD6-C9F0-4828-AAC2-6BEC79C8E8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="EA_MD" sheetId="1" r:id="rId1"/>
@@ -3867,7 +3867,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3985,7 +3985,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3998,7 +3998,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4018,7 +4018,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4294,7 +4294,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4314,7 +4314,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4334,7 +4334,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4354,7 +4354,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4374,7 +4374,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4394,7 +4394,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4414,7 +4414,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4710,7 +4710,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4730,7 +4730,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4750,7 +4750,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4772,7 +4772,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4792,7 +4792,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -5018,7 +5018,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -5115,7 +5115,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5140,19 +5140,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5282,7 +5282,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -5925,44 +5925,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F4EFAB-EC39-487F-816B-9A6CE4F0BFDE}">
-  <dimension ref="A1:BY6"/>
+  <dimension ref="A1:BY36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="BG5" sqref="BG5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="29.7109375" style="3" customWidth="1"/>
-    <col min="16" max="27" width="10.85546875" style="3" customWidth="1"/>
-    <col min="28" max="30" width="29.7109375" style="3" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" style="3" customWidth="1"/>
-    <col min="32" max="35" width="13.28515625" style="3" customWidth="1"/>
-    <col min="36" max="39" width="14.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="29.7265625" style="3" customWidth="1"/>
+    <col min="16" max="27" width="10.81640625" style="3" customWidth="1"/>
+    <col min="28" max="30" width="29.7265625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="14.54296875" style="3" customWidth="1"/>
+    <col min="32" max="35" width="13.26953125" style="3" customWidth="1"/>
+    <col min="36" max="39" width="14.26953125" style="3" customWidth="1"/>
     <col min="40" max="44" width="20" style="3" customWidth="1"/>
-    <col min="45" max="45" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="50" width="29.7109375" style="3" customWidth="1"/>
-    <col min="51" max="51" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="63" width="29.7109375" style="3" customWidth="1"/>
-    <col min="64" max="65" width="15.28515625" style="3" customWidth="1"/>
+    <col min="45" max="45" width="32.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="50" width="29.7265625" style="3" customWidth="1"/>
+    <col min="51" max="51" width="32.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="63" width="29.7265625" style="3" customWidth="1"/>
+    <col min="64" max="65" width="15.26953125" style="3" customWidth="1"/>
     <col min="66" max="66" width="14" style="3" customWidth="1"/>
     <col min="67" max="70" width="12" style="3" customWidth="1"/>
-    <col min="71" max="75" width="14.42578125" style="3" customWidth="1"/>
-    <col min="76" max="77" width="29.7109375" style="3" customWidth="1"/>
+    <col min="71" max="75" width="14.453125" style="3" customWidth="1"/>
+    <col min="76" max="77" width="29.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" ht="32" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>CONCATENATE("EA",Table1[[#This Row],[Country]],Table1[[#This Row],[Appeal Code]])</f>
         <v>EAMozambiqueMDRM989</v>
@@ -6426,7 +6426,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" ht="32" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>CONCATENATE("EA",Table1[[#This Row],[Country]],Table1[[#This Row],[Appeal Code]])</f>
         <v>EANigeriaMDRN777</v>
@@ -6657,7 +6657,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="4" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:77" ht="32" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>CONCATENATE("EA",Table1[[#This Row],[Country]],Table1[[#This Row],[Appeal Code]])</f>
         <v>EAPeruMDRO999</v>
@@ -6884,7 +6884,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="5" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77" ht="32" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>CONCATENATE("EA",Table1[[#This Row],[Country]],Table1[[#This Row],[Appeal Code]])</f>
         <v>EAMaldivesMDRM787</v>
@@ -7034,40 +7034,40 @@
         <v>45533</v>
       </c>
       <c r="AY5" s="16">
-        <v>45514</v>
+        <v>45550</v>
       </c>
       <c r="AZ5" s="16">
-        <v>45515</v>
+        <v>45551</v>
       </c>
       <c r="BA5" s="16">
-        <v>45519</v>
+        <v>45555</v>
       </c>
       <c r="BB5" s="16">
-        <v>45509</v>
+        <v>45533</v>
       </c>
       <c r="BC5" s="16">
-        <v>45513</v>
+        <v>45536</v>
       </c>
       <c r="BD5" s="16">
-        <v>45516</v>
+        <v>45544</v>
       </c>
       <c r="BE5" s="16">
-        <v>45524</v>
+        <v>45555</v>
       </c>
       <c r="BF5" s="16">
-        <v>45540</v>
+        <v>45565</v>
       </c>
       <c r="BG5" s="16">
-        <v>45515</v>
+        <v>45549</v>
       </c>
       <c r="BH5" s="16">
-        <v>45517</v>
+        <v>45555</v>
       </c>
       <c r="BI5" s="16">
-        <v>45518</v>
+        <v>45557</v>
       </c>
       <c r="BJ5" s="16">
-        <v>45520</v>
+        <v>45560</v>
       </c>
       <c r="BK5" s="16">
         <v>45566</v>
@@ -7115,7 +7115,7 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="6" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77" ht="32" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>CONCATENATE("EA",Table1[[#This Row],[Country]],Table1[[#This Row],[Appeal Code]])</f>
         <v>EAJordanMDRJ000</v>
@@ -7344,6 +7344,11 @@
       </c>
       <c r="BY6" s="16">
         <v>45543</v>
+      </c>
+    </row>
+    <row r="36" spans="43:43" x14ac:dyDescent="0.35">
+      <c r="AQ36" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7404,30 +7409,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4824102C-7A3F-4D60-AD67-EC266F49068C}">
   <dimension ref="A1:CG6"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="38" width="29.7109375" customWidth="1"/>
-    <col min="39" max="41" width="22.5703125" customWidth="1"/>
-    <col min="42" max="45" width="13.42578125" customWidth="1"/>
-    <col min="46" max="48" width="16.7109375" customWidth="1"/>
-    <col min="49" max="51" width="16.140625" customWidth="1"/>
-    <col min="52" max="53" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="38" width="29.7265625" customWidth="1"/>
+    <col min="39" max="41" width="22.54296875" customWidth="1"/>
+    <col min="42" max="45" width="13.453125" customWidth="1"/>
+    <col min="46" max="48" width="16.7265625" customWidth="1"/>
+    <col min="49" max="51" width="16.1796875" customWidth="1"/>
+    <col min="52" max="53" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7620,7 +7626,7 @@
       <c r="CF1" s="32"/>
       <c r="CG1" s="33"/>
     </row>
-    <row r="2" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="str">
         <f>CONCATENATE("DREF",Table13[[#This Row],[Country]],Table13[[#This Row],[Appeal Code]])</f>
         <v>DREFAfghanistanMDRA111</v>
@@ -7815,7 +7821,7 @@
       <c r="CF2" s="22"/>
       <c r="CG2" s="23"/>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="str">
         <f>CONCATENATE("DREF",Table13[[#This Row],[Country]],Table13[[#This Row],[Appeal Code]])</f>
         <v>DREFBangladeshMDRB567</v>
@@ -7985,7 +7991,7 @@
       <c r="BI3" s="29"/>
       <c r="BJ3" s="26"/>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="str">
         <f>CONCATENATE("DREF",Table13[[#This Row],[Country]],Table13[[#This Row],[Appeal Code]])</f>
         <v>DREFGermanyMDRG909</v>
@@ -8148,7 +8154,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="str">
         <f>CONCATENATE("DREF",Table13[[#This Row],[Country]],Table13[[#This Row],[Appeal Code]])</f>
         <v>DREFChileMDRC464</v>
@@ -8188,7 +8194,7 @@
         <v>45529</v>
       </c>
       <c r="M5" s="49">
-        <v>45525</v>
+        <v>45538</v>
       </c>
       <c r="N5" s="49">
         <v>45529</v>
@@ -8311,7 +8317,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="str">
         <f>CONCATENATE("DREF",Table13[[#This Row],[Country]],Table13[[#This Row],[Appeal Code]])</f>
         <v>DREFEgyptMDRE698</v>
@@ -8351,7 +8357,7 @@
         <v>45538</v>
       </c>
       <c r="M6" s="49">
-        <v>45541</v>
+        <v>45558</v>
       </c>
       <c r="N6" s="49">
         <v>45556</v>
@@ -8535,33 +8541,34 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="29.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="29.7265625" customWidth="1"/>
+    <col min="15" max="15" width="12.7265625" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" customWidth="1"/>
-    <col min="21" max="23" width="29.7109375" customWidth="1"/>
-    <col min="24" max="24" width="29.5703125" customWidth="1"/>
-    <col min="25" max="35" width="29.7109375" customWidth="1"/>
-    <col min="36" max="36" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="46" width="29.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.26953125" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" customWidth="1"/>
+    <col min="21" max="23" width="29.7265625" customWidth="1"/>
+    <col min="24" max="24" width="29.54296875" customWidth="1"/>
+    <col min="25" max="35" width="29.7265625" customWidth="1"/>
+    <col min="36" max="36" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="46" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8701,7 +8708,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="32" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>CONCATENATE("MCMR",Table14[[#This Row],[Country]],Table14[[#This Row],[Appeal Code]])</f>
         <v>MCMRNepalMDRS2002</v>
@@ -8843,7 +8850,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="32" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>CONCATENATE("MCMR",Table14[[#This Row],[Country]],Table14[[#This Row],[Appeal Code]])</f>
         <v>MCMRZambiaMDRS7890</v>
@@ -8985,7 +8992,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>CONCATENATE("MCMR",Table14[[#This Row],[Country]],Table14[[#This Row],[Appeal Code]])</f>
         <v>MCMRJordanMDRS1234</v>
@@ -9187,35 +9194,35 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="29.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" customWidth="1"/>
-    <col min="22" max="25" width="29.7109375" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="29.7265625" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" customWidth="1"/>
+    <col min="18" max="18" width="9.81640625" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" customWidth="1"/>
+    <col min="20" max="20" width="12.81640625" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" customWidth="1"/>
+    <col min="22" max="25" width="29.7265625" customWidth="1"/>
+    <col min="26" max="26" width="12.54296875" customWidth="1"/>
+    <col min="27" max="27" width="13.7265625" customWidth="1"/>
+    <col min="28" max="28" width="13.453125" customWidth="1"/>
     <col min="29" max="29" width="14" customWidth="1"/>
-    <col min="30" max="62" width="29.7109375" customWidth="1"/>
+    <col min="30" max="62" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9403,7 +9410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" ht="32" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>CONCATENATE("PCCE",Table15[[#This Row],[Country]],Table15[[#This Row],[Appeal Code]])</f>
         <v>PCCEIraqMDRI1998</v>
@@ -9591,7 +9598,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" ht="32" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>CONCATENATE("PCCE",Table15[[#This Row],[Country]],Table15[[#This Row],[Appeal Code]])</f>
         <v>PCCENigeriaMDRN6879</v>
@@ -9839,17 +9846,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9872,7 +9879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -9895,7 +9902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -9918,7 +9925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -9941,7 +9948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -9961,7 +9968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -9981,7 +9988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -9998,7 +10005,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>77</v>
       </c>
@@ -10012,7 +10019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>78</v>
       </c>
@@ -10026,7 +10033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>79</v>
       </c>
@@ -10040,7 +10047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>80</v>
       </c>
@@ -10054,7 +10061,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>81</v>
       </c>
@@ -10068,7 +10075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -10082,7 +10089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -10096,7 +10103,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -10110,7 +10117,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -10124,7 +10131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -10138,7 +10145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -10152,7 +10159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -10166,7 +10173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -10180,7 +10187,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -10194,7 +10201,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -10208,7 +10215,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -10222,7 +10229,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -10236,7 +10243,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -10250,7 +10257,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -10261,7 +10268,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>96</v>
       </c>
@@ -10272,7 +10279,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>97</v>
       </c>
@@ -10283,7 +10290,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>98</v>
       </c>
@@ -10294,7 +10301,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>99</v>
       </c>
@@ -10305,7 +10312,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>100</v>
       </c>
@@ -10316,7 +10323,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>101</v>
       </c>
@@ -10327,7 +10334,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>102</v>
       </c>
@@ -10338,7 +10345,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>103</v>
       </c>
@@ -10349,7 +10356,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>104</v>
       </c>
@@ -10360,7 +10367,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>105</v>
       </c>
@@ -10371,7 +10378,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>106</v>
       </c>
@@ -10382,7 +10389,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>107</v>
       </c>
@@ -10393,7 +10400,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>108</v>
       </c>
@@ -10404,7 +10411,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>109</v>
       </c>
@@ -10415,7 +10422,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>110</v>
       </c>
@@ -10426,7 +10433,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>111</v>
       </c>
@@ -10437,7 +10444,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>112</v>
       </c>
@@ -10448,7 +10455,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>113</v>
       </c>
@@ -10459,7 +10466,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>114</v>
       </c>
@@ -10470,7 +10477,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>115</v>
       </c>
@@ -10481,7 +10488,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>116</v>
       </c>
@@ -10492,7 +10499,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>117</v>
       </c>
@@ -10503,7 +10510,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>118</v>
       </c>
@@ -10514,7 +10521,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>119</v>
       </c>
@@ -10525,7 +10532,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>120</v>
       </c>
@@ -10536,7 +10543,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>121</v>
       </c>
@@ -10547,7 +10554,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>122</v>
       </c>
@@ -10558,7 +10565,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>123</v>
       </c>
@@ -10569,7 +10576,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>124</v>
       </c>
@@ -10580,7 +10587,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>125</v>
       </c>
@@ -10591,7 +10598,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>126</v>
       </c>
@@ -10602,7 +10609,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>127</v>
       </c>
@@ -10613,7 +10620,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>128</v>
       </c>
@@ -10624,7 +10631,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>129</v>
       </c>
@@ -10635,7 +10642,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>130</v>
       </c>
@@ -10646,7 +10653,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>131</v>
       </c>
@@ -10657,7 +10664,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>132</v>
       </c>
@@ -10668,7 +10675,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>133</v>
       </c>
@@ -10679,7 +10686,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>134</v>
       </c>
@@ -10690,7 +10697,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>135</v>
       </c>
@@ -10701,7 +10708,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>136</v>
       </c>
@@ -10712,7 +10719,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>137</v>
       </c>
@@ -10723,7 +10730,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>138</v>
       </c>
@@ -10734,7 +10741,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>139</v>
       </c>
@@ -10745,7 +10752,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>140</v>
       </c>
@@ -10756,7 +10763,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>141</v>
       </c>
@@ -10767,7 +10774,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>142</v>
       </c>
@@ -10778,7 +10785,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>143</v>
       </c>
@@ -10789,7 +10796,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>144</v>
       </c>
@@ -10800,7 +10807,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>145</v>
       </c>
@@ -10811,7 +10818,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>146</v>
       </c>
@@ -10822,7 +10829,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>147</v>
       </c>
@@ -10833,7 +10840,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>148</v>
       </c>
@@ -10844,7 +10851,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>149</v>
       </c>
@@ -10855,7 +10862,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>150</v>
       </c>
@@ -10866,7 +10873,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>151</v>
       </c>
@@ -10877,7 +10884,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>152</v>
       </c>
@@ -10888,7 +10895,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>153</v>
       </c>
@@ -10899,7 +10906,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>154</v>
       </c>
@@ -10910,7 +10917,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>155</v>
       </c>
@@ -10921,7 +10928,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>156</v>
       </c>
@@ -10932,7 +10939,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>157</v>
       </c>
@@ -10943,7 +10950,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>158</v>
       </c>
@@ -10954,7 +10961,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>159</v>
       </c>
@@ -10965,7 +10972,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>160</v>
       </c>
@@ -10976,7 +10983,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>161</v>
       </c>
@@ -10987,7 +10994,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>162</v>
       </c>
@@ -10998,7 +11005,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>163</v>
       </c>
@@ -11009,7 +11016,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>164</v>
       </c>
@@ -11020,7 +11027,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>165</v>
       </c>
@@ -11031,7 +11038,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>166</v>
       </c>
@@ -11042,7 +11049,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>167</v>
       </c>
@@ -11053,7 +11060,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>168</v>
       </c>
@@ -11064,7 +11071,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>169</v>
       </c>
@@ -11075,7 +11082,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>170</v>
       </c>
@@ -11086,7 +11093,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>171</v>
       </c>
@@ -11097,7 +11104,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>172</v>
       </c>
@@ -11108,7 +11115,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>173</v>
       </c>
@@ -11119,7 +11126,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>174</v>
       </c>
@@ -11130,7 +11137,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>175</v>
       </c>
@@ -11141,7 +11148,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>176</v>
       </c>
@@ -11152,7 +11159,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>177</v>
       </c>
@@ -11163,7 +11170,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>178</v>
       </c>
@@ -11174,7 +11181,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>179</v>
       </c>
@@ -11185,7 +11192,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>180</v>
       </c>
@@ -11196,7 +11203,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>181</v>
       </c>
@@ -11207,7 +11214,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>182</v>
       </c>
@@ -11218,7 +11225,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>183</v>
       </c>
@@ -11229,7 +11236,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>184</v>
       </c>
@@ -11240,7 +11247,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>185</v>
       </c>
@@ -11251,7 +11258,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>186</v>
       </c>
@@ -11262,7 +11269,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>187</v>
       </c>
@@ -11273,7 +11280,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>188</v>
       </c>
@@ -11284,7 +11291,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>189</v>
       </c>
@@ -11295,7 +11302,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>190</v>
       </c>
@@ -11306,7 +11313,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>191</v>
       </c>
@@ -11317,7 +11324,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>192</v>
       </c>
@@ -11328,7 +11335,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>193</v>
       </c>
@@ -11339,7 +11346,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>194</v>
       </c>
@@ -11350,7 +11357,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>195</v>
       </c>
@@ -11361,7 +11368,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>196</v>
       </c>
@@ -11372,7 +11379,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>197</v>
       </c>
@@ -11383,7 +11390,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>198</v>
       </c>
@@ -11394,7 +11401,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>199</v>
       </c>
@@ -11405,7 +11412,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>200</v>
       </c>
@@ -11416,7 +11423,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>201</v>
       </c>
@@ -11427,7 +11434,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>202</v>
       </c>
@@ -11438,7 +11445,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>203</v>
       </c>
@@ -11449,7 +11456,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>204</v>
       </c>
@@ -11460,7 +11467,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>205</v>
       </c>
@@ -11471,7 +11478,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>206</v>
       </c>
@@ -11482,7 +11489,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>207</v>
       </c>
@@ -11493,7 +11500,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>208</v>
       </c>
@@ -11504,7 +11511,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>209</v>
       </c>
@@ -11515,7 +11522,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>210</v>
       </c>
@@ -11526,7 +11533,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>211</v>
       </c>
@@ -11537,7 +11544,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>212</v>
       </c>
@@ -11548,7 +11555,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>213</v>
       </c>
@@ -11559,7 +11566,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>214</v>
       </c>
@@ -11570,7 +11577,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>215</v>
       </c>
@@ -11581,7 +11588,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>216</v>
       </c>
@@ -11592,7 +11599,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>217</v>
       </c>
@@ -11603,7 +11610,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>218</v>
       </c>
@@ -11614,7 +11621,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>219</v>
       </c>
@@ -11625,7 +11632,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>220</v>
       </c>
@@ -11636,7 +11643,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>221</v>
       </c>
@@ -11647,7 +11654,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>222</v>
       </c>
@@ -11658,7 +11665,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>223</v>
       </c>
@@ -11669,7 +11676,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>224</v>
       </c>
@@ -11680,7 +11687,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>225</v>
       </c>
@@ -11691,7 +11698,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>226</v>
       </c>
@@ -11702,7 +11709,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>227</v>
       </c>
@@ -11713,7 +11720,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>228</v>
       </c>
@@ -11724,7 +11731,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>229</v>
       </c>
@@ -11735,7 +11742,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>230</v>
       </c>
@@ -11746,7 +11753,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>231</v>
       </c>
@@ -11757,7 +11764,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>232</v>
       </c>
@@ -11768,7 +11775,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>233</v>
       </c>
@@ -11779,7 +11786,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>234</v>
       </c>
@@ -11790,7 +11797,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>235</v>
       </c>
@@ -11801,7 +11808,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>236</v>
       </c>
@@ -11812,7 +11819,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>237</v>
       </c>
@@ -11823,7 +11830,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>238</v>
       </c>
@@ -11834,7 +11841,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>239</v>
       </c>
@@ -11845,7 +11852,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>240</v>
       </c>
@@ -11856,7 +11863,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>241</v>
       </c>
@@ -11867,7 +11874,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>242</v>
       </c>
@@ -11878,7 +11885,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>243</v>
       </c>
@@ -11889,7 +11896,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>244</v>
       </c>
@@ -11900,7 +11907,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>245</v>
       </c>
@@ -11911,7 +11918,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>246</v>
       </c>
@@ -11922,7 +11929,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>247</v>
       </c>
@@ -11933,7 +11940,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>248</v>
       </c>
@@ -11944,7 +11951,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>249</v>
       </c>
@@ -11955,7 +11962,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>250</v>
       </c>
@@ -11966,7 +11973,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>251</v>
       </c>
@@ -11977,7 +11984,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>252</v>
       </c>
@@ -11988,7 +11995,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>253</v>
       </c>
@@ -11999,7 +12006,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>254</v>
       </c>
@@ -12010,7 +12017,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>255</v>
       </c>
@@ -12021,7 +12028,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>256</v>
       </c>
@@ -12032,7 +12039,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>257</v>
       </c>
@@ -12043,7 +12050,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>258</v>
       </c>
@@ -12054,7 +12061,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>259</v>
       </c>
@@ -12065,7 +12072,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>260</v>
       </c>
@@ -12076,7 +12083,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>261</v>
       </c>
@@ -12087,7 +12094,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>262</v>
       </c>
@@ -12098,7 +12105,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>263</v>
       </c>
@@ -12109,7 +12116,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>264</v>
       </c>
@@ -12120,7 +12127,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>265</v>
       </c>
@@ -12131,7 +12138,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>266</v>
       </c>
@@ -12142,7 +12149,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>267</v>
       </c>
@@ -12153,7 +12160,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>268</v>
       </c>
@@ -12164,7 +12171,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>269</v>
       </c>
@@ -12175,7 +12182,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>270</v>
       </c>
@@ -12186,7 +12193,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>271</v>
       </c>
@@ -12197,7 +12204,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>272</v>
       </c>
@@ -12208,7 +12215,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>273</v>
       </c>
@@ -12219,7 +12226,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>274</v>
       </c>
@@ -12230,7 +12237,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>275</v>
       </c>
@@ -12241,7 +12248,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>276</v>
       </c>
@@ -12252,7 +12259,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>277</v>
       </c>
@@ -12263,7 +12270,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>278</v>
       </c>
@@ -12274,7 +12281,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>279</v>
       </c>
@@ -12285,7 +12292,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>280</v>
       </c>
@@ -12296,7 +12303,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>281</v>
       </c>
@@ -12307,7 +12314,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>282</v>
       </c>
@@ -12318,7 +12325,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>283</v>
       </c>
@@ -12329,7 +12336,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>284</v>
       </c>
@@ -12340,7 +12347,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>285</v>
       </c>
@@ -12351,7 +12358,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>286</v>
       </c>
@@ -12378,15 +12385,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="74" t="s">
         <v>878</v>
       </c>
@@ -12400,7 +12407,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
         <v>880</v>
       </c>
@@ -12411,7 +12418,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="69" t="s">
         <v>881</v>
       </c>
@@ -12422,7 +12429,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="69" t="s">
         <v>881</v>
       </c>
@@ -12433,7 +12440,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="69" t="s">
         <v>881</v>
       </c>
@@ -12444,7 +12451,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.35">
       <c r="A6" s="69" t="s">
         <v>881</v>
       </c>
@@ -12458,7 +12465,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="69" t="s">
         <v>881</v>
       </c>
@@ -12469,7 +12476,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="70" t="s">
         <v>883</v>
       </c>
@@ -12480,7 +12487,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="70" t="s">
         <v>883</v>
       </c>
@@ -12491,7 +12498,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="70" t="s">
         <v>883</v>
       </c>
@@ -12502,7 +12509,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="70" t="s">
         <v>883</v>
       </c>
@@ -12516,7 +12523,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="70" t="s">
         <v>883</v>
       </c>
@@ -12530,7 +12537,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="70" t="s">
         <v>883</v>
       </c>
@@ -12544,7 +12551,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="107.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="107" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="69" t="s">
         <v>888</v>
       </c>
@@ -12555,7 +12562,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="69" t="s">
         <v>888</v>
       </c>
@@ -12566,7 +12573,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="71" t="s">
         <v>889</v>
       </c>
@@ -12577,7 +12584,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="71" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="71" t="s">
         <v>889</v>
       </c>
@@ -12588,7 +12595,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="71" t="s">
         <v>889</v>
       </c>
@@ -12599,7 +12606,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="71" t="s">
         <v>889</v>
       </c>
@@ -12610,7 +12617,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="71" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="69" t="s">
         <v>892</v>
       </c>
@@ -12621,7 +12628,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="69" t="s">
         <v>892</v>
       </c>
@@ -12632,7 +12639,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="69" t="s">
         <v>892</v>
       </c>
@@ -12643,7 +12650,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="69" t="s">
         <v>894</v>
       </c>
@@ -12654,7 +12661,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="101.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="101" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="69" t="s">
         <v>896</v>
       </c>
@@ -12665,7 +12672,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="69" t="s">
         <v>896</v>
       </c>
@@ -12676,7 +12683,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="69" t="s">
         <v>896</v>
       </c>
@@ -12687,7 +12694,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="69" t="s">
         <v>896</v>
       </c>
@@ -12698,7 +12705,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="71" t="s">
         <v>898</v>
       </c>
@@ -12709,7 +12716,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="71" t="s">
         <v>898</v>
       </c>
@@ -12720,7 +12727,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="71" t="s">
         <v>898</v>
       </c>
@@ -12734,7 +12741,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="71" t="s">
         <v>898</v>
       </c>
@@ -12748,7 +12755,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="72" t="s">
         <v>901</v>
       </c>
@@ -12759,7 +12766,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="95.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="95.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="72" t="s">
         <v>901</v>
       </c>
@@ -12799,6 +12806,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ba7dd70c-543f-464c-814a-b07805f6c10a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e4201fd-6f06-4ba6-9302-d30e0cc972b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004A13F316E6F7C4D9141E1CACFC56FC4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5da9df4ed8f7232ba850a72ee947b4fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e4201fd-6f06-4ba6-9302-d30e0cc972b2" xmlns:ns3="ba7dd70c-543f-464c-814a-b07805f6c10a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5a797b423f9340a659e0dbde1cfc413" ns2:_="" ns3:_="">
     <xsd:import namespace="6e4201fd-6f06-4ba6-9302-d30e0cc972b2"/>
@@ -12999,27 +13026,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99CA715A-3991-4B2C-84CD-753C6EC8A3EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ba7dd70c-543f-464c-814a-b07805f6c10a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e4201fd-6f06-4ba6-9302-d30e0cc972b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58E40807-54A5-4242-82BE-B76E033362D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6e4201fd-6f06-4ba6-9302-d30e0cc972b2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ba7dd70c-543f-464c-814a-b07805f6c10a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE308AF-B4A6-4479-9D31-CF6D88E5C43F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13036,29 +13068,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99CA715A-3991-4B2C-84CD-753C6EC8A3EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58E40807-54A5-4242-82BE-B76E033362D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6e4201fd-6f06-4ba6-9302-d30e0cc972b2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ba7dd70c-543f-464c-814a-b07805f6c10a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>